--- a/_notes_/Encounter Tables/NWNDS Plains Master List.xlsx
+++ b/_notes_/Encounter Tables/NWNDS Plains Master List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3990" uniqueCount="1201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3991" uniqueCount="1201">
   <si>
     <t>Name</t>
   </si>
@@ -4306,10 +4306,10 @@
   <dimension ref="A1:AA1028"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B359" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C102" sqref="C102"/>
+      <selection pane="bottomRight" activeCell="G361" sqref="G361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1"/>
@@ -5069,8 +5069,8 @@
       <c r="K16" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="L16" s="43" t="s">
-        <v>71</v>
+      <c r="L16" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="M16" s="17" t="s">
         <v>18</v>
@@ -5111,8 +5111,8 @@
       <c r="K17" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="43" t="s">
-        <v>74</v>
+      <c r="L17" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="M17" s="17" t="s">
         <v>18</v>
@@ -5125,7 +5125,7 @@
       <c r="A18" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C18" s="17" t="s">
@@ -5153,8 +5153,8 @@
       <c r="K18" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="L18" s="43" t="s">
-        <v>71</v>
+      <c r="L18" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="M18" s="17" t="s">
         <v>18</v>
@@ -7170,7 +7170,7 @@
       <c r="A61" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="2" t="s">
         <v>210</v>
       </c>
       <c r="C61" s="17" t="s">
@@ -7794,7 +7794,7 @@
       <c r="A75" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="B75" s="17" t="s">
+      <c r="B75" s="2" t="s">
         <v>245</v>
       </c>
       <c r="C75" s="17" t="s">
@@ -8466,7 +8466,7 @@
       <c r="A90" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="B90" s="17" t="s">
+      <c r="B90" s="2" t="s">
         <v>283</v>
       </c>
       <c r="C90" s="17" t="s">
@@ -9455,10 +9455,10 @@
       <c r="P110" s="17"/>
     </row>
     <row r="111" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A111" s="17" t="s">
+      <c r="A111" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B111" s="17" t="s">
+      <c r="B111" s="2" t="s">
         <v>334</v>
       </c>
       <c r="C111" s="17" t="s">
@@ -9486,8 +9486,8 @@
       <c r="K111" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="L111" s="43">
-        <v>44564</v>
+      <c r="L111" s="43" t="s">
+        <v>138</v>
       </c>
       <c r="M111" s="17" t="s">
         <v>18</v>
@@ -11339,7 +11339,7 @@
       <c r="A151" s="17" t="s">
         <v>396</v>
       </c>
-      <c r="B151" s="17" t="s">
+      <c r="B151" s="2" t="s">
         <v>397</v>
       </c>
       <c r="C151" s="17" t="s">
@@ -12050,7 +12050,7 @@
       <c r="A167" s="17" t="s">
         <v>432</v>
       </c>
-      <c r="B167" s="17" t="s">
+      <c r="B167" s="2" t="s">
         <v>433</v>
       </c>
       <c r="C167" s="17" t="s">
@@ -12597,7 +12597,7 @@
       <c r="A179" s="17" t="s">
         <v>462</v>
       </c>
-      <c r="B179" s="17" t="s">
+      <c r="B179" s="2" t="s">
         <v>463</v>
       </c>
       <c r="C179" s="17" t="s">
@@ -13125,7 +13125,7 @@
       <c r="A191" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="B191" s="17" t="s">
+      <c r="B191" s="2" t="s">
         <v>490</v>
       </c>
       <c r="C191" s="17" t="s">
@@ -14758,7 +14758,7 @@
       <c r="A225" s="17" t="s">
         <v>562</v>
       </c>
-      <c r="B225" s="17" t="s">
+      <c r="B225" s="2" t="s">
         <v>563</v>
       </c>
       <c r="C225" s="17" t="s">
@@ -15496,7 +15496,7 @@
       <c r="A240" s="17" t="s">
         <v>600</v>
       </c>
-      <c r="B240" s="17" t="s">
+      <c r="B240" s="2" t="s">
         <v>601</v>
       </c>
       <c r="C240" s="17" t="s">
@@ -16123,7 +16123,7 @@
       <c r="A253" s="17" t="s">
         <v>630</v>
       </c>
-      <c r="B253" s="17" t="s">
+      <c r="B253" s="2" t="s">
         <v>631</v>
       </c>
       <c r="C253" s="17" t="s">
@@ -16176,7 +16176,7 @@
       <c r="A254" s="17" t="s">
         <v>632</v>
       </c>
-      <c r="B254" s="17" t="s">
+      <c r="B254" s="2" t="s">
         <v>633</v>
       </c>
       <c r="C254" s="17" t="s">
@@ -16271,7 +16271,7 @@
       <c r="A256" s="17" t="s">
         <v>636</v>
       </c>
-      <c r="B256" s="17" t="s">
+      <c r="B256" s="2" t="s">
         <v>637</v>
       </c>
       <c r="C256" s="17" t="s">
@@ -17109,7 +17109,7 @@
       <c r="A273" s="17" t="s">
         <v>674</v>
       </c>
-      <c r="B273" s="17" t="s">
+      <c r="B273" s="2" t="s">
         <v>675</v>
       </c>
       <c r="C273" s="17" t="s">
@@ -17679,7 +17679,7 @@
       <c r="A285" s="17" t="s">
         <v>700</v>
       </c>
-      <c r="B285" s="17" t="s">
+      <c r="B285" s="2" t="s">
         <v>701</v>
       </c>
       <c r="C285" s="17" t="s">
@@ -19506,7 +19506,7 @@
       <c r="A325" s="17" t="s">
         <v>780</v>
       </c>
-      <c r="B325" s="17" t="s">
+      <c r="B325" s="2" t="s">
         <v>781</v>
       </c>
       <c r="C325" s="17" t="s">
@@ -20154,7 +20154,7 @@
       <c r="A340" s="17" t="s">
         <v>814</v>
       </c>
-      <c r="B340" s="17" t="s">
+      <c r="B340" s="2" t="s">
         <v>815</v>
       </c>
       <c r="C340" s="17" t="s">
@@ -20454,10 +20454,10 @@
       <c r="AA345" s="3"/>
     </row>
     <row r="346" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A346" s="17" t="s">
+      <c r="A346" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="B346" s="17" t="s">
+      <c r="B346" s="2" t="s">
         <v>831</v>
       </c>
       <c r="C346" s="17" t="s">
@@ -20925,7 +20925,7 @@
       <c r="A356" s="17" t="s">
         <v>851</v>
       </c>
-      <c r="B356" s="17" t="s">
+      <c r="B356" s="2" t="s">
         <v>852</v>
       </c>
       <c r="C356" s="17" t="s">
@@ -21247,7 +21247,7 @@
       <c r="A363" s="17" t="s">
         <v>863</v>
       </c>
-      <c r="B363" s="17" t="s">
+      <c r="B363" s="2" t="s">
         <v>864</v>
       </c>
       <c r="C363" s="17" t="s">
@@ -21870,7 +21870,7 @@
       <c r="A375" s="17" t="s">
         <v>900</v>
       </c>
-      <c r="B375" s="17" t="s">
+      <c r="B375" s="2" t="s">
         <v>901</v>
       </c>
       <c r="C375" s="17" t="s">
@@ -24804,7 +24804,7 @@
       <c r="A429" s="17" t="s">
         <v>1011</v>
       </c>
-      <c r="B429" s="17" t="s">
+      <c r="B429" s="2" t="s">
         <v>1012</v>
       </c>
       <c r="C429" s="17" t="s">
@@ -26025,7 +26025,7 @@
       <c r="A452" s="47" t="s">
         <v>1052</v>
       </c>
-      <c r="B452" s="47" t="s">
+      <c r="B452" s="48" t="s">
         <v>1053</v>
       </c>
       <c r="C452" s="47" t="s">
@@ -27097,7 +27097,7 @@
       <c r="A472" s="47" t="s">
         <v>1096</v>
       </c>
-      <c r="B472" s="47" t="s">
+      <c r="B472" s="48" t="s">
         <v>1097</v>
       </c>
       <c r="C472" s="47" t="s">
@@ -27150,7 +27150,7 @@
       <c r="A473" s="47" t="s">
         <v>1098</v>
       </c>
-      <c r="B473" s="47" t="s">
+      <c r="B473" s="48" t="s">
         <v>1099</v>
       </c>
       <c r="C473" s="47" t="s">
@@ -28188,7 +28188,7 @@
       <autoFilter ref="A1:P443"/>
     </customSheetView>
   </customSheetViews>
-  <conditionalFormatting sqref="L1:L8 L11:L37 L41:L50 L113:L117 L482:L1028 L222:L250 L255 L261:L353 L358:L360 Y358 L439:L442 L58:L111 L124:L143 L147:L152 L155:L212">
+  <conditionalFormatting sqref="L1:L8 L41:L50 L113:L117 L482:L1028 L222:L250 L255 L261:L353 L358:L360 Y358 L439:L442 L124:L143 L147:L152 L155:L212 L11:L37 L58:L111">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(L1))&gt;0</formula>
     </cfRule>

--- a/_notes_/Encounter Tables/NWNDS Plains Master List.xlsx
+++ b/_notes_/Encounter Tables/NWNDS Plains Master List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3991" uniqueCount="1201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3992" uniqueCount="1202">
   <si>
     <t>Name</t>
   </si>
@@ -3623,6 +3623,9 @@
   </si>
   <si>
     <t>Atropal Scion: 09 HD</t>
+  </si>
+  <si>
+    <t>2 to 4</t>
   </si>
 </sst>
 </file>
@@ -4074,7 +4077,15 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4300,10 +4311,10 @@
   <dimension ref="A1:AA1028"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1"/>
@@ -5035,7 +5046,7 @@
       <c r="A16" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -5116,7 +5127,7 @@
       <c r="P17" s="15"/>
     </row>
     <row r="18" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -7206,7 +7217,7 @@
       <c r="A62" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C62" s="15" t="s">
@@ -9298,7 +9309,7 @@
       <c r="A108" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="B108" s="15" t="s">
+      <c r="B108" s="2" t="s">
         <v>326</v>
       </c>
       <c r="C108" s="2" t="s">
@@ -11421,7 +11432,7 @@
       <c r="A153" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="B153" s="15" t="s">
+      <c r="B153" s="2" t="s">
         <v>400</v>
       </c>
       <c r="C153" s="15" t="s">
@@ -12535,8 +12546,8 @@
       <c r="K177" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L177" s="41" t="s">
-        <v>71</v>
+      <c r="L177" s="10" t="s">
+        <v>1201</v>
       </c>
       <c r="M177" s="15" t="s">
         <v>54</v>
@@ -12577,8 +12588,8 @@
       <c r="K178" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L178" s="41" t="s">
-        <v>71</v>
+      <c r="L178" s="10" t="s">
+        <v>1201</v>
       </c>
       <c r="M178" s="15" t="s">
         <v>54</v>
@@ -12619,8 +12630,8 @@
       <c r="K179" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L179" s="41" t="s">
-        <v>71</v>
+      <c r="L179" s="10" t="s">
+        <v>1201</v>
       </c>
       <c r="M179" s="15" t="s">
         <v>54</v>
@@ -13392,7 +13403,7 @@
       <c r="A197" s="15" t="s">
         <v>502</v>
       </c>
-      <c r="B197" s="15" t="s">
+      <c r="B197" s="2" t="s">
         <v>503</v>
       </c>
       <c r="C197" s="15" t="s">
@@ -13447,7 +13458,7 @@
       <c r="A198" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="B198" s="15" t="s">
+      <c r="B198" s="2" t="s">
         <v>505</v>
       </c>
       <c r="C198" s="15" t="s">
@@ -13546,7 +13557,7 @@
       <c r="A200" s="15" t="s">
         <v>508</v>
       </c>
-      <c r="B200" s="15" t="s">
+      <c r="B200" s="2" t="s">
         <v>509</v>
       </c>
       <c r="C200" s="15" t="s">
@@ -14565,7 +14576,7 @@
       <c r="A221" s="15" t="s">
         <v>553</v>
       </c>
-      <c r="B221" s="15" t="s">
+      <c r="B221" s="2" t="s">
         <v>554</v>
       </c>
       <c r="C221" s="15" t="s">
@@ -15713,7 +15724,7 @@
       <c r="A245" s="15" t="s">
         <v>610</v>
       </c>
-      <c r="B245" s="15" t="s">
+      <c r="B245" s="2" t="s">
         <v>611</v>
       </c>
       <c r="C245" s="15" t="s">
@@ -15763,10 +15774,10 @@
       <c r="AA245" s="3"/>
     </row>
     <row r="246" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A246" s="15" t="s">
+      <c r="A246" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="B246" s="15" t="s">
+      <c r="B246" s="2" t="s">
         <v>613</v>
       </c>
       <c r="C246" s="15" t="s">
@@ -16009,7 +16020,7 @@
       <c r="A251" s="15" t="s">
         <v>622</v>
       </c>
-      <c r="B251" s="15" t="s">
+      <c r="B251" s="2" t="s">
         <v>623</v>
       </c>
       <c r="C251" s="15" t="s">
@@ -17145,7 +17156,7 @@
       <c r="A274" s="15" t="s">
         <v>676</v>
       </c>
-      <c r="B274" s="15" t="s">
+      <c r="B274" s="2" t="s">
         <v>677</v>
       </c>
       <c r="C274" s="15" t="s">
@@ -18799,7 +18810,7 @@
       <c r="P309" s="15"/>
     </row>
     <row r="310" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A310" s="15" t="s">
+      <c r="A310" s="2" t="s">
         <v>743</v>
       </c>
       <c r="B310" s="2" t="s">
@@ -18912,7 +18923,7 @@
       <c r="A312" s="15" t="s">
         <v>749</v>
       </c>
-      <c r="B312" s="15" t="s">
+      <c r="B312" s="2" t="s">
         <v>750</v>
       </c>
       <c r="C312" s="15" t="s">
@@ -19539,10 +19550,10 @@
       <c r="P325" s="15"/>
     </row>
     <row r="326" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A326" s="15" t="s">
+      <c r="A326" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="B326" s="15" t="s">
+      <c r="B326" s="2" t="s">
         <v>782</v>
       </c>
       <c r="C326" s="15" t="s">
@@ -19940,7 +19951,7 @@
       <c r="A335" s="15" t="s">
         <v>800</v>
       </c>
-      <c r="B335" s="15" t="s">
+      <c r="B335" s="2" t="s">
         <v>801</v>
       </c>
       <c r="C335" s="15" t="s">
@@ -20247,7 +20258,7 @@
       <c r="A342" s="15" t="s">
         <v>817</v>
       </c>
-      <c r="B342" s="15" t="s">
+      <c r="B342" s="2" t="s">
         <v>818</v>
       </c>
       <c r="C342" s="15" t="s">
@@ -20551,10 +20562,10 @@
       <c r="AA347" s="3"/>
     </row>
     <row r="348" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A348" s="15" t="s">
+      <c r="A348" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="B348" s="15" t="s">
+      <c r="B348" s="2" t="s">
         <v>834</v>
       </c>
       <c r="C348" s="15" t="s">
@@ -20655,7 +20666,7 @@
       <c r="A350" s="15" t="s">
         <v>837</v>
       </c>
-      <c r="B350" s="15" t="s">
+      <c r="B350" s="2" t="s">
         <v>838</v>
       </c>
       <c r="C350" s="15" t="s">
@@ -20699,7 +20710,7 @@
       <c r="A351" s="15" t="s">
         <v>839</v>
       </c>
-      <c r="B351" s="15" t="s">
+      <c r="B351" s="2" t="s">
         <v>840</v>
       </c>
       <c r="C351" s="15" t="s">
@@ -22188,7 +22199,7 @@
       <c r="A381" s="15" t="s">
         <v>912</v>
       </c>
-      <c r="B381" s="15" t="s">
+      <c r="B381" s="2" t="s">
         <v>913</v>
       </c>
       <c r="C381" s="2" t="s">
@@ -22903,7 +22914,7 @@
       <c r="A394" s="15" t="s">
         <v>938</v>
       </c>
-      <c r="B394" s="15" t="s">
+      <c r="B394" s="2" t="s">
         <v>939</v>
       </c>
       <c r="C394" s="15" t="s">
@@ -23646,8 +23657,8 @@
       <c r="K407" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L407" s="41" t="s">
-        <v>88</v>
+      <c r="L407" s="10" t="s">
+        <v>958</v>
       </c>
       <c r="M407" s="15" t="s">
         <v>18</v>
@@ -23699,8 +23710,8 @@
       <c r="K408" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L408" s="41" t="s">
-        <v>875</v>
+      <c r="L408" s="10" t="s">
+        <v>958</v>
       </c>
       <c r="M408" s="15" t="s">
         <v>18</v>
@@ -23752,8 +23763,8 @@
       <c r="K409" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L409" s="41" t="s">
-        <v>875</v>
+      <c r="L409" s="10" t="s">
+        <v>958</v>
       </c>
       <c r="M409" s="10" t="s">
         <v>18</v>
@@ -23807,8 +23818,8 @@
       <c r="K410" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L410" s="41" t="s">
-        <v>875</v>
+      <c r="L410" s="10" t="s">
+        <v>958</v>
       </c>
       <c r="M410" s="10" t="s">
         <v>18</v>
@@ -23862,8 +23873,8 @@
       <c r="K411" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="L411" s="43" t="s">
-        <v>875</v>
+      <c r="L411" s="10" t="s">
+        <v>958</v>
       </c>
       <c r="M411" s="36" t="s">
         <v>18</v>
@@ -23997,7 +24008,7 @@
       <c r="A414" s="15" t="s">
         <v>969</v>
       </c>
-      <c r="B414" s="15" t="s">
+      <c r="B414" s="2" t="s">
         <v>970</v>
       </c>
       <c r="C414" s="15" t="s">
@@ -25264,8 +25275,8 @@
       <c r="K437" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L437" s="10">
-        <v>1</v>
+      <c r="L437" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="M437" s="10" t="s">
         <v>18</v>
@@ -26072,7 +26083,7 @@
       <c r="A453" s="45" t="s">
         <v>1054</v>
       </c>
-      <c r="B453" s="45" t="s">
+      <c r="B453" s="46" t="s">
         <v>1055</v>
       </c>
       <c r="C453" s="45" t="s">
@@ -26125,7 +26136,7 @@
       <c r="A454" s="45" t="s">
         <v>1056</v>
       </c>
-      <c r="B454" s="45" t="s">
+      <c r="B454" s="46" t="s">
         <v>1057</v>
       </c>
       <c r="C454" s="45" t="s">
@@ -28182,13 +28193,13 @@
       <autoFilter ref="A1:P443"/>
     </customSheetView>
   </customSheetViews>
-  <conditionalFormatting sqref="L1:L8 L41:L50 L113:L117 L482:L1028 L222:L250 L255 L261:L353 L358:L360 Y358 L439:L442 L124:L143 L147:L152 L155:L212 L11:L37 L58:L111">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="L1:L8 L41:L50 L113:L117 L482:L1028 L222:L250 L255 L261:L353 L358:L360 Y358 L439:L442 L124:L143 L147:L152 L11:L37 L58:L111 L155:L212">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="2">
       <formula>LEN(TRIM(L1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L112">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(L112))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/_notes_/Encounter Tables/NWNDS Plains Master List.xlsx
+++ b/_notes_/Encounter Tables/NWNDS Plains Master List.xlsx
@@ -4077,15 +4077,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4311,10 +4303,10 @@
   <dimension ref="A1:AA1028"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B347" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N45" sqref="N45"/>
+      <selection pane="bottomRight" activeCell="B351" sqref="B351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1"/>
@@ -7259,7 +7251,7 @@
       <c r="A63" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C63" s="15" t="s">
@@ -7343,7 +7335,7 @@
       <c r="A65" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="2" t="s">
         <v>218</v>
       </c>
       <c r="C65" s="15" t="s">
@@ -13010,7 +13002,7 @@
       <c r="A188" s="15" t="s">
         <v>481</v>
       </c>
-      <c r="B188" s="15" t="s">
+      <c r="B188" s="2" t="s">
         <v>482</v>
       </c>
       <c r="C188" s="2" t="s">
@@ -13601,7 +13593,7 @@
       <c r="A201" s="15" t="s">
         <v>510</v>
       </c>
-      <c r="B201" s="15" t="s">
+      <c r="B201" s="2" t="s">
         <v>511</v>
       </c>
       <c r="C201" s="15" t="s">
@@ -17209,7 +17201,7 @@
       <c r="A275" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="B275" s="15" t="s">
+      <c r="B275" s="2" t="s">
         <v>679</v>
       </c>
       <c r="C275" s="15" t="s">
@@ -17346,7 +17338,7 @@
       <c r="A278" s="15" t="s">
         <v>684</v>
       </c>
-      <c r="B278" s="15" t="s">
+      <c r="B278" s="2" t="s">
         <v>685</v>
       </c>
       <c r="C278" s="15" t="s">
@@ -18104,7 +18096,7 @@
       <c r="A294" s="15" t="s">
         <v>720</v>
       </c>
-      <c r="B294" s="15" t="s">
+      <c r="B294" s="2" t="s">
         <v>721</v>
       </c>
       <c r="C294" s="15" t="s">
@@ -18252,7 +18244,7 @@
         <v>77</v>
       </c>
       <c r="D297" s="38" t="s">
-        <v>143</v>
+        <v>1122</v>
       </c>
       <c r="E297" s="38"/>
       <c r="F297" s="38" t="s">
@@ -18294,7 +18286,7 @@
         <v>77</v>
       </c>
       <c r="D298" s="38" t="s">
-        <v>143</v>
+        <v>1122</v>
       </c>
       <c r="E298" s="38"/>
       <c r="F298" s="38" t="s">
@@ -18336,7 +18328,7 @@
         <v>77</v>
       </c>
       <c r="D299" s="38" t="s">
-        <v>143</v>
+        <v>1122</v>
       </c>
       <c r="E299" s="38"/>
       <c r="F299" s="38" t="s">
@@ -18378,7 +18370,7 @@
         <v>77</v>
       </c>
       <c r="D300" s="38" t="s">
-        <v>143</v>
+        <v>1122</v>
       </c>
       <c r="E300" s="38"/>
       <c r="F300" s="38" t="s">
@@ -18419,8 +18411,8 @@
       <c r="C301" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="D301" s="70" t="s">
-        <v>143</v>
+      <c r="D301" s="38" t="s">
+        <v>1122</v>
       </c>
       <c r="E301" s="70"/>
       <c r="F301" s="70" t="s">
@@ -18504,7 +18496,7 @@
         <v>77</v>
       </c>
       <c r="D303" s="38" t="s">
-        <v>87</v>
+        <v>1123</v>
       </c>
       <c r="E303" s="38"/>
       <c r="F303" s="38" t="s">
@@ -18546,7 +18538,7 @@
         <v>77</v>
       </c>
       <c r="D304" s="38" t="s">
-        <v>87</v>
+        <v>1123</v>
       </c>
       <c r="E304" s="38"/>
       <c r="F304" s="38" t="s">
@@ -18599,7 +18591,7 @@
         <v>77</v>
       </c>
       <c r="D305" s="38" t="s">
-        <v>87</v>
+        <v>1123</v>
       </c>
       <c r="E305" s="38"/>
       <c r="F305" s="38" t="s">
@@ -18641,7 +18633,7 @@
         <v>77</v>
       </c>
       <c r="D306" s="38" t="s">
-        <v>87</v>
+        <v>1123</v>
       </c>
       <c r="E306" s="38"/>
       <c r="F306" s="38" t="s">
@@ -18683,7 +18675,7 @@
         <v>77</v>
       </c>
       <c r="D307" s="38" t="s">
-        <v>87</v>
+        <v>1123</v>
       </c>
       <c r="E307" s="38"/>
       <c r="F307" s="38" t="s">
@@ -19604,7 +19596,7 @@
       <c r="A327" s="15" t="s">
         <v>783</v>
       </c>
-      <c r="B327" s="15" t="s">
+      <c r="B327" s="2" t="s">
         <v>784</v>
       </c>
       <c r="C327" s="15" t="s">
@@ -22966,10 +22958,10 @@
       <c r="AA394" s="1"/>
     </row>
     <row r="395" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A395" s="36" t="s">
+      <c r="A395" s="21" t="s">
         <v>941</v>
       </c>
-      <c r="B395" s="36" t="s">
+      <c r="B395" s="21" t="s">
         <v>942</v>
       </c>
       <c r="C395" s="36" t="s">
@@ -28194,12 +28186,12 @@
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="L1:L8 L41:L50 L113:L117 L482:L1028 L222:L250 L255 L261:L353 L358:L360 Y358 L439:L442 L124:L143 L147:L152 L11:L37 L58:L111 L155:L212">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(L1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L112">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(L112))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/_notes_/Encounter Tables/NWNDS Plains Master List.xlsx
+++ b/_notes_/Encounter Tables/NWNDS Plains Master List.xlsx
@@ -4303,10 +4303,10 @@
   <dimension ref="A1:AA1028"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B347" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B351" sqref="B351"/>
+      <selection pane="bottomRight" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1"/>
@@ -9927,7 +9927,7 @@
       <c r="A121" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="B121" s="15" t="s">
+      <c r="B121" s="2" t="s">
         <v>356</v>
       </c>
       <c r="C121" s="15" t="s">
@@ -15811,7 +15811,7 @@
       <c r="A247" s="15" t="s">
         <v>614</v>
       </c>
-      <c r="B247" s="15" t="s">
+      <c r="B247" s="2" t="s">
         <v>615</v>
       </c>
       <c r="C247" s="15" t="s">
@@ -17243,7 +17243,7 @@
       <c r="A276" s="15" t="s">
         <v>680</v>
       </c>
-      <c r="B276" s="15" t="s">
+      <c r="B276" s="2" t="s">
         <v>681</v>
       </c>
       <c r="C276" s="15" t="s">
@@ -17296,7 +17296,7 @@
       <c r="A277" s="15" t="s">
         <v>682</v>
       </c>
-      <c r="B277" s="15" t="s">
+      <c r="B277" s="2" t="s">
         <v>683</v>
       </c>
       <c r="C277" s="15" t="s">
@@ -17581,7 +17581,7 @@
       <c r="A283" s="15" t="s">
         <v>694</v>
       </c>
-      <c r="B283" s="15" t="s">
+      <c r="B283" s="2" t="s">
         <v>695</v>
       </c>
       <c r="C283" s="15" t="s">
@@ -18860,7 +18860,7 @@
       <c r="A311" s="15" t="s">
         <v>747</v>
       </c>
-      <c r="B311" s="15" t="s">
+      <c r="B311" s="2" t="s">
         <v>748</v>
       </c>
       <c r="C311" s="15" t="s">
@@ -21299,7 +21299,7 @@
       <c r="A364" s="15" t="s">
         <v>864</v>
       </c>
-      <c r="B364" s="15" t="s">
+      <c r="B364" s="2" t="s">
         <v>865</v>
       </c>
       <c r="C364" s="15" t="s">
@@ -24055,7 +24055,7 @@
       <c r="A415" s="2" t="s">
         <v>972</v>
       </c>
-      <c r="B415" s="15" t="s">
+      <c r="B415" s="2" t="s">
         <v>973</v>
       </c>
       <c r="C415" s="15" t="s">
@@ -24854,7 +24854,7 @@
       <c r="A430" s="15" t="s">
         <v>1012</v>
       </c>
-      <c r="B430" s="15" t="s">
+      <c r="B430" s="2" t="s">
         <v>1013</v>
       </c>
       <c r="C430" s="15" t="s">

--- a/_notes_/Encounter Tables/NWNDS Plains Master List.xlsx
+++ b/_notes_/Encounter Tables/NWNDS Plains Master List.xlsx
@@ -4303,10 +4303,10 @@
   <dimension ref="A1:AA1028"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B359" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B83" sqref="B83"/>
+      <selection pane="bottomRight" activeCell="M360" sqref="M360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1"/>
@@ -7293,7 +7293,7 @@
       <c r="A64" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C64" s="15" t="s">
@@ -9872,7 +9872,7 @@
       <c r="A120" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="B120" s="15" t="s">
+      <c r="B120" s="2" t="s">
         <v>352</v>
       </c>
       <c r="C120" s="15" t="s">
@@ -10090,7 +10090,7 @@
       <c r="A124" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="B124" s="15" t="s">
+      <c r="B124" s="2" t="s">
         <v>367</v>
       </c>
       <c r="C124" s="15" t="s">
@@ -12089,7 +12089,7 @@
       <c r="A168" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="B168" s="15" t="s">
+      <c r="B168" s="2" t="s">
         <v>434</v>
       </c>
       <c r="C168" s="15" t="s">
@@ -17391,7 +17391,7 @@
       <c r="A279" s="15" t="s">
         <v>686</v>
       </c>
-      <c r="B279" s="15" t="s">
+      <c r="B279" s="2" t="s">
         <v>687</v>
       </c>
       <c r="C279" s="15" t="s">
@@ -20746,7 +20746,7 @@
       <c r="A352" s="15" t="s">
         <v>841</v>
       </c>
-      <c r="B352" s="15" t="s">
+      <c r="B352" s="2" t="s">
         <v>842</v>
       </c>
       <c r="C352" s="15" t="s">
@@ -23016,7 +23016,7 @@
       <c r="A396" s="36" t="s">
         <v>943</v>
       </c>
-      <c r="B396" s="36" t="s">
+      <c r="B396" s="21" t="s">
         <v>944</v>
       </c>
       <c r="C396" s="36" t="s">
@@ -23619,7 +23619,7 @@
       <c r="A407" s="15" t="s">
         <v>959</v>
       </c>
-      <c r="B407" s="15" t="s">
+      <c r="B407" s="2" t="s">
         <v>960</v>
       </c>
       <c r="C407" s="15" t="s">
@@ -24110,7 +24110,7 @@
       <c r="A416" s="15" t="s">
         <v>974</v>
       </c>
-      <c r="B416" s="15" t="s">
+      <c r="B416" s="2" t="s">
         <v>975</v>
       </c>
       <c r="C416" s="15" t="s">
@@ -26829,7 +26829,7 @@
       <c r="A467" s="45" t="s">
         <v>1084</v>
       </c>
-      <c r="B467" s="45" t="s">
+      <c r="B467" s="46" t="s">
         <v>1085</v>
       </c>
       <c r="C467" s="45" t="s">

--- a/_notes_/Encounter Tables/NWNDS Plains Master List.xlsx
+++ b/_notes_/Encounter Tables/NWNDS Plains Master List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3992" uniqueCount="1202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3992" uniqueCount="1203">
   <si>
     <t>Name</t>
   </si>
@@ -3626,6 +3626,9 @@
   </si>
   <si>
     <t>2 to 4</t>
+  </si>
+  <si>
+    <t>ds_trin003</t>
   </si>
 </sst>
 </file>
@@ -4303,10 +4306,10 @@
   <dimension ref="A1:AA1028"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B359" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B452" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M360" sqref="M360"/>
+      <selection pane="bottomRight" activeCell="E455" sqref="E455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1"/>
@@ -9169,7 +9172,7 @@
       <c r="A105" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="B105" s="15" t="s">
+      <c r="B105" s="2" t="s">
         <v>316</v>
       </c>
       <c r="C105" s="15" t="s">
@@ -9982,7 +9985,7 @@
       <c r="A122" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B122" s="15" t="s">
+      <c r="B122" s="2" t="s">
         <v>360</v>
       </c>
       <c r="C122" s="15" t="s">
@@ -23672,7 +23675,7 @@
       <c r="A408" s="15" t="s">
         <v>961</v>
       </c>
-      <c r="B408" s="15" t="s">
+      <c r="B408" s="2" t="s">
         <v>962</v>
       </c>
       <c r="C408" s="15" t="s">
@@ -25585,7 +25588,7 @@
         <v>1158</v>
       </c>
       <c r="B444" s="38" t="s">
-        <v>1157</v>
+        <v>1202</v>
       </c>
       <c r="C444" s="38" t="s">
         <v>22</v>

--- a/_notes_/Encounter Tables/NWNDS Plains Master List.xlsx
+++ b/_notes_/Encounter Tables/NWNDS Plains Master List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3992" uniqueCount="1203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4037" uniqueCount="1215">
   <si>
     <t>Name</t>
   </si>
@@ -3629,6 +3629,42 @@
   </si>
   <si>
     <t>ds_trin003</t>
+  </si>
+  <si>
+    <t>Terror Bird: 07 HD</t>
+  </si>
+  <si>
+    <t>terror_bird001</t>
+  </si>
+  <si>
+    <t>Forest</t>
+  </si>
+  <si>
+    <t>Hills &amp; Plains</t>
+  </si>
+  <si>
+    <t>Terror Bird: 10 HD</t>
+  </si>
+  <si>
+    <t>terror_bird002</t>
+  </si>
+  <si>
+    <t>Terror Bird: 14 HD</t>
+  </si>
+  <si>
+    <t>terror_bird003</t>
+  </si>
+  <si>
+    <t>Terror Bird: 18 HD</t>
+  </si>
+  <si>
+    <t>terror_bird004</t>
+  </si>
+  <si>
+    <t>Terror Bird: 21 HD</t>
+  </si>
+  <si>
+    <t>terror_bird005</t>
   </si>
 </sst>
 </file>
@@ -3829,7 +3865,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4076,6 +4112,12 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4306,10 +4348,10 @@
   <dimension ref="A1:AA1028"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B452" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B482" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E455" sqref="E455"/>
+      <selection pane="bottomRight" activeCell="L484" sqref="L484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1"/>
@@ -17436,7 +17478,7 @@
       <c r="A280" s="15" t="s">
         <v>688</v>
       </c>
-      <c r="B280" s="15" t="s">
+      <c r="B280" s="2" t="s">
         <v>689</v>
       </c>
       <c r="C280" s="15" t="s">
@@ -17531,7 +17573,7 @@
       <c r="A282" s="15" t="s">
         <v>692</v>
       </c>
-      <c r="B282" s="15" t="s">
+      <c r="B282" s="2" t="s">
         <v>693</v>
       </c>
       <c r="C282" s="15" t="s">
@@ -20793,7 +20835,7 @@
       <c r="A353" s="15" t="s">
         <v>843</v>
       </c>
-      <c r="B353" s="15" t="s">
+      <c r="B353" s="2" t="s">
         <v>844</v>
       </c>
       <c r="C353" s="15" t="s">
@@ -20881,7 +20923,7 @@
       <c r="A355" s="15" t="s">
         <v>848</v>
       </c>
-      <c r="B355" s="15" t="s">
+      <c r="B355" s="2" t="s">
         <v>849</v>
       </c>
       <c r="C355" s="15" t="s">
@@ -25438,7 +25480,7 @@
       <c r="A441" s="15" t="s">
         <v>1008</v>
       </c>
-      <c r="B441" s="15" t="s">
+      <c r="B441" s="2" t="s">
         <v>1009</v>
       </c>
       <c r="C441" s="15" t="s">
@@ -27631,11 +27673,281 @@
       <c r="Z481" s="39"/>
       <c r="AA481" s="39"/>
     </row>
-    <row r="482" spans="1:27" ht="20.25" customHeight="1"/>
-    <row r="483" spans="1:27" ht="20.25" customHeight="1"/>
-    <row r="484" spans="1:27" ht="20.25" customHeight="1"/>
-    <row r="485" spans="1:27" ht="20.25" customHeight="1"/>
-    <row r="486" spans="1:27" ht="20.25" customHeight="1"/>
+    <row r="482" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A482" s="58" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B482" s="58" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C482" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="D482" s="58" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E482" s="58" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F482" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="G482" s="82">
+        <v>4</v>
+      </c>
+      <c r="H482" s="62">
+        <v>8</v>
+      </c>
+      <c r="I482" s="62">
+        <v>7</v>
+      </c>
+      <c r="J482" s="62">
+        <v>7</v>
+      </c>
+      <c r="K482" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="L482" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="M482" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="N482" s="58"/>
+      <c r="O482" s="58"/>
+      <c r="P482" s="58"/>
+      <c r="Q482" s="58"/>
+      <c r="R482" s="58"/>
+      <c r="S482" s="58"/>
+      <c r="T482" s="58"/>
+      <c r="U482" s="58"/>
+      <c r="V482" s="58"/>
+      <c r="W482" s="58"/>
+      <c r="X482" s="58"/>
+      <c r="Y482" s="58"/>
+      <c r="Z482" s="58"/>
+      <c r="AA482" s="58"/>
+    </row>
+    <row r="483" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A483" s="58" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B483" s="58" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C483" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="D483" s="58" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E483" s="58" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F483" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="G483" s="82">
+        <v>6</v>
+      </c>
+      <c r="H483" s="62">
+        <v>11</v>
+      </c>
+      <c r="I483" s="62">
+        <v>10</v>
+      </c>
+      <c r="J483" s="62">
+        <v>10</v>
+      </c>
+      <c r="K483" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="L483" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="M483" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="N483" s="58"/>
+      <c r="O483" s="58"/>
+      <c r="P483" s="58"/>
+      <c r="Q483" s="58"/>
+      <c r="R483" s="58"/>
+      <c r="S483" s="58"/>
+      <c r="T483" s="58"/>
+      <c r="U483" s="58"/>
+      <c r="V483" s="58"/>
+      <c r="W483" s="58"/>
+      <c r="X483" s="58"/>
+      <c r="Y483" s="58"/>
+      <c r="Z483" s="58"/>
+      <c r="AA483" s="58"/>
+    </row>
+    <row r="484" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A484" s="58" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B484" s="58" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C484" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="D484" s="58" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E484" s="58" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F484" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="G484" s="82">
+        <v>8</v>
+      </c>
+      <c r="H484" s="62">
+        <v>15</v>
+      </c>
+      <c r="I484" s="62">
+        <v>14</v>
+      </c>
+      <c r="J484" s="62">
+        <v>14</v>
+      </c>
+      <c r="K484" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="L484" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="M484" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="N484" s="58"/>
+      <c r="O484" s="58"/>
+      <c r="P484" s="58"/>
+      <c r="Q484" s="58"/>
+      <c r="R484" s="58"/>
+      <c r="S484" s="58"/>
+      <c r="T484" s="58"/>
+      <c r="U484" s="58"/>
+      <c r="V484" s="58"/>
+      <c r="W484" s="58"/>
+      <c r="X484" s="58"/>
+      <c r="Y484" s="58"/>
+      <c r="Z484" s="58"/>
+      <c r="AA484" s="58"/>
+    </row>
+    <row r="485" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A485" s="58" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B485" s="58" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C485" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="D485" s="58" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E485" s="58" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F485" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="G485" s="82">
+        <v>11</v>
+      </c>
+      <c r="H485" s="62">
+        <v>19</v>
+      </c>
+      <c r="I485" s="62">
+        <v>18</v>
+      </c>
+      <c r="J485" s="62">
+        <v>18</v>
+      </c>
+      <c r="K485" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="L485" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="M485" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="N485" s="58"/>
+      <c r="O485" s="58"/>
+      <c r="P485" s="58"/>
+      <c r="Q485" s="58"/>
+      <c r="R485" s="58"/>
+      <c r="S485" s="58"/>
+      <c r="T485" s="58"/>
+      <c r="U485" s="58"/>
+      <c r="V485" s="58"/>
+      <c r="W485" s="58"/>
+      <c r="X485" s="58"/>
+      <c r="Y485" s="58"/>
+      <c r="Z485" s="58"/>
+      <c r="AA485" s="58"/>
+    </row>
+    <row r="486" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A486" s="58" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B486" s="58" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C486" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="D486" s="58" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E486" s="58" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F486" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="G486" s="82">
+        <v>14</v>
+      </c>
+      <c r="H486" s="62">
+        <v>22</v>
+      </c>
+      <c r="I486" s="62">
+        <v>21</v>
+      </c>
+      <c r="J486" s="62">
+        <v>21</v>
+      </c>
+      <c r="K486" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="L486" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="M486" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="N486" s="58"/>
+      <c r="O486" s="58"/>
+      <c r="P486" s="58"/>
+      <c r="Q486" s="58"/>
+      <c r="R486" s="58"/>
+      <c r="S486" s="58"/>
+      <c r="T486" s="58"/>
+      <c r="U486" s="58"/>
+      <c r="V486" s="58"/>
+      <c r="W486" s="58"/>
+      <c r="X486" s="58"/>
+      <c r="Y486" s="58"/>
+      <c r="Z486" s="58"/>
+      <c r="AA486" s="58"/>
+    </row>
     <row r="487" spans="1:27" ht="20.25" customHeight="1"/>
     <row r="488" spans="1:27" ht="20.25" customHeight="1"/>
     <row r="489" spans="1:27" ht="20.25" customHeight="1"/>
@@ -28188,7 +28500,7 @@
       <autoFilter ref="A1:P443"/>
     </customSheetView>
   </customSheetViews>
-  <conditionalFormatting sqref="L1:L8 L41:L50 L113:L117 L482:L1028 L222:L250 L255 L261:L353 L358:L360 Y358 L439:L442 L124:L143 L147:L152 L11:L37 L58:L111 L155:L212">
+  <conditionalFormatting sqref="L1:L8 L41:L50 L113:L117 L155:L212 L222:L250 L255 L261:L353 L358:L360 Y358 L439:L442 L124:L143 L147:L152 L11:L37 L58:L111 L487:L1028">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(L1))&gt;0</formula>
     </cfRule>

--- a/_notes_/Encounter Tables/NWNDS Plains Master List.xlsx
+++ b/_notes_/Encounter Tables/NWNDS Plains Master List.xlsx
@@ -3865,7 +3865,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3961,9 +3961,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4082,14 +4079,8 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4109,13 +4100,16 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4348,10 +4342,10 @@
   <dimension ref="A1:AA1028"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B482" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B413" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L484" sqref="L484"/>
+      <selection pane="bottomRight" activeCell="A415" sqref="A415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1"/>
@@ -4362,57 +4356,57 @@
     <col min="4" max="4" width="24.7109375" customWidth="1"/>
     <col min="5" max="5" width="26.5703125" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="44" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="43" customWidth="1"/>
     <col min="14" max="14" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="L1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="M1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="32" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4879,7 +4873,7 @@
       <c r="K11" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L11" s="41">
+      <c r="L11" s="40">
         <v>1</v>
       </c>
       <c r="M11" s="15" t="s">
@@ -4932,7 +4926,7 @@
       <c r="K12" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L12" s="41">
+      <c r="L12" s="40">
         <v>1</v>
       </c>
       <c r="M12" s="15" t="s">
@@ -4985,7 +4979,7 @@
       <c r="K13" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L13" s="41">
+      <c r="L13" s="40">
         <v>1</v>
       </c>
       <c r="M13" s="15" t="s">
@@ -5029,7 +5023,7 @@
       <c r="K14" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L14" s="41">
+      <c r="L14" s="40">
         <v>1</v>
       </c>
       <c r="M14" s="15" t="s">
@@ -5071,7 +5065,7 @@
       <c r="K15" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L15" s="41">
+      <c r="L15" s="40">
         <v>1</v>
       </c>
       <c r="M15" s="15" t="s">
@@ -5535,7 +5529,7 @@
       <c r="K25" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L25" s="41">
+      <c r="L25" s="40">
         <v>1</v>
       </c>
       <c r="M25" s="15" t="s">
@@ -5907,7 +5901,7 @@
       <c r="K33" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="L33" s="41" t="s">
+      <c r="L33" s="40" t="s">
         <v>130</v>
       </c>
       <c r="M33" s="15" t="s">
@@ -5949,7 +5943,7 @@
       <c r="K34" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="L34" s="41" t="s">
+      <c r="L34" s="40" t="s">
         <v>134</v>
       </c>
       <c r="M34" s="15" t="s">
@@ -5991,7 +5985,7 @@
       <c r="K35" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="L35" s="41" t="s">
+      <c r="L35" s="40" t="s">
         <v>137</v>
       </c>
       <c r="M35" s="15" t="s">
@@ -6035,7 +6029,7 @@
       <c r="K36" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="L36" s="41" t="s">
+      <c r="L36" s="40" t="s">
         <v>130</v>
       </c>
       <c r="M36" s="15" t="s">
@@ -6046,7 +6040,7 @@
       <c r="P36" s="15"/>
     </row>
     <row r="37" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A37" s="57" t="s">
+      <c r="A37" s="56" t="s">
         <v>147</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -6227,7 +6221,7 @@
       <c r="K40" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L40" s="41" t="s">
+      <c r="L40" s="40" t="s">
         <v>160</v>
       </c>
       <c r="M40" s="15" t="s">
@@ -6282,7 +6276,7 @@
       <c r="K41" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L41" s="41" t="s">
+      <c r="L41" s="40" t="s">
         <v>160</v>
       </c>
       <c r="M41" s="15" t="s">
@@ -6293,7 +6287,7 @@
       <c r="P41" s="15"/>
     </row>
     <row r="42" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A42" s="57" t="s">
+      <c r="A42" s="56" t="s">
         <v>1120</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -6324,7 +6318,7 @@
       <c r="K42" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L42" s="41" t="s">
+      <c r="L42" s="40" t="s">
         <v>164</v>
       </c>
       <c r="M42" s="15" t="s">
@@ -6943,7 +6937,7 @@
       <c r="K55" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="L55" s="41" t="s">
+      <c r="L55" s="40" t="s">
         <v>198</v>
       </c>
       <c r="M55" s="15" t="s">
@@ -6996,7 +6990,7 @@
       <c r="K56" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="L56" s="41" t="s">
+      <c r="L56" s="40" t="s">
         <v>198</v>
       </c>
       <c r="M56" s="15" t="s">
@@ -7049,7 +7043,7 @@
       <c r="K57" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L57" s="41" t="s">
+      <c r="L57" s="40" t="s">
         <v>71</v>
       </c>
       <c r="M57" s="15" t="s">
@@ -7198,7 +7192,7 @@
       <c r="K60" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L60" s="41" t="s">
+      <c r="L60" s="40" t="s">
         <v>160</v>
       </c>
       <c r="M60" s="15" t="s">
@@ -7240,7 +7234,7 @@
       <c r="K61" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L61" s="41" t="s">
+      <c r="L61" s="40" t="s">
         <v>210</v>
       </c>
       <c r="M61" s="15" t="s">
@@ -7282,7 +7276,7 @@
       <c r="K62" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L62" s="41" t="s">
+      <c r="L62" s="40" t="s">
         <v>210</v>
       </c>
       <c r="M62" s="15" t="s">
@@ -7324,7 +7318,7 @@
       <c r="K63" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L63" s="41" t="s">
+      <c r="L63" s="40" t="s">
         <v>210</v>
       </c>
       <c r="M63" s="15" t="s">
@@ -7366,7 +7360,7 @@
       <c r="K64" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L64" s="41" t="s">
+      <c r="L64" s="40" t="s">
         <v>210</v>
       </c>
       <c r="M64" s="15" t="s">
@@ -7408,7 +7402,7 @@
       <c r="K65" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L65" s="41">
+      <c r="L65" s="40">
         <v>1</v>
       </c>
       <c r="M65" s="15" t="s">
@@ -7452,7 +7446,7 @@
       <c r="K66" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L66" s="41">
+      <c r="L66" s="40">
         <v>1</v>
       </c>
       <c r="M66" s="15" t="s">
@@ -7822,7 +7816,7 @@
       <c r="K74" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="L74" s="41" t="s">
+      <c r="L74" s="40" t="s">
         <v>160</v>
       </c>
       <c r="M74" s="15" t="s">
@@ -7864,7 +7858,7 @@
       <c r="K75" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="L75" s="41" t="s">
+      <c r="L75" s="40" t="s">
         <v>245</v>
       </c>
       <c r="M75" s="15" t="s">
@@ -7908,7 +7902,7 @@
       <c r="K76" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="L76" s="41" t="s">
+      <c r="L76" s="40" t="s">
         <v>74</v>
       </c>
       <c r="M76" s="15" t="s">
@@ -7963,7 +7957,7 @@
       <c r="K77" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="L77" s="41" t="s">
+      <c r="L77" s="40" t="s">
         <v>74</v>
       </c>
       <c r="M77" s="15" t="s">
@@ -8018,7 +8012,7 @@
       <c r="K78" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="L78" s="41" t="s">
+      <c r="L78" s="40" t="s">
         <v>74</v>
       </c>
       <c r="M78" s="15" t="s">
@@ -8062,7 +8056,7 @@
       <c r="K79" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="L79" s="41" t="s">
+      <c r="L79" s="40" t="s">
         <v>74</v>
       </c>
       <c r="M79" s="15" t="s">
@@ -8104,7 +8098,7 @@
       <c r="K80" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="L80" s="41" t="s">
+      <c r="L80" s="40" t="s">
         <v>74</v>
       </c>
       <c r="M80" s="15" t="s">
@@ -8452,7 +8446,7 @@
       <c r="K88" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L88" s="41" t="s">
+      <c r="L88" s="40" t="s">
         <v>278</v>
       </c>
       <c r="M88" s="15" t="s">
@@ -8494,7 +8488,7 @@
       <c r="K89" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L89" s="41" t="s">
+      <c r="L89" s="40" t="s">
         <v>278</v>
       </c>
       <c r="M89" s="15" t="s">
@@ -8536,7 +8530,7 @@
       <c r="K90" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L90" s="41" t="s">
+      <c r="L90" s="40" t="s">
         <v>278</v>
       </c>
       <c r="M90" s="15" t="s">
@@ -8589,7 +8583,7 @@
       <c r="K91" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L91" s="41">
+      <c r="L91" s="40">
         <v>1</v>
       </c>
       <c r="M91" s="15" t="s">
@@ -8678,7 +8672,7 @@
       <c r="K93" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="L93" s="41" t="s">
+      <c r="L93" s="40" t="s">
         <v>74</v>
       </c>
       <c r="M93" s="15" t="s">
@@ -8826,7 +8820,7 @@
       <c r="K96" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="L96" s="41" t="s">
+      <c r="L96" s="40" t="s">
         <v>74</v>
       </c>
       <c r="M96" s="15" t="s">
@@ -9244,7 +9238,7 @@
       <c r="K105" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L105" s="41" t="s">
+      <c r="L105" s="40" t="s">
         <v>25</v>
       </c>
       <c r="M105" s="15" t="s">
@@ -9398,7 +9392,7 @@
       <c r="AA108" s="17"/>
     </row>
     <row r="109" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A109" s="57" t="s">
+      <c r="A109" s="56" t="s">
         <v>327</v>
       </c>
       <c r="B109" s="2" t="s">
@@ -9429,7 +9423,7 @@
       <c r="K109" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L109" s="41" t="s">
+      <c r="L109" s="40" t="s">
         <v>137</v>
       </c>
       <c r="M109" s="15" t="s">
@@ -9484,7 +9478,7 @@
       <c r="K110" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L110" s="41" t="s">
+      <c r="L110" s="40" t="s">
         <v>130</v>
       </c>
       <c r="M110" s="15" t="s">
@@ -9528,7 +9522,7 @@
       <c r="K111" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L111" s="41" t="s">
+      <c r="L111" s="40" t="s">
         <v>137</v>
       </c>
       <c r="M111" s="15" t="s">
@@ -9539,57 +9533,57 @@
       <c r="P111" s="15"/>
     </row>
     <row r="112" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A112" s="45" t="s">
+      <c r="A112" s="44" t="s">
         <v>334</v>
       </c>
-      <c r="B112" s="45" t="s">
+      <c r="B112" s="44" t="s">
         <v>335</v>
       </c>
-      <c r="C112" s="45" t="s">
+      <c r="C112" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="D112" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E112" s="45"/>
-      <c r="F112" s="45" t="s">
+      <c r="D112" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="44"/>
+      <c r="F112" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G112" s="49">
+      <c r="G112" s="48">
         <v>50</v>
       </c>
-      <c r="H112" s="53">
+      <c r="H112" s="52">
         <v>177</v>
       </c>
-      <c r="I112" s="53">
+      <c r="I112" s="52">
         <v>128</v>
       </c>
-      <c r="J112" s="53">
+      <c r="J112" s="52">
         <v>60</v>
       </c>
-      <c r="K112" s="45" t="s">
+      <c r="K112" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="L112" s="41">
+      <c r="L112" s="40">
         <v>1</v>
       </c>
-      <c r="M112" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="N112" s="45"/>
-      <c r="O112" s="45"/>
-      <c r="P112" s="45"/>
-      <c r="Q112" s="58"/>
-      <c r="R112" s="58"/>
-      <c r="S112" s="58"/>
-      <c r="T112" s="58"/>
-      <c r="U112" s="58"/>
-      <c r="V112" s="58"/>
-      <c r="W112" s="58"/>
-      <c r="X112" s="58"/>
-      <c r="Y112" s="58"/>
-      <c r="Z112" s="58"/>
-      <c r="AA112" s="58"/>
+      <c r="M112" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="N112" s="44"/>
+      <c r="O112" s="44"/>
+      <c r="P112" s="44"/>
+      <c r="Q112" s="57"/>
+      <c r="R112" s="57"/>
+      <c r="S112" s="57"/>
+      <c r="T112" s="57"/>
+      <c r="U112" s="57"/>
+      <c r="V112" s="57"/>
+      <c r="W112" s="57"/>
+      <c r="X112" s="57"/>
+      <c r="Y112" s="57"/>
+      <c r="Z112" s="57"/>
+      <c r="AA112" s="57"/>
     </row>
     <row r="113" spans="1:27" ht="20.25" customHeight="1">
       <c r="A113" s="15" t="s">
@@ -9623,7 +9617,7 @@
       <c r="K113" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L113" s="41">
+      <c r="L113" s="40">
         <v>1</v>
       </c>
       <c r="M113" s="15" t="s">
@@ -9663,7 +9657,7 @@
       <c r="K114" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L114" s="41">
+      <c r="L114" s="40">
         <v>1</v>
       </c>
       <c r="M114" s="15" t="s">
@@ -9707,7 +9701,7 @@
       <c r="K115" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="L115" s="41" t="s">
+      <c r="L115" s="40" t="s">
         <v>71</v>
       </c>
       <c r="M115" s="15" t="s">
@@ -9751,7 +9745,7 @@
       <c r="K116" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="L116" s="41" t="s">
+      <c r="L116" s="40" t="s">
         <v>86</v>
       </c>
       <c r="M116" s="15" t="s">
@@ -9795,7 +9789,7 @@
       <c r="K117" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="L117" s="41" t="s">
+      <c r="L117" s="40" t="s">
         <v>71</v>
       </c>
       <c r="M117" s="15" t="s">
@@ -9837,7 +9831,7 @@
       <c r="K118" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="L118" s="41" t="s">
+      <c r="L118" s="40" t="s">
         <v>71</v>
       </c>
       <c r="M118" s="15" t="s">
@@ -9862,7 +9856,7 @@
       <c r="A119" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="B119" s="15" t="s">
+      <c r="B119" s="2" t="s">
         <v>349</v>
       </c>
       <c r="C119" s="15" t="s">
@@ -9892,7 +9886,7 @@
       <c r="K119" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L119" s="41">
+      <c r="L119" s="40">
         <v>1</v>
       </c>
       <c r="M119" s="15" t="s">
@@ -9947,7 +9941,7 @@
       <c r="K120" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L120" s="41">
+      <c r="L120" s="40">
         <v>1</v>
       </c>
       <c r="M120" s="15" t="s">
@@ -10002,7 +9996,7 @@
       <c r="K121" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L121" s="41">
+      <c r="L121" s="40">
         <v>1</v>
       </c>
       <c r="M121" s="15" t="s">
@@ -10055,7 +10049,7 @@
       <c r="K122" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L122" s="41">
+      <c r="L122" s="40">
         <v>1</v>
       </c>
       <c r="M122" s="15" t="s">
@@ -10163,7 +10157,7 @@
       <c r="K124" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L124" s="41">
+      <c r="L124" s="40">
         <v>1</v>
       </c>
       <c r="M124" s="15" t="s">
@@ -10174,214 +10168,214 @@
       <c r="P124" s="15"/>
     </row>
     <row r="125" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A125" s="38" t="s">
+      <c r="A125" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="B125" s="38" t="s">
+      <c r="B125" s="37" t="s">
         <v>1160</v>
       </c>
-      <c r="C125" s="38" t="s">
+      <c r="C125" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="D125" s="38" t="s">
+      <c r="D125" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="E125" s="38"/>
-      <c r="F125" s="38" t="s">
+      <c r="E125" s="37"/>
+      <c r="F125" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="G125" s="52">
+      <c r="G125" s="51">
         <v>6</v>
       </c>
-      <c r="H125" s="52">
+      <c r="H125" s="51">
         <v>10</v>
       </c>
-      <c r="I125" s="52">
+      <c r="I125" s="51">
         <v>8</v>
       </c>
-      <c r="J125" s="52">
+      <c r="J125" s="51">
         <v>8</v>
       </c>
-      <c r="K125" s="38" t="s">
+      <c r="K125" s="37" t="s">
         <v>1161</v>
       </c>
-      <c r="L125" s="65" t="s">
+      <c r="L125" s="64" t="s">
         <v>1180</v>
       </c>
-      <c r="M125" s="38" t="s">
+      <c r="M125" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="N125" s="38"/>
-      <c r="O125" s="38"/>
-      <c r="P125" s="38"/>
+      <c r="N125" s="37"/>
+      <c r="O125" s="37"/>
+      <c r="P125" s="37"/>
     </row>
     <row r="126" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A126" s="38" t="s">
+      <c r="A126" s="37" t="s">
         <v>1162</v>
       </c>
-      <c r="B126" s="38" t="s">
+      <c r="B126" s="37" t="s">
         <v>1163</v>
       </c>
-      <c r="C126" s="38" t="s">
+      <c r="C126" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="D126" s="38" t="s">
+      <c r="D126" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="E126" s="38"/>
-      <c r="F126" s="38" t="s">
+      <c r="E126" s="37"/>
+      <c r="F126" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="G126" s="52">
+      <c r="G126" s="51">
         <v>13</v>
       </c>
-      <c r="H126" s="52">
+      <c r="H126" s="51">
         <v>13</v>
       </c>
-      <c r="I126" s="52">
+      <c r="I126" s="51">
         <v>12</v>
       </c>
-      <c r="J126" s="52">
+      <c r="J126" s="51">
         <v>12</v>
       </c>
-      <c r="K126" s="38" t="s">
+      <c r="K126" s="37" t="s">
         <v>1161</v>
       </c>
-      <c r="L126" s="65" t="s">
+      <c r="L126" s="64" t="s">
         <v>1180</v>
       </c>
-      <c r="M126" s="38" t="s">
+      <c r="M126" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="N126" s="38"/>
-      <c r="O126" s="38"/>
-      <c r="P126" s="38"/>
+      <c r="N126" s="37"/>
+      <c r="O126" s="37"/>
+      <c r="P126" s="37"/>
     </row>
     <row r="127" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A127" s="38" t="s">
+      <c r="A127" s="37" t="s">
         <v>1164</v>
       </c>
-      <c r="B127" s="38" t="s">
+      <c r="B127" s="37" t="s">
         <v>1165</v>
       </c>
-      <c r="C127" s="38" t="s">
+      <c r="C127" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="D127" s="38" t="s">
+      <c r="D127" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="E127" s="38"/>
-      <c r="F127" s="38" t="s">
+      <c r="E127" s="37"/>
+      <c r="F127" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="G127" s="52">
+      <c r="G127" s="51">
         <v>17</v>
       </c>
-      <c r="H127" s="52">
+      <c r="H127" s="51">
         <v>17</v>
       </c>
-      <c r="I127" s="52">
+      <c r="I127" s="51">
         <v>16</v>
       </c>
-      <c r="J127" s="52">
+      <c r="J127" s="51">
         <v>16</v>
       </c>
-      <c r="K127" s="38" t="s">
+      <c r="K127" s="37" t="s">
         <v>1161</v>
       </c>
-      <c r="L127" s="65" t="s">
+      <c r="L127" s="64" t="s">
         <v>1180</v>
       </c>
-      <c r="M127" s="38" t="s">
+      <c r="M127" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="N127" s="38"/>
-      <c r="O127" s="38"/>
-      <c r="P127" s="38"/>
+      <c r="N127" s="37"/>
+      <c r="O127" s="37"/>
+      <c r="P127" s="37"/>
     </row>
     <row r="128" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A128" s="38" t="s">
+      <c r="A128" s="37" t="s">
         <v>1166</v>
       </c>
-      <c r="B128" s="38" t="s">
+      <c r="B128" s="37" t="s">
         <v>1167</v>
       </c>
-      <c r="C128" s="38" t="s">
+      <c r="C128" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="D128" s="38" t="s">
+      <c r="D128" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="E128" s="38"/>
-      <c r="F128" s="38" t="s">
+      <c r="E128" s="37"/>
+      <c r="F128" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="G128" s="52">
+      <c r="G128" s="51">
         <v>22</v>
       </c>
-      <c r="H128" s="52">
+      <c r="H128" s="51">
         <v>22</v>
       </c>
-      <c r="I128" s="52">
+      <c r="I128" s="51">
         <v>20</v>
       </c>
-      <c r="J128" s="52">
+      <c r="J128" s="51">
         <v>20</v>
       </c>
-      <c r="K128" s="38" t="s">
+      <c r="K128" s="37" t="s">
         <v>1161</v>
       </c>
-      <c r="L128" s="65" t="s">
+      <c r="L128" s="64" t="s">
         <v>1180</v>
       </c>
-      <c r="M128" s="38" t="s">
+      <c r="M128" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="N128" s="38"/>
-      <c r="O128" s="38"/>
-      <c r="P128" s="38"/>
+      <c r="N128" s="37"/>
+      <c r="O128" s="37"/>
+      <c r="P128" s="37"/>
     </row>
     <row r="129" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A129" s="38" t="s">
+      <c r="A129" s="37" t="s">
         <v>1168</v>
       </c>
-      <c r="B129" s="38" t="s">
+      <c r="B129" s="37" t="s">
         <v>1169</v>
       </c>
-      <c r="C129" s="38" t="s">
+      <c r="C129" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="D129" s="38" t="s">
+      <c r="D129" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="E129" s="38"/>
-      <c r="F129" s="38" t="s">
+      <c r="E129" s="37"/>
+      <c r="F129" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="G129" s="52">
+      <c r="G129" s="51">
         <v>26</v>
       </c>
-      <c r="H129" s="52">
+      <c r="H129" s="51">
         <v>26</v>
       </c>
-      <c r="I129" s="52">
+      <c r="I129" s="51">
         <v>24</v>
       </c>
-      <c r="J129" s="52">
+      <c r="J129" s="51">
         <v>24</v>
       </c>
-      <c r="K129" s="38" t="s">
+      <c r="K129" s="37" t="s">
         <v>1161</v>
       </c>
-      <c r="L129" s="65" t="s">
+      <c r="L129" s="64" t="s">
         <v>1180</v>
       </c>
-      <c r="M129" s="38" t="s">
+      <c r="M129" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="N129" s="38"/>
-      <c r="O129" s="38"/>
-      <c r="P129" s="38"/>
+      <c r="N129" s="37"/>
+      <c r="O129" s="37"/>
+      <c r="P129" s="37"/>
       <c r="Q129" s="3"/>
       <c r="R129" s="3"/>
       <c r="S129" s="3"/>
@@ -10395,88 +10389,88 @@
       <c r="AA129" s="3"/>
     </row>
     <row r="130" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A130" s="38" t="s">
+      <c r="A130" s="37" t="s">
         <v>1170</v>
       </c>
-      <c r="B130" s="38" t="s">
+      <c r="B130" s="37" t="s">
         <v>1171</v>
       </c>
-      <c r="C130" s="38" t="s">
+      <c r="C130" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="D130" s="38" t="s">
+      <c r="D130" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="E130" s="38"/>
-      <c r="F130" s="38" t="s">
+      <c r="E130" s="37"/>
+      <c r="F130" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="G130" s="52">
+      <c r="G130" s="51">
         <v>7</v>
       </c>
-      <c r="H130" s="52">
+      <c r="H130" s="51">
         <v>13</v>
       </c>
-      <c r="I130" s="52">
+      <c r="I130" s="51">
         <v>10</v>
       </c>
-      <c r="J130" s="52">
+      <c r="J130" s="51">
         <v>10</v>
       </c>
-      <c r="K130" s="38" t="s">
+      <c r="K130" s="37" t="s">
         <v>1161</v>
       </c>
-      <c r="L130" s="65" t="s">
+      <c r="L130" s="64" t="s">
         <v>1180</v>
       </c>
-      <c r="M130" s="38" t="s">
+      <c r="M130" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="N130" s="38"/>
-      <c r="O130" s="38"/>
-      <c r="P130" s="38"/>
+      <c r="N130" s="37"/>
+      <c r="O130" s="37"/>
+      <c r="P130" s="37"/>
     </row>
     <row r="131" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A131" s="38" t="s">
+      <c r="A131" s="37" t="s">
         <v>1172</v>
       </c>
-      <c r="B131" s="38" t="s">
+      <c r="B131" s="37" t="s">
         <v>1173</v>
       </c>
-      <c r="C131" s="38" t="s">
+      <c r="C131" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="D131" s="38" t="s">
+      <c r="D131" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="E131" s="38"/>
-      <c r="F131" s="38" t="s">
+      <c r="E131" s="37"/>
+      <c r="F131" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="G131" s="52">
-        <v>18</v>
-      </c>
-      <c r="H131" s="52">
-        <v>18</v>
-      </c>
-      <c r="I131" s="52">
+      <c r="G131" s="51">
+        <v>18</v>
+      </c>
+      <c r="H131" s="51">
+        <v>18</v>
+      </c>
+      <c r="I131" s="51">
         <v>15</v>
       </c>
-      <c r="J131" s="52">
+      <c r="J131" s="51">
         <v>15</v>
       </c>
-      <c r="K131" s="38" t="s">
+      <c r="K131" s="37" t="s">
         <v>1161</v>
       </c>
-      <c r="L131" s="65" t="s">
+      <c r="L131" s="64" t="s">
         <v>1180</v>
       </c>
-      <c r="M131" s="38" t="s">
+      <c r="M131" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="N131" s="38"/>
-      <c r="O131" s="38"/>
-      <c r="P131" s="38"/>
+      <c r="N131" s="37"/>
+      <c r="O131" s="37"/>
+      <c r="P131" s="37"/>
       <c r="Q131" s="3"/>
       <c r="R131" s="3"/>
       <c r="S131" s="3"/>
@@ -10490,130 +10484,130 @@
       <c r="AA131" s="3"/>
     </row>
     <row r="132" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A132" s="38" t="s">
+      <c r="A132" s="37" t="s">
         <v>1174</v>
       </c>
-      <c r="B132" s="38" t="s">
+      <c r="B132" s="37" t="s">
         <v>1175</v>
       </c>
-      <c r="C132" s="38" t="s">
+      <c r="C132" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="D132" s="38" t="s">
+      <c r="D132" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="E132" s="38"/>
-      <c r="F132" s="38" t="s">
+      <c r="E132" s="37"/>
+      <c r="F132" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="G132" s="52">
+      <c r="G132" s="51">
         <v>23</v>
       </c>
-      <c r="H132" s="52">
+      <c r="H132" s="51">
         <v>23</v>
       </c>
-      <c r="I132" s="52">
+      <c r="I132" s="51">
         <v>20</v>
       </c>
-      <c r="J132" s="52">
+      <c r="J132" s="51">
         <v>20</v>
       </c>
-      <c r="K132" s="38" t="s">
+      <c r="K132" s="37" t="s">
         <v>1161</v>
       </c>
-      <c r="L132" s="65" t="s">
+      <c r="L132" s="64" t="s">
         <v>1180</v>
       </c>
-      <c r="M132" s="38" t="s">
+      <c r="M132" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="N132" s="38"/>
-      <c r="O132" s="38"/>
-      <c r="P132" s="38"/>
+      <c r="N132" s="37"/>
+      <c r="O132" s="37"/>
+      <c r="P132" s="37"/>
     </row>
     <row r="133" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A133" s="38" t="s">
+      <c r="A133" s="37" t="s">
         <v>1176</v>
       </c>
-      <c r="B133" s="38" t="s">
+      <c r="B133" s="37" t="s">
         <v>1177</v>
       </c>
-      <c r="C133" s="38" t="s">
+      <c r="C133" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="D133" s="38" t="s">
+      <c r="D133" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="E133" s="38"/>
-      <c r="F133" s="38" t="s">
+      <c r="E133" s="37"/>
+      <c r="F133" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="G133" s="52">
+      <c r="G133" s="51">
         <v>28</v>
       </c>
-      <c r="H133" s="52">
+      <c r="H133" s="51">
         <v>28</v>
       </c>
-      <c r="I133" s="52">
+      <c r="I133" s="51">
         <v>25</v>
       </c>
-      <c r="J133" s="52">
+      <c r="J133" s="51">
         <v>25</v>
       </c>
-      <c r="K133" s="38" t="s">
+      <c r="K133" s="37" t="s">
         <v>1161</v>
       </c>
-      <c r="L133" s="65" t="s">
+      <c r="L133" s="64" t="s">
         <v>1180</v>
       </c>
-      <c r="M133" s="38" t="s">
+      <c r="M133" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="N133" s="38"/>
-      <c r="O133" s="38"/>
-      <c r="P133" s="38"/>
+      <c r="N133" s="37"/>
+      <c r="O133" s="37"/>
+      <c r="P133" s="37"/>
     </row>
     <row r="134" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A134" s="38" t="s">
+      <c r="A134" s="37" t="s">
         <v>1178</v>
       </c>
-      <c r="B134" s="38" t="s">
+      <c r="B134" s="37" t="s">
         <v>1179</v>
       </c>
-      <c r="C134" s="38" t="s">
+      <c r="C134" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="D134" s="38" t="s">
+      <c r="D134" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="E134" s="38"/>
-      <c r="F134" s="38" t="s">
+      <c r="E134" s="37"/>
+      <c r="F134" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="G134" s="52">
+      <c r="G134" s="51">
         <v>33</v>
       </c>
-      <c r="H134" s="52">
+      <c r="H134" s="51">
         <v>33</v>
       </c>
-      <c r="I134" s="52">
+      <c r="I134" s="51">
         <v>30</v>
       </c>
-      <c r="J134" s="52">
+      <c r="J134" s="51">
         <v>30</v>
       </c>
-      <c r="K134" s="38" t="s">
+      <c r="K134" s="37" t="s">
         <v>1161</v>
       </c>
-      <c r="L134" s="65" t="s">
+      <c r="L134" s="64" t="s">
         <v>1180</v>
       </c>
-      <c r="M134" s="38" t="s">
+      <c r="M134" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="N134" s="38"/>
-      <c r="O134" s="38"/>
-      <c r="P134" s="38"/>
+      <c r="N134" s="37"/>
+      <c r="O134" s="37"/>
+      <c r="P134" s="37"/>
     </row>
     <row r="135" spans="1:27" ht="20.25" customHeight="1">
       <c r="A135" s="15" t="s">
@@ -10647,7 +10641,7 @@
       <c r="K135" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L135" s="41" t="s">
+      <c r="L135" s="40" t="s">
         <v>50</v>
       </c>
       <c r="M135" s="15" t="s">
@@ -10689,7 +10683,7 @@
       <c r="K136" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L136" s="41" t="s">
+      <c r="L136" s="40" t="s">
         <v>50</v>
       </c>
       <c r="M136" s="15" t="s">
@@ -10729,7 +10723,7 @@
       <c r="K137" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L137" s="41" t="s">
+      <c r="L137" s="40" t="s">
         <v>377</v>
       </c>
       <c r="M137" s="15" t="s">
@@ -10883,136 +10877,136 @@
       <c r="AA140" s="3"/>
     </row>
     <row r="141" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A141" s="38" t="s">
+      <c r="A141" s="37" t="s">
         <v>1181</v>
       </c>
-      <c r="B141" s="38" t="s">
+      <c r="B141" s="37" t="s">
         <v>1182</v>
       </c>
-      <c r="C141" s="38" t="s">
+      <c r="C141" s="37" t="s">
         <v>1183</v>
       </c>
-      <c r="D141" s="38" t="s">
+      <c r="D141" s="37" t="s">
         <v>1184</v>
       </c>
-      <c r="E141" s="38" t="s">
+      <c r="E141" s="37" t="s">
         <v>1185</v>
       </c>
-      <c r="F141" s="38" t="s">
+      <c r="F141" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="G141" s="52">
+      <c r="G141" s="51">
         <v>6</v>
       </c>
-      <c r="H141" s="52">
+      <c r="H141" s="51">
         <v>9</v>
       </c>
-      <c r="I141" s="52">
+      <c r="I141" s="51">
         <v>8</v>
       </c>
-      <c r="J141" s="52">
+      <c r="J141" s="51">
         <v>8</v>
       </c>
-      <c r="K141" s="38" t="s">
+      <c r="K141" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="L141" s="61">
+      <c r="L141" s="60">
         <v>1</v>
       </c>
-      <c r="M141" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="N141" s="38"/>
-      <c r="O141" s="38"/>
-      <c r="P141" s="38"/>
+      <c r="M141" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="N141" s="37"/>
+      <c r="O141" s="37"/>
+      <c r="P141" s="37"/>
     </row>
     <row r="142" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A142" s="38" t="s">
+      <c r="A142" s="37" t="s">
         <v>1186</v>
       </c>
-      <c r="B142" s="38" t="s">
+      <c r="B142" s="37" t="s">
         <v>1187</v>
       </c>
-      <c r="C142" s="38" t="s">
+      <c r="C142" s="37" t="s">
         <v>1183</v>
       </c>
-      <c r="D142" s="38" t="s">
+      <c r="D142" s="37" t="s">
         <v>1184</v>
       </c>
-      <c r="E142" s="38" t="s">
+      <c r="E142" s="37" t="s">
         <v>1185</v>
       </c>
-      <c r="F142" s="38" t="s">
+      <c r="F142" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="G142" s="52">
+      <c r="G142" s="51">
         <v>9</v>
       </c>
-      <c r="H142" s="52">
+      <c r="H142" s="51">
         <v>13</v>
       </c>
-      <c r="I142" s="52">
+      <c r="I142" s="51">
         <v>12</v>
       </c>
-      <c r="J142" s="52">
+      <c r="J142" s="51">
         <v>12</v>
       </c>
-      <c r="K142" s="38" t="s">
+      <c r="K142" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="L142" s="61">
+      <c r="L142" s="60">
         <v>1</v>
       </c>
-      <c r="M142" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="N142" s="38"/>
-      <c r="O142" s="38"/>
-      <c r="P142" s="38"/>
+      <c r="M142" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="N142" s="37"/>
+      <c r="O142" s="37"/>
+      <c r="P142" s="37"/>
     </row>
     <row r="143" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A143" s="38" t="s">
+      <c r="A143" s="37" t="s">
         <v>1188</v>
       </c>
-      <c r="B143" s="38" t="s">
+      <c r="B143" s="37" t="s">
         <v>1189</v>
       </c>
-      <c r="C143" s="38" t="s">
+      <c r="C143" s="37" t="s">
         <v>1183</v>
       </c>
-      <c r="D143" s="38" t="s">
+      <c r="D143" s="37" t="s">
         <v>1184</v>
       </c>
-      <c r="E143" s="38" t="s">
+      <c r="E143" s="37" t="s">
         <v>1185</v>
       </c>
-      <c r="F143" s="38" t="s">
+      <c r="F143" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="G143" s="52">
+      <c r="G143" s="51">
         <v>12</v>
       </c>
-      <c r="H143" s="52">
+      <c r="H143" s="51">
         <v>17</v>
       </c>
-      <c r="I143" s="52">
+      <c r="I143" s="51">
         <v>16</v>
       </c>
-      <c r="J143" s="52">
+      <c r="J143" s="51">
         <v>16</v>
       </c>
-      <c r="K143" s="38" t="s">
+      <c r="K143" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="L143" s="61">
+      <c r="L143" s="60">
         <v>1</v>
       </c>
-      <c r="M143" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="N143" s="38"/>
-      <c r="O143" s="38"/>
-      <c r="P143" s="38"/>
+      <c r="M143" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="N143" s="37"/>
+      <c r="O143" s="37"/>
+      <c r="P143" s="37"/>
       <c r="Q143" s="3"/>
       <c r="R143" s="3"/>
       <c r="S143" s="3"/>
@@ -11026,169 +11020,169 @@
       <c r="AA143" s="3"/>
     </row>
     <row r="144" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A144" s="58" t="s">
+      <c r="A144" s="57" t="s">
         <v>1190</v>
       </c>
-      <c r="B144" s="58" t="s">
+      <c r="B144" s="57" t="s">
         <v>1191</v>
       </c>
-      <c r="C144" s="58" t="s">
+      <c r="C144" s="57" t="s">
         <v>1192</v>
       </c>
-      <c r="D144" s="58" t="s">
+      <c r="D144" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="E144" s="58" t="s">
+      <c r="E144" s="57" t="s">
         <v>1193</v>
       </c>
-      <c r="F144" s="58" t="s">
+      <c r="F144" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="G144" s="62">
+      <c r="G144" s="61">
         <v>6</v>
       </c>
-      <c r="H144" s="62">
+      <c r="H144" s="61">
         <v>10</v>
       </c>
-      <c r="I144" s="62">
+      <c r="I144" s="61">
         <v>8</v>
       </c>
-      <c r="J144" s="62">
+      <c r="J144" s="61">
         <v>8</v>
       </c>
-      <c r="K144" s="58" t="s">
+      <c r="K144" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="L144" s="79">
+      <c r="L144" s="76">
         <v>1</v>
       </c>
-      <c r="M144" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="N144" s="58"/>
-      <c r="O144" s="58"/>
-      <c r="P144" s="58"/>
-      <c r="Q144" s="39"/>
-      <c r="R144" s="39"/>
-      <c r="S144" s="39"/>
-      <c r="T144" s="39"/>
-      <c r="U144" s="39"/>
-      <c r="V144" s="39"/>
-      <c r="W144" s="39"/>
-      <c r="X144" s="39"/>
-      <c r="Y144" s="39"/>
-      <c r="Z144" s="39"/>
-      <c r="AA144" s="39"/>
+      <c r="M144" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="N144" s="57"/>
+      <c r="O144" s="57"/>
+      <c r="P144" s="57"/>
+      <c r="Q144" s="38"/>
+      <c r="R144" s="38"/>
+      <c r="S144" s="38"/>
+      <c r="T144" s="38"/>
+      <c r="U144" s="38"/>
+      <c r="V144" s="38"/>
+      <c r="W144" s="38"/>
+      <c r="X144" s="38"/>
+      <c r="Y144" s="38"/>
+      <c r="Z144" s="38"/>
+      <c r="AA144" s="38"/>
     </row>
     <row r="145" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A145" s="58" t="s">
+      <c r="A145" s="57" t="s">
         <v>1194</v>
       </c>
-      <c r="B145" s="58" t="s">
+      <c r="B145" s="57" t="s">
         <v>1195</v>
       </c>
-      <c r="C145" s="58" t="s">
+      <c r="C145" s="57" t="s">
         <v>1192</v>
       </c>
-      <c r="D145" s="58" t="s">
+      <c r="D145" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="E145" s="58" t="s">
+      <c r="E145" s="57" t="s">
         <v>1193</v>
       </c>
-      <c r="F145" s="58" t="s">
+      <c r="F145" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="G145" s="62">
+      <c r="G145" s="61">
         <v>9</v>
       </c>
-      <c r="H145" s="62">
+      <c r="H145" s="61">
         <v>15</v>
       </c>
-      <c r="I145" s="62">
+      <c r="I145" s="61">
         <v>12</v>
       </c>
-      <c r="J145" s="62">
+      <c r="J145" s="61">
         <v>12</v>
       </c>
-      <c r="K145" s="58" t="s">
+      <c r="K145" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="L145" s="79">
+      <c r="L145" s="76">
         <v>1</v>
       </c>
-      <c r="M145" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="N145" s="58"/>
-      <c r="O145" s="58"/>
-      <c r="P145" s="58"/>
-      <c r="Q145" s="39"/>
-      <c r="R145" s="39"/>
-      <c r="S145" s="39"/>
-      <c r="T145" s="39"/>
-      <c r="U145" s="39"/>
-      <c r="V145" s="39"/>
-      <c r="W145" s="39"/>
-      <c r="X145" s="39"/>
-      <c r="Y145" s="39"/>
-      <c r="Z145" s="39"/>
-      <c r="AA145" s="39"/>
+      <c r="M145" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="N145" s="57"/>
+      <c r="O145" s="57"/>
+      <c r="P145" s="57"/>
+      <c r="Q145" s="38"/>
+      <c r="R145" s="38"/>
+      <c r="S145" s="38"/>
+      <c r="T145" s="38"/>
+      <c r="U145" s="38"/>
+      <c r="V145" s="38"/>
+      <c r="W145" s="38"/>
+      <c r="X145" s="38"/>
+      <c r="Y145" s="38"/>
+      <c r="Z145" s="38"/>
+      <c r="AA145" s="38"/>
     </row>
     <row r="146" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A146" s="58" t="s">
+      <c r="A146" s="57" t="s">
         <v>1196</v>
       </c>
-      <c r="B146" s="58" t="s">
+      <c r="B146" s="57" t="s">
         <v>1197</v>
       </c>
-      <c r="C146" s="58" t="s">
+      <c r="C146" s="57" t="s">
         <v>1192</v>
       </c>
-      <c r="D146" s="58" t="s">
+      <c r="D146" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="E146" s="58" t="s">
+      <c r="E146" s="57" t="s">
         <v>1193</v>
       </c>
-      <c r="F146" s="58" t="s">
+      <c r="F146" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="G146" s="62">
+      <c r="G146" s="61">
         <v>12</v>
       </c>
-      <c r="H146" s="62">
+      <c r="H146" s="61">
         <v>20</v>
       </c>
-      <c r="I146" s="62">
+      <c r="I146" s="61">
         <v>16</v>
       </c>
-      <c r="J146" s="62">
+      <c r="J146" s="61">
         <v>16</v>
       </c>
-      <c r="K146" s="58" t="s">
+      <c r="K146" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="L146" s="79">
+      <c r="L146" s="76">
         <v>1</v>
       </c>
-      <c r="M146" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="N146" s="58"/>
-      <c r="O146" s="58"/>
-      <c r="P146" s="58"/>
-      <c r="Q146" s="39"/>
-      <c r="R146" s="39"/>
-      <c r="S146" s="39"/>
-      <c r="T146" s="39"/>
-      <c r="U146" s="39"/>
-      <c r="V146" s="39"/>
-      <c r="W146" s="39"/>
-      <c r="X146" s="39"/>
-      <c r="Y146" s="39"/>
-      <c r="Z146" s="39"/>
-      <c r="AA146" s="39"/>
+      <c r="M146" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="N146" s="57"/>
+      <c r="O146" s="57"/>
+      <c r="P146" s="57"/>
+      <c r="Q146" s="38"/>
+      <c r="R146" s="38"/>
+      <c r="S146" s="38"/>
+      <c r="T146" s="38"/>
+      <c r="U146" s="38"/>
+      <c r="V146" s="38"/>
+      <c r="W146" s="38"/>
+      <c r="X146" s="38"/>
+      <c r="Y146" s="38"/>
+      <c r="Z146" s="38"/>
+      <c r="AA146" s="38"/>
     </row>
     <row r="147" spans="1:27" ht="20.25" customHeight="1">
       <c r="A147" s="15" t="s">
@@ -11224,7 +11218,7 @@
       <c r="K147" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="L147" s="41">
+      <c r="L147" s="40">
         <v>1</v>
       </c>
       <c r="M147" s="15" t="s">
@@ -11268,7 +11262,7 @@
       <c r="K148" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="L148" s="41">
+      <c r="L148" s="40">
         <v>1</v>
       </c>
       <c r="M148" s="15" t="s">
@@ -11312,7 +11306,7 @@
       <c r="K149" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="L149" s="41">
+      <c r="L149" s="40">
         <v>1</v>
       </c>
       <c r="M149" s="15" t="s">
@@ -11356,7 +11350,7 @@
       <c r="K150" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="L150" s="41">
+      <c r="L150" s="40">
         <v>1</v>
       </c>
       <c r="M150" s="15" t="s">
@@ -11411,7 +11405,7 @@
       <c r="K151" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="L151" s="41">
+      <c r="L151" s="40">
         <v>1</v>
       </c>
       <c r="M151" s="15" t="s">
@@ -11455,7 +11449,7 @@
       <c r="K152" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="L152" s="41">
+      <c r="L152" s="40">
         <v>1</v>
       </c>
       <c r="M152" s="15" t="s">
@@ -11499,7 +11493,7 @@
       <c r="K153" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="L153" s="41">
+      <c r="L153" s="40">
         <v>1</v>
       </c>
       <c r="M153" s="15" t="s">
@@ -11552,7 +11546,7 @@
       <c r="K154" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="L154" s="41">
+      <c r="L154" s="40">
         <v>1</v>
       </c>
       <c r="M154" s="15" t="s">
@@ -11658,7 +11652,7 @@
       <c r="P156" s="2"/>
     </row>
     <row r="157" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A157" s="57" t="s">
+      <c r="A157" s="56" t="s">
         <v>409</v>
       </c>
       <c r="B157" s="2" t="s">
@@ -11857,7 +11851,7 @@
       <c r="K161" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L161" s="41">
+      <c r="L161" s="40">
         <v>1</v>
       </c>
       <c r="M161" s="15" t="s">
@@ -11994,7 +11988,7 @@
       <c r="K164" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L164" s="41">
+      <c r="L164" s="40">
         <v>1</v>
       </c>
       <c r="M164" s="15" t="s">
@@ -12036,7 +12030,7 @@
       <c r="K165" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L165" s="41">
+      <c r="L165" s="40">
         <v>1</v>
       </c>
       <c r="M165" s="15" t="s">
@@ -12078,7 +12072,7 @@
       <c r="K166" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L166" s="41">
+      <c r="L166" s="40">
         <v>1</v>
       </c>
       <c r="M166" s="15" t="s">
@@ -12120,7 +12114,7 @@
       <c r="K167" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L167" s="41">
+      <c r="L167" s="40">
         <v>1</v>
       </c>
       <c r="M167" s="15" t="s">
@@ -12164,7 +12158,7 @@
       <c r="K168" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L168" s="69" t="s">
+      <c r="L168" s="68" t="s">
         <v>71</v>
       </c>
       <c r="M168" s="15" t="s">
@@ -12709,7 +12703,7 @@
       <c r="K180" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L180" s="41" t="s">
+      <c r="L180" s="40" t="s">
         <v>125</v>
       </c>
       <c r="M180" s="15" t="s">
@@ -12861,7 +12855,7 @@
       <c r="K183" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L183" s="41">
+      <c r="L183" s="40">
         <v>44233</v>
       </c>
       <c r="M183" s="15" t="s">
@@ -12903,7 +12897,7 @@
       <c r="K184" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L184" s="41">
+      <c r="L184" s="40">
         <v>44233</v>
       </c>
       <c r="M184" s="15" t="s">
@@ -13033,7 +13027,7 @@
       <c r="K187" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L187" s="41" t="s">
+      <c r="L187" s="40" t="s">
         <v>160</v>
       </c>
       <c r="M187" s="15" t="s">
@@ -13111,7 +13105,7 @@
       <c r="K189" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L189" s="41">
+      <c r="L189" s="40">
         <v>1</v>
       </c>
       <c r="M189" s="15" t="s">
@@ -13122,7 +13116,7 @@
       <c r="P189" s="15"/>
     </row>
     <row r="190" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A190" s="57" t="s">
+      <c r="A190" s="56" t="s">
         <v>485</v>
       </c>
       <c r="B190" s="15" t="s">
@@ -13153,7 +13147,7 @@
       <c r="K190" s="15" t="s">
         <v>487</v>
       </c>
-      <c r="L190" s="41" t="s">
+      <c r="L190" s="40" t="s">
         <v>130</v>
       </c>
       <c r="M190" s="15" t="s">
@@ -13195,7 +13189,7 @@
       <c r="K191" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="L191" s="41" t="s">
+      <c r="L191" s="40" t="s">
         <v>130</v>
       </c>
       <c r="M191" s="15" t="s">
@@ -13206,7 +13200,7 @@
       <c r="P191" s="15"/>
     </row>
     <row r="192" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A192" s="57" t="s">
+      <c r="A192" s="56" t="s">
         <v>1125</v>
       </c>
       <c r="B192" s="2" t="s">
@@ -13239,7 +13233,7 @@
       <c r="K192" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="L192" s="41" t="s">
+      <c r="L192" s="40" t="s">
         <v>137</v>
       </c>
       <c r="M192" s="15" t="s">
@@ -13569,7 +13563,7 @@
       <c r="K199" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L199" s="41" t="s">
+      <c r="L199" s="40" t="s">
         <v>146</v>
       </c>
       <c r="M199" s="15" t="s">
@@ -13624,7 +13618,7 @@
       <c r="K200" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L200" s="41" t="s">
+      <c r="L200" s="40" t="s">
         <v>146</v>
       </c>
       <c r="M200" s="15" t="s">
@@ -13668,7 +13662,7 @@
       <c r="K201" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L201" s="41" t="s">
+      <c r="L201" s="40" t="s">
         <v>146</v>
       </c>
       <c r="M201" s="15" t="s">
@@ -13712,7 +13706,7 @@
       <c r="K202" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L202" s="41" t="s">
+      <c r="L202" s="40" t="s">
         <v>146</v>
       </c>
       <c r="M202" s="15" t="s">
@@ -13756,7 +13750,7 @@
       <c r="K203" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L203" s="41" t="s">
+      <c r="L203" s="40" t="s">
         <v>146</v>
       </c>
       <c r="M203" s="15" t="s">
@@ -13800,7 +13794,7 @@
       <c r="K204" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L204" s="41" t="s">
+      <c r="L204" s="40" t="s">
         <v>146</v>
       </c>
       <c r="M204" s="15" t="s">
@@ -13844,7 +13838,7 @@
       <c r="K205" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L205" s="41" t="s">
+      <c r="L205" s="40" t="s">
         <v>146</v>
       </c>
       <c r="M205" s="15" t="s">
@@ -13888,7 +13882,7 @@
       <c r="K206" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L206" s="41" t="s">
+      <c r="L206" s="40" t="s">
         <v>146</v>
       </c>
       <c r="M206" s="15" t="s">
@@ -13932,7 +13926,7 @@
       <c r="K207" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L207" s="41" t="s">
+      <c r="L207" s="40" t="s">
         <v>146</v>
       </c>
       <c r="M207" s="15" t="s">
@@ -13976,7 +13970,7 @@
       <c r="K208" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L208" s="41" t="s">
+      <c r="L208" s="40" t="s">
         <v>146</v>
       </c>
       <c r="M208" s="15" t="s">
@@ -14020,7 +14014,7 @@
       <c r="K209" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L209" s="41" t="s">
+      <c r="L209" s="40" t="s">
         <v>146</v>
       </c>
       <c r="M209" s="15" t="s">
@@ -14062,7 +14056,7 @@
       <c r="K210" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L210" s="41">
+      <c r="L210" s="40">
         <v>1</v>
       </c>
       <c r="M210" s="15" t="s">
@@ -14102,7 +14096,7 @@
       <c r="K211" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L211" s="41">
+      <c r="L211" s="40">
         <v>1</v>
       </c>
       <c r="M211" s="15" t="s">
@@ -14153,7 +14147,7 @@
       <c r="K212" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L212" s="41">
+      <c r="L212" s="40">
         <v>1</v>
       </c>
       <c r="M212" s="15" t="s">
@@ -14480,7 +14474,7 @@
       <c r="K218" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L218" s="41">
+      <c r="L218" s="40">
         <v>1</v>
       </c>
       <c r="M218" s="15" t="s">
@@ -14533,7 +14527,7 @@
       <c r="K219" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L219" s="41">
+      <c r="L219" s="40">
         <v>1</v>
       </c>
       <c r="M219" s="15" t="s">
@@ -14588,7 +14582,7 @@
       <c r="K220" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L220" s="41">
+      <c r="L220" s="40">
         <v>1</v>
       </c>
       <c r="M220" s="15" t="s">
@@ -14643,7 +14637,7 @@
       <c r="K221" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L221" s="41">
+      <c r="L221" s="40">
         <v>1</v>
       </c>
       <c r="M221" s="15" t="s">
@@ -14698,7 +14692,7 @@
       <c r="K222" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L222" s="41">
+      <c r="L222" s="40">
         <v>1</v>
       </c>
       <c r="M222" s="15" t="s">
@@ -14742,7 +14736,7 @@
       <c r="K223" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L223" s="41">
+      <c r="L223" s="40">
         <v>1</v>
       </c>
       <c r="M223" s="15" t="s">
@@ -14786,7 +14780,7 @@
       <c r="K224" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L224" s="41">
+      <c r="L224" s="40">
         <v>1</v>
       </c>
       <c r="M224" s="15" t="s">
@@ -14828,7 +14822,7 @@
       <c r="K225" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L225" s="41" t="s">
+      <c r="L225" s="40" t="s">
         <v>125</v>
       </c>
       <c r="M225" s="15" t="s">
@@ -14870,7 +14864,7 @@
       <c r="K226" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L226" s="41" t="s">
+      <c r="L226" s="40" t="s">
         <v>125</v>
       </c>
       <c r="M226" s="15" t="s">
@@ -14912,7 +14906,7 @@
       <c r="K227" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L227" s="41" t="s">
+      <c r="L227" s="40" t="s">
         <v>125</v>
       </c>
       <c r="M227" s="15" t="s">
@@ -15213,7 +15207,7 @@
       <c r="K233" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L233" s="41" t="s">
+      <c r="L233" s="40" t="s">
         <v>53</v>
       </c>
       <c r="M233" s="15" t="s">
@@ -15266,7 +15260,7 @@
       <c r="K234" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L234" s="41">
+      <c r="L234" s="40">
         <v>1</v>
       </c>
       <c r="M234" s="15" t="s">
@@ -15319,7 +15313,7 @@
       <c r="K235" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L235" s="41">
+      <c r="L235" s="40">
         <v>1</v>
       </c>
       <c r="M235" s="15" t="s">
@@ -15370,7 +15364,7 @@
       <c r="K236" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="L236" s="41" t="s">
+      <c r="L236" s="40" t="s">
         <v>591</v>
       </c>
       <c r="M236" s="15" t="s">
@@ -15423,7 +15417,7 @@
       <c r="K237" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="L237" s="41" t="s">
+      <c r="L237" s="40" t="s">
         <v>587</v>
       </c>
       <c r="M237" s="15" t="s">
@@ -15469,7 +15463,7 @@
       <c r="K238" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L238" s="41" t="s">
+      <c r="L238" s="40" t="s">
         <v>74</v>
       </c>
       <c r="M238" s="15" t="s">
@@ -15524,7 +15518,7 @@
       <c r="K239" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="L239" s="41" t="s">
+      <c r="L239" s="40" t="s">
         <v>569</v>
       </c>
       <c r="M239" s="15" t="s">
@@ -15566,7 +15560,7 @@
       <c r="K240" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="L240" s="41" t="s">
+      <c r="L240" s="40" t="s">
         <v>569</v>
       </c>
       <c r="M240" s="15" t="s">
@@ -15608,7 +15602,7 @@
       <c r="K241" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="L241" s="41" t="s">
+      <c r="L241" s="40" t="s">
         <v>569</v>
       </c>
       <c r="M241" s="15" t="s">
@@ -15650,7 +15644,7 @@
       <c r="K242" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="L242" s="41" t="s">
+      <c r="L242" s="40" t="s">
         <v>605</v>
       </c>
       <c r="M242" s="15" t="s">
@@ -15692,7 +15686,7 @@
       <c r="K243" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="L243" s="41" t="s">
+      <c r="L243" s="40" t="s">
         <v>605</v>
       </c>
       <c r="M243" s="15" t="s">
@@ -15789,7 +15783,7 @@
       <c r="K245" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L245" s="41">
+      <c r="L245" s="40">
         <v>1</v>
       </c>
       <c r="M245" s="15" t="s">
@@ -15842,7 +15836,7 @@
       <c r="K246" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L246" s="41">
+      <c r="L246" s="40">
         <v>1</v>
       </c>
       <c r="M246" s="15" t="s">
@@ -15884,7 +15878,7 @@
       <c r="K247" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L247" s="41">
+      <c r="L247" s="40">
         <v>1</v>
       </c>
       <c r="M247" s="15" t="s">
@@ -15937,7 +15931,7 @@
       <c r="K248" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L248" s="41">
+      <c r="L248" s="40">
         <v>1</v>
       </c>
       <c r="M248" s="15" t="s">
@@ -15990,7 +15984,7 @@
       <c r="K249" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L249" s="41">
+      <c r="L249" s="40">
         <v>1</v>
       </c>
       <c r="M249" s="15" t="s">
@@ -16043,7 +16037,7 @@
       <c r="K250" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L250" s="41">
+      <c r="L250" s="40">
         <v>1</v>
       </c>
       <c r="M250" s="15" t="s">
@@ -16085,7 +16079,7 @@
       <c r="K251" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L251" s="41" t="s">
+      <c r="L251" s="40" t="s">
         <v>86</v>
       </c>
       <c r="M251" s="15" t="s">
@@ -16140,7 +16134,7 @@
       <c r="K252" s="15" t="s">
         <v>628</v>
       </c>
-      <c r="L252" s="41">
+      <c r="L252" s="40">
         <v>1</v>
       </c>
       <c r="M252" s="15" t="s">
@@ -16193,7 +16187,7 @@
       <c r="K253" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="L253" s="41" t="s">
+      <c r="L253" s="40" t="s">
         <v>86</v>
       </c>
       <c r="M253" s="15" t="s">
@@ -16246,7 +16240,7 @@
       <c r="K254" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="L254" s="41" t="s">
+      <c r="L254" s="40" t="s">
         <v>86</v>
       </c>
       <c r="M254" s="15" t="s">
@@ -16299,7 +16293,7 @@
       <c r="K255" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="L255" s="41">
+      <c r="L255" s="40">
         <v>1</v>
       </c>
       <c r="M255" s="15" t="s">
@@ -16341,7 +16335,7 @@
       <c r="K256" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="L256" s="41">
+      <c r="L256" s="40">
         <v>1</v>
       </c>
       <c r="M256" s="15" t="s">
@@ -16559,7 +16553,7 @@
       <c r="K260" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="L260" s="41">
+      <c r="L260" s="40">
         <v>1</v>
       </c>
       <c r="M260" s="15" t="s">
@@ -16570,7 +16564,7 @@
       <c r="P260" s="15"/>
     </row>
     <row r="261" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A261" s="57" t="s">
+      <c r="A261" s="56" t="s">
         <v>645</v>
       </c>
       <c r="B261" s="2" t="s">
@@ -16601,7 +16595,7 @@
       <c r="K261" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="L261" s="41">
+      <c r="L261" s="40">
         <v>1</v>
       </c>
       <c r="M261" s="15" t="s">
@@ -16654,7 +16648,7 @@
       <c r="K262" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="L262" s="41">
+      <c r="L262" s="40">
         <v>1</v>
       </c>
       <c r="M262" s="15" t="s">
@@ -16696,7 +16690,7 @@
       <c r="K263" s="15" t="s">
         <v>628</v>
       </c>
-      <c r="L263" s="41">
+      <c r="L263" s="40">
         <v>1</v>
       </c>
       <c r="M263" s="15" t="s">
@@ -16738,7 +16732,7 @@
       <c r="K264" s="15" t="s">
         <v>628</v>
       </c>
-      <c r="L264" s="41">
+      <c r="L264" s="40">
         <v>1</v>
       </c>
       <c r="M264" s="15" t="s">
@@ -16892,7 +16886,7 @@
       <c r="K267" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L267" s="41">
+      <c r="L267" s="40">
         <v>1</v>
       </c>
       <c r="M267" s="15" t="s">
@@ -17179,7 +17173,7 @@
       <c r="K273" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L273" s="41" t="s">
+      <c r="L273" s="40" t="s">
         <v>675</v>
       </c>
       <c r="M273" s="15" t="s">
@@ -17221,7 +17215,7 @@
       <c r="K274" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L274" s="41" t="s">
+      <c r="L274" s="40" t="s">
         <v>675</v>
       </c>
       <c r="M274" s="15" t="s">
@@ -17274,7 +17268,7 @@
       <c r="K275" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L275" s="41" t="s">
+      <c r="L275" s="40" t="s">
         <v>675</v>
       </c>
       <c r="M275" s="15" t="s">
@@ -17316,7 +17310,7 @@
       <c r="K276" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L276" s="41" t="s">
+      <c r="L276" s="40" t="s">
         <v>675</v>
       </c>
       <c r="M276" s="15" t="s">
@@ -17369,7 +17363,7 @@
       <c r="K277" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L277" s="41" t="s">
+      <c r="L277" s="40" t="s">
         <v>164</v>
       </c>
       <c r="M277" s="15" t="s">
@@ -17411,7 +17405,7 @@
       <c r="K278" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L278" s="41" t="s">
+      <c r="L278" s="40" t="s">
         <v>164</v>
       </c>
       <c r="M278" s="15" t="s">
@@ -17464,7 +17458,7 @@
       <c r="K279" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L279" s="41" t="s">
+      <c r="L279" s="40" t="s">
         <v>164</v>
       </c>
       <c r="M279" s="15" t="s">
@@ -17506,7 +17500,7 @@
       <c r="K280" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L280" s="41" t="s">
+      <c r="L280" s="40" t="s">
         <v>164</v>
       </c>
       <c r="M280" s="15" t="s">
@@ -17559,7 +17553,7 @@
       <c r="K281" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L281" s="41" t="s">
+      <c r="L281" s="40" t="s">
         <v>49</v>
       </c>
       <c r="M281" s="15" t="s">
@@ -17601,7 +17595,7 @@
       <c r="K282" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L282" s="41" t="s">
+      <c r="L282" s="40" t="s">
         <v>49</v>
       </c>
       <c r="M282" s="15" t="s">
@@ -17654,7 +17648,7 @@
       <c r="K283" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L283" s="41" t="s">
+      <c r="L283" s="40" t="s">
         <v>49</v>
       </c>
       <c r="M283" s="15" t="s">
@@ -17707,7 +17701,7 @@
       <c r="K284" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L284" s="41" t="s">
+      <c r="L284" s="40" t="s">
         <v>698</v>
       </c>
       <c r="M284" s="15" t="s">
@@ -17749,7 +17743,7 @@
       <c r="K285" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L285" s="41" t="s">
+      <c r="L285" s="40" t="s">
         <v>698</v>
       </c>
       <c r="M285" s="15" t="s">
@@ -18022,7 +18016,7 @@
       <c r="K291" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L291" s="41">
+      <c r="L291" s="40">
         <v>1</v>
       </c>
       <c r="M291" s="15" t="s">
@@ -18068,7 +18062,7 @@
       <c r="K292" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="L292" s="41" t="s">
+      <c r="L292" s="40" t="s">
         <v>275</v>
       </c>
       <c r="M292" s="15" t="s">
@@ -18114,7 +18108,7 @@
       <c r="K293" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="L293" s="41" t="s">
+      <c r="L293" s="40" t="s">
         <v>275</v>
       </c>
       <c r="M293" s="15" t="s">
@@ -18171,7 +18165,7 @@
       <c r="K294" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="L294" s="41" t="s">
+      <c r="L294" s="40" t="s">
         <v>275</v>
       </c>
       <c r="M294" s="15" t="s">
@@ -18215,7 +18209,7 @@
       <c r="K295" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L295" s="41" t="s">
+      <c r="L295" s="40" t="s">
         <v>591</v>
       </c>
       <c r="M295" s="15" t="s">
@@ -18257,7 +18251,7 @@
       <c r="K296" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L296" s="41" t="s">
+      <c r="L296" s="40" t="s">
         <v>591</v>
       </c>
       <c r="M296" s="15" t="s">
@@ -18279,340 +18273,340 @@
       <c r="AA296" s="3"/>
     </row>
     <row r="297" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A297" s="38" t="s">
+      <c r="A297" s="37" t="s">
         <v>726</v>
       </c>
-      <c r="B297" s="38" t="s">
+      <c r="B297" s="37" t="s">
         <v>727</v>
       </c>
-      <c r="C297" s="38" t="s">
+      <c r="C297" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="D297" s="38" t="s">
+      <c r="D297" s="37" t="s">
         <v>1122</v>
       </c>
-      <c r="E297" s="38"/>
-      <c r="F297" s="38" t="s">
+      <c r="E297" s="37"/>
+      <c r="F297" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="G297" s="48">
+      <c r="G297" s="47">
         <v>10</v>
       </c>
-      <c r="H297" s="52">
+      <c r="H297" s="51">
         <v>21</v>
       </c>
-      <c r="I297" s="52">
+      <c r="I297" s="51">
         <v>20</v>
       </c>
-      <c r="J297" s="52">
+      <c r="J297" s="51">
         <v>20</v>
       </c>
-      <c r="K297" s="38" t="s">
+      <c r="K297" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="L297" s="55">
+      <c r="L297" s="54">
         <v>1</v>
       </c>
-      <c r="M297" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="N297" s="38"/>
-      <c r="O297" s="38"/>
-      <c r="P297" s="38"/>
+      <c r="M297" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="N297" s="37"/>
+      <c r="O297" s="37"/>
+      <c r="P297" s="37"/>
     </row>
     <row r="298" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A298" s="38" t="s">
+      <c r="A298" s="37" t="s">
         <v>1132</v>
       </c>
-      <c r="B298" s="38" t="s">
+      <c r="B298" s="37" t="s">
         <v>728</v>
       </c>
-      <c r="C298" s="38" t="s">
+      <c r="C298" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="D298" s="38" t="s">
+      <c r="D298" s="37" t="s">
         <v>1122</v>
       </c>
-      <c r="E298" s="38"/>
-      <c r="F298" s="38" t="s">
+      <c r="E298" s="37"/>
+      <c r="F298" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="G298" s="48">
+      <c r="G298" s="47">
         <v>7</v>
       </c>
-      <c r="H298" s="52">
+      <c r="H298" s="51">
         <v>12</v>
       </c>
-      <c r="I298" s="52">
+      <c r="I298" s="51">
         <v>10</v>
       </c>
-      <c r="J298" s="52">
+      <c r="J298" s="51">
         <v>10</v>
       </c>
-      <c r="K298" s="38" t="s">
+      <c r="K298" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="L298" s="55" t="s">
+      <c r="L298" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="M298" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="N298" s="38"/>
-      <c r="O298" s="38"/>
-      <c r="P298" s="38"/>
+      <c r="M298" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="N298" s="37"/>
+      <c r="O298" s="37"/>
+      <c r="P298" s="37"/>
     </row>
     <row r="299" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A299" s="38" t="s">
+      <c r="A299" s="37" t="s">
         <v>1126</v>
       </c>
-      <c r="B299" s="38" t="s">
+      <c r="B299" s="37" t="s">
         <v>729</v>
       </c>
-      <c r="C299" s="38" t="s">
+      <c r="C299" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="D299" s="38" t="s">
+      <c r="D299" s="37" t="s">
         <v>1122</v>
       </c>
-      <c r="E299" s="38"/>
-      <c r="F299" s="38" t="s">
+      <c r="E299" s="37"/>
+      <c r="F299" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="G299" s="48">
+      <c r="G299" s="47">
         <v>3</v>
       </c>
-      <c r="H299" s="52">
+      <c r="H299" s="51">
         <v>6</v>
       </c>
-      <c r="I299" s="52">
+      <c r="I299" s="51">
         <v>5</v>
       </c>
-      <c r="J299" s="52">
+      <c r="J299" s="51">
         <v>5</v>
       </c>
-      <c r="K299" s="38" t="s">
+      <c r="K299" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="L299" s="55" t="s">
+      <c r="L299" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="M299" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="N299" s="38"/>
-      <c r="O299" s="38"/>
-      <c r="P299" s="38"/>
+      <c r="M299" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="N299" s="37"/>
+      <c r="O299" s="37"/>
+      <c r="P299" s="37"/>
     </row>
     <row r="300" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A300" s="38" t="s">
+      <c r="A300" s="37" t="s">
         <v>1131</v>
       </c>
-      <c r="B300" s="38" t="s">
+      <c r="B300" s="37" t="s">
         <v>730</v>
       </c>
-      <c r="C300" s="38" t="s">
+      <c r="C300" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="D300" s="38" t="s">
+      <c r="D300" s="37" t="s">
         <v>1122</v>
       </c>
-      <c r="E300" s="38"/>
-      <c r="F300" s="38" t="s">
+      <c r="E300" s="37"/>
+      <c r="F300" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="G300" s="48">
+      <c r="G300" s="47">
         <v>1</v>
       </c>
-      <c r="H300" s="52">
+      <c r="H300" s="51">
         <v>2</v>
       </c>
-      <c r="I300" s="52">
+      <c r="I300" s="51">
         <v>2</v>
       </c>
-      <c r="J300" s="52">
+      <c r="J300" s="51">
         <v>2</v>
       </c>
-      <c r="K300" s="38" t="s">
+      <c r="K300" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="L300" s="55" t="s">
+      <c r="L300" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="M300" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="N300" s="38"/>
-      <c r="O300" s="38"/>
-      <c r="P300" s="38"/>
+      <c r="M300" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="N300" s="37"/>
+      <c r="O300" s="37"/>
+      <c r="P300" s="37"/>
     </row>
     <row r="301" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A301" s="70" t="s">
+      <c r="A301" s="69" t="s">
         <v>1127</v>
       </c>
-      <c r="B301" s="70" t="s">
+      <c r="B301" s="69" t="s">
         <v>731</v>
       </c>
-      <c r="C301" s="70" t="s">
+      <c r="C301" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="D301" s="38" t="s">
+      <c r="D301" s="37" t="s">
         <v>1122</v>
       </c>
-      <c r="E301" s="70"/>
-      <c r="F301" s="70" t="s">
+      <c r="E301" s="69"/>
+      <c r="F301" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="G301" s="73">
+      <c r="G301" s="71">
         <v>0.5</v>
       </c>
-      <c r="H301" s="76">
+      <c r="H301" s="73">
         <v>1</v>
       </c>
-      <c r="I301" s="76">
+      <c r="I301" s="73">
         <v>1</v>
       </c>
-      <c r="J301" s="76">
+      <c r="J301" s="73">
         <v>1</v>
       </c>
-      <c r="K301" s="70" t="s">
+      <c r="K301" s="69" t="s">
         <v>156</v>
       </c>
-      <c r="L301" s="78" t="s">
+      <c r="L301" s="75" t="s">
         <v>732</v>
       </c>
-      <c r="M301" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="N301" s="70"/>
-      <c r="O301" s="38"/>
-      <c r="P301" s="38"/>
+      <c r="M301" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="N301" s="69"/>
+      <c r="O301" s="37"/>
+      <c r="P301" s="37"/>
     </row>
     <row r="302" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A302" s="38" t="s">
+      <c r="A302" s="37" t="s">
         <v>1118</v>
       </c>
-      <c r="B302" s="70" t="s">
+      <c r="B302" s="69" t="s">
         <v>733</v>
       </c>
-      <c r="C302" s="38" t="s">
+      <c r="C302" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="D302" s="38" t="s">
+      <c r="D302" s="37" t="s">
         <v>1122</v>
       </c>
       <c r="E302" s="15"/>
-      <c r="F302" s="38" t="s">
+      <c r="F302" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="G302" s="48">
+      <c r="G302" s="47">
         <v>0.25</v>
       </c>
-      <c r="H302" s="52">
+      <c r="H302" s="51">
         <v>0.5</v>
       </c>
-      <c r="I302" s="52">
+      <c r="I302" s="51">
         <v>0.5</v>
       </c>
-      <c r="J302" s="52">
+      <c r="J302" s="51">
         <v>0.5</v>
       </c>
-      <c r="K302" s="38" t="s">
+      <c r="K302" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="L302" s="55" t="s">
+      <c r="L302" s="54" t="s">
         <v>734</v>
       </c>
-      <c r="M302" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="N302" s="38"/>
-      <c r="O302" s="38"/>
-      <c r="P302" s="38"/>
+      <c r="M302" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="N302" s="37"/>
+      <c r="O302" s="37"/>
+      <c r="P302" s="37"/>
     </row>
     <row r="303" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A303" s="38" t="s">
+      <c r="A303" s="37" t="s">
         <v>1130</v>
       </c>
-      <c r="B303" s="70" t="s">
+      <c r="B303" s="69" t="s">
         <v>735</v>
       </c>
-      <c r="C303" s="38" t="s">
+      <c r="C303" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="D303" s="38" t="s">
+      <c r="D303" s="37" t="s">
         <v>1123</v>
       </c>
-      <c r="E303" s="38"/>
-      <c r="F303" s="38" t="s">
+      <c r="E303" s="37"/>
+      <c r="F303" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="G303" s="48">
+      <c r="G303" s="47">
         <v>8</v>
       </c>
-      <c r="H303" s="52">
+      <c r="H303" s="51">
         <v>15</v>
       </c>
-      <c r="I303" s="52">
+      <c r="I303" s="51">
         <v>16</v>
       </c>
-      <c r="J303" s="52">
+      <c r="J303" s="51">
         <v>16</v>
       </c>
-      <c r="K303" s="38" t="s">
+      <c r="K303" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="L303" s="55">
+      <c r="L303" s="54">
         <v>1</v>
       </c>
-      <c r="M303" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="N303" s="38"/>
-      <c r="O303" s="38"/>
-      <c r="P303" s="38"/>
+      <c r="M303" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="N303" s="37"/>
+      <c r="O303" s="37"/>
+      <c r="P303" s="37"/>
     </row>
     <row r="304" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A304" s="38" t="s">
+      <c r="A304" s="37" t="s">
         <v>1128</v>
       </c>
-      <c r="B304" s="70" t="s">
+      <c r="B304" s="69" t="s">
         <v>736</v>
       </c>
-      <c r="C304" s="38" t="s">
+      <c r="C304" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="D304" s="38" t="s">
+      <c r="D304" s="37" t="s">
         <v>1123</v>
       </c>
-      <c r="E304" s="38"/>
-      <c r="F304" s="38" t="s">
+      <c r="E304" s="37"/>
+      <c r="F304" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="G304" s="48">
+      <c r="G304" s="47">
         <v>5</v>
       </c>
-      <c r="H304" s="52">
+      <c r="H304" s="51">
         <v>8</v>
       </c>
-      <c r="I304" s="52">
+      <c r="I304" s="51">
         <v>8</v>
       </c>
-      <c r="J304" s="52">
+      <c r="J304" s="51">
         <v>8</v>
       </c>
-      <c r="K304" s="38" t="s">
+      <c r="K304" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="L304" s="55" t="s">
+      <c r="L304" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="M304" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="N304" s="38"/>
-      <c r="O304" s="38"/>
-      <c r="P304" s="38"/>
+      <c r="M304" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="N304" s="37"/>
+      <c r="O304" s="37"/>
+      <c r="P304" s="37"/>
       <c r="Q304" s="3"/>
       <c r="R304" s="3"/>
       <c r="S304" s="3"/>
@@ -18626,130 +18620,130 @@
       <c r="AA304" s="3"/>
     </row>
     <row r="305" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A305" s="38" t="s">
+      <c r="A305" s="37" t="s">
         <v>1121</v>
       </c>
-      <c r="B305" s="70" t="s">
+      <c r="B305" s="69" t="s">
         <v>737</v>
       </c>
-      <c r="C305" s="38" t="s">
+      <c r="C305" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="D305" s="38" t="s">
+      <c r="D305" s="37" t="s">
         <v>1123</v>
       </c>
-      <c r="E305" s="38"/>
-      <c r="F305" s="38" t="s">
+      <c r="E305" s="37"/>
+      <c r="F305" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="G305" s="48">
+      <c r="G305" s="47">
         <v>2</v>
       </c>
-      <c r="H305" s="52">
+      <c r="H305" s="51">
         <v>4</v>
       </c>
-      <c r="I305" s="52">
+      <c r="I305" s="51">
         <v>4</v>
       </c>
-      <c r="J305" s="52">
+      <c r="J305" s="51">
         <v>4</v>
       </c>
-      <c r="K305" s="38" t="s">
+      <c r="K305" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="L305" s="55" t="s">
+      <c r="L305" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="M305" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="N305" s="38"/>
-      <c r="O305" s="38"/>
-      <c r="P305" s="38"/>
+      <c r="M305" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="N305" s="37"/>
+      <c r="O305" s="37"/>
+      <c r="P305" s="37"/>
     </row>
     <row r="306" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A306" s="38" t="s">
+      <c r="A306" s="37" t="s">
         <v>1129</v>
       </c>
-      <c r="B306" s="70" t="s">
+      <c r="B306" s="69" t="s">
         <v>738</v>
       </c>
-      <c r="C306" s="38" t="s">
+      <c r="C306" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="D306" s="38" t="s">
+      <c r="D306" s="37" t="s">
         <v>1123</v>
       </c>
-      <c r="E306" s="38"/>
-      <c r="F306" s="38" t="s">
+      <c r="E306" s="37"/>
+      <c r="F306" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="G306" s="48">
+      <c r="G306" s="47">
         <v>1</v>
       </c>
-      <c r="H306" s="52">
+      <c r="H306" s="51">
         <v>3</v>
       </c>
-      <c r="I306" s="52">
+      <c r="I306" s="51">
         <v>2</v>
       </c>
-      <c r="J306" s="52">
+      <c r="J306" s="51">
         <v>2</v>
       </c>
-      <c r="K306" s="38" t="s">
+      <c r="K306" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="L306" s="55" t="s">
+      <c r="L306" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="M306" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="N306" s="38"/>
-      <c r="O306" s="38"/>
-      <c r="P306" s="38"/>
+      <c r="M306" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="N306" s="37"/>
+      <c r="O306" s="37"/>
+      <c r="P306" s="37"/>
     </row>
     <row r="307" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A307" s="38" t="s">
+      <c r="A307" s="37" t="s">
         <v>1124</v>
       </c>
-      <c r="B307" s="70" t="s">
+      <c r="B307" s="69" t="s">
         <v>739</v>
       </c>
-      <c r="C307" s="38" t="s">
+      <c r="C307" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="D307" s="38" t="s">
+      <c r="D307" s="37" t="s">
         <v>1123</v>
       </c>
-      <c r="E307" s="38"/>
-      <c r="F307" s="38" t="s">
+      <c r="E307" s="37"/>
+      <c r="F307" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="G307" s="48">
+      <c r="G307" s="47">
         <v>0.5</v>
       </c>
-      <c r="H307" s="52">
+      <c r="H307" s="51">
         <v>1</v>
       </c>
-      <c r="I307" s="52">
+      <c r="I307" s="51">
         <v>1</v>
       </c>
-      <c r="J307" s="52">
+      <c r="J307" s="51">
         <v>1</v>
       </c>
-      <c r="K307" s="38" t="s">
+      <c r="K307" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="L307" s="55" t="s">
+      <c r="L307" s="54" t="s">
         <v>732</v>
       </c>
-      <c r="M307" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="N307" s="38"/>
-      <c r="O307" s="38"/>
-      <c r="P307" s="38"/>
+      <c r="M307" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="N307" s="37"/>
+      <c r="O307" s="37"/>
+      <c r="P307" s="37"/>
       <c r="Q307" s="3"/>
       <c r="R307" s="3"/>
       <c r="S307" s="3"/>
@@ -18763,46 +18757,46 @@
       <c r="AA307" s="3"/>
     </row>
     <row r="308" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A308" s="38" t="s">
+      <c r="A308" s="37" t="s">
         <v>1117</v>
       </c>
-      <c r="B308" s="38" t="s">
+      <c r="B308" s="37" t="s">
         <v>740</v>
       </c>
-      <c r="C308" s="38" t="s">
+      <c r="C308" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="D308" s="38" t="s">
+      <c r="D308" s="37" t="s">
         <v>1123</v>
       </c>
       <c r="E308" s="15"/>
-      <c r="F308" s="38" t="s">
+      <c r="F308" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="G308" s="48">
+      <c r="G308" s="47">
         <v>0.25</v>
       </c>
-      <c r="H308" s="52">
+      <c r="H308" s="51">
         <v>0.33</v>
       </c>
-      <c r="I308" s="52">
+      <c r="I308" s="51">
         <v>0.5</v>
       </c>
-      <c r="J308" s="52">
+      <c r="J308" s="51">
         <v>0.5</v>
       </c>
-      <c r="K308" s="38" t="s">
+      <c r="K308" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="L308" s="55" t="s">
+      <c r="L308" s="54" t="s">
         <v>734</v>
       </c>
-      <c r="M308" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="N308" s="38"/>
-      <c r="O308" s="38"/>
-      <c r="P308" s="38"/>
+      <c r="M308" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="N308" s="37"/>
+      <c r="O308" s="37"/>
+      <c r="P308" s="37"/>
     </row>
     <row r="309" spans="1:27" ht="20.25" customHeight="1">
       <c r="A309" s="15" t="s">
@@ -18836,7 +18830,7 @@
       <c r="K309" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="L309" s="41" t="s">
+      <c r="L309" s="40" t="s">
         <v>134</v>
       </c>
       <c r="M309" s="15" t="s">
@@ -18878,7 +18872,7 @@
       <c r="K310" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L310" s="41" t="s">
+      <c r="L310" s="40" t="s">
         <v>746</v>
       </c>
       <c r="M310" s="15" t="s">
@@ -18933,7 +18927,7 @@
       <c r="K311" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L311" s="41" t="s">
+      <c r="L311" s="40" t="s">
         <v>746</v>
       </c>
       <c r="M311" s="15" t="s">
@@ -18988,7 +18982,7 @@
       <c r="K312" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L312" s="41" t="s">
+      <c r="L312" s="40" t="s">
         <v>746</v>
       </c>
       <c r="M312" s="15" t="s">
@@ -19032,7 +19026,7 @@
       <c r="K313" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L313" s="41">
+      <c r="L313" s="40">
         <v>1</v>
       </c>
       <c r="M313" s="15" t="s">
@@ -19076,7 +19070,7 @@
       <c r="K314" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L314" s="41" t="s">
+      <c r="L314" s="40" t="s">
         <v>71</v>
       </c>
       <c r="M314" s="10"/>
@@ -19116,7 +19110,7 @@
       <c r="K315" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L315" s="41" t="s">
+      <c r="L315" s="40" t="s">
         <v>71</v>
       </c>
       <c r="M315" s="15" t="s">
@@ -19259,7 +19253,7 @@
       <c r="K318" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L318" s="42">
+      <c r="L318" s="41">
         <v>1</v>
       </c>
       <c r="M318" s="15" t="s">
@@ -19576,7 +19570,7 @@
       <c r="K325" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L325" s="41">
+      <c r="L325" s="40">
         <v>1</v>
       </c>
       <c r="M325" s="15" t="s">
@@ -19618,7 +19612,7 @@
       <c r="K326" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L326" s="41">
+      <c r="L326" s="40">
         <v>1</v>
       </c>
       <c r="M326" s="15" t="s">
@@ -19669,7 +19663,7 @@
       <c r="K327" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L327" s="41">
+      <c r="L327" s="40">
         <v>1</v>
       </c>
       <c r="M327" s="15" t="s">
@@ -19709,7 +19703,7 @@
       <c r="K328" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L328" s="41">
+      <c r="L328" s="40">
         <v>1</v>
       </c>
       <c r="M328" s="15" t="s">
@@ -19749,7 +19743,7 @@
       <c r="K329" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L329" s="41">
+      <c r="L329" s="40">
         <v>1</v>
       </c>
       <c r="M329" s="15" t="s">
@@ -19800,7 +19794,7 @@
       <c r="K330" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L330" s="41">
+      <c r="L330" s="40">
         <v>1</v>
       </c>
       <c r="M330" s="15" t="s">
@@ -20018,7 +20012,7 @@
       <c r="K335" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L335" s="42">
+      <c r="L335" s="41">
         <v>1</v>
       </c>
       <c r="M335" s="15" t="s">
@@ -20050,7 +20044,7 @@
       <c r="K336" s="15" t="s">
         <v>806</v>
       </c>
-      <c r="L336" s="41">
+      <c r="L336" s="40">
         <v>1</v>
       </c>
       <c r="M336" s="15" t="s">
@@ -20094,7 +20088,7 @@
       <c r="K337" s="15" t="s">
         <v>806</v>
       </c>
-      <c r="L337" s="41">
+      <c r="L337" s="40">
         <v>1</v>
       </c>
       <c r="M337" s="15" t="s">
@@ -20138,7 +20132,7 @@
       <c r="K338" s="15" t="s">
         <v>806</v>
       </c>
-      <c r="L338" s="41">
+      <c r="L338" s="40">
         <v>1</v>
       </c>
       <c r="M338" s="15" t="s">
@@ -20182,7 +20176,7 @@
       <c r="K339" s="15" t="s">
         <v>806</v>
       </c>
-      <c r="L339" s="41">
+      <c r="L339" s="40">
         <v>1</v>
       </c>
       <c r="M339" s="15" t="s">
@@ -20226,7 +20220,7 @@
       <c r="K340" s="15" t="s">
         <v>806</v>
       </c>
-      <c r="L340" s="41">
+      <c r="L340" s="40">
         <v>1</v>
       </c>
       <c r="M340" s="15" t="s">
@@ -20270,7 +20264,7 @@
       <c r="K341" s="15" t="s">
         <v>806</v>
       </c>
-      <c r="L341" s="41">
+      <c r="L341" s="40">
         <v>1</v>
       </c>
       <c r="M341" s="15" t="s">
@@ -20325,7 +20319,7 @@
       <c r="K342" s="15" t="s">
         <v>806</v>
       </c>
-      <c r="L342" s="41">
+      <c r="L342" s="40">
         <v>1</v>
       </c>
       <c r="M342" s="15" t="s">
@@ -20369,7 +20363,7 @@
       <c r="K343" s="15" t="s">
         <v>823</v>
       </c>
-      <c r="L343" s="41">
+      <c r="L343" s="40">
         <v>1</v>
       </c>
       <c r="M343" s="15" t="s">
@@ -20415,7 +20409,7 @@
       <c r="K344" s="15" t="s">
         <v>823</v>
       </c>
-      <c r="L344" s="41">
+      <c r="L344" s="40">
         <v>1</v>
       </c>
       <c r="M344" s="15" t="s">
@@ -20472,7 +20466,7 @@
       <c r="K345" s="15" t="s">
         <v>823</v>
       </c>
-      <c r="L345" s="41">
+      <c r="L345" s="40">
         <v>1</v>
       </c>
       <c r="M345" s="15" t="s">
@@ -20529,7 +20523,7 @@
       <c r="K346" s="15" t="s">
         <v>823</v>
       </c>
-      <c r="L346" s="41">
+      <c r="L346" s="40">
         <v>1</v>
       </c>
       <c r="M346" s="15" t="s">
@@ -20575,7 +20569,7 @@
       <c r="K347" s="15" t="s">
         <v>823</v>
       </c>
-      <c r="L347" s="41">
+      <c r="L347" s="40">
         <v>1</v>
       </c>
       <c r="M347" s="15" t="s">
@@ -20632,7 +20626,7 @@
       <c r="K348" s="15" t="s">
         <v>823</v>
       </c>
-      <c r="L348" s="41">
+      <c r="L348" s="40">
         <v>1</v>
       </c>
       <c r="M348" s="15" t="s">
@@ -20689,7 +20683,7 @@
       <c r="K349" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L349" s="41" t="s">
+      <c r="L349" s="40" t="s">
         <v>120</v>
       </c>
       <c r="M349" s="15" t="s">
@@ -20733,7 +20727,7 @@
       <c r="K350" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L350" s="41" t="s">
+      <c r="L350" s="40" t="s">
         <v>120</v>
       </c>
       <c r="M350" s="15" t="s">
@@ -20777,7 +20771,7 @@
       <c r="K351" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L351" s="41" t="s">
+      <c r="L351" s="40" t="s">
         <v>120</v>
       </c>
       <c r="M351" s="15" t="s">
@@ -20821,7 +20815,7 @@
       <c r="K352" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L352" s="41" t="s">
+      <c r="L352" s="40" t="s">
         <v>120</v>
       </c>
       <c r="M352" s="15" t="s">
@@ -20865,7 +20859,7 @@
       <c r="K353" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L353" s="41" t="s">
+      <c r="L353" s="40" t="s">
         <v>120</v>
       </c>
       <c r="M353" s="15" t="s">
@@ -20953,7 +20947,7 @@
       <c r="K355" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L355" s="41">
+      <c r="L355" s="40">
         <v>1</v>
       </c>
       <c r="M355" s="15" t="s">
@@ -20997,7 +20991,7 @@
       <c r="K356" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L356" s="41">
+      <c r="L356" s="40">
         <v>1</v>
       </c>
       <c r="M356" s="15" t="s">
@@ -21039,7 +21033,7 @@
       <c r="K357" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="L357" s="41" t="s">
+      <c r="L357" s="40" t="s">
         <v>71</v>
       </c>
       <c r="M357" s="15" t="s">
@@ -21167,7 +21161,7 @@
       <c r="K360" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L360" s="41">
+      <c r="L360" s="40">
         <v>1</v>
       </c>
       <c r="M360" s="15" t="s">
@@ -21209,7 +21203,7 @@
       <c r="K361" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L361" s="41">
+      <c r="L361" s="40">
         <v>1</v>
       </c>
       <c r="M361" s="15" t="s">
@@ -21218,17 +21212,17 @@
       <c r="N361" s="15"/>
       <c r="O361" s="15"/>
       <c r="P361" s="15"/>
-      <c r="Q361" s="34"/>
-      <c r="R361" s="34"/>
-      <c r="S361" s="34"/>
-      <c r="T361" s="34"/>
-      <c r="U361" s="34"/>
-      <c r="V361" s="34"/>
-      <c r="W361" s="34"/>
-      <c r="X361" s="34"/>
-      <c r="Y361" s="34"/>
-      <c r="Z361" s="34"/>
-      <c r="AA361" s="34"/>
+      <c r="Q361" s="33"/>
+      <c r="R361" s="33"/>
+      <c r="S361" s="33"/>
+      <c r="T361" s="33"/>
+      <c r="U361" s="33"/>
+      <c r="V361" s="33"/>
+      <c r="W361" s="33"/>
+      <c r="X361" s="33"/>
+      <c r="Y361" s="33"/>
+      <c r="Z361" s="33"/>
+      <c r="AA361" s="33"/>
     </row>
     <row r="362" spans="1:27" ht="20.25" customHeight="1">
       <c r="A362" s="2" t="s">
@@ -21264,7 +21258,7 @@
       <c r="K362" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L362" s="41">
+      <c r="L362" s="40">
         <v>1</v>
       </c>
       <c r="M362" s="15" t="s">
@@ -21319,7 +21313,7 @@
       <c r="K363" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L363" s="41">
+      <c r="L363" s="40">
         <v>1</v>
       </c>
       <c r="M363" s="15" t="s">
@@ -21374,7 +21368,7 @@
       <c r="K364" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L364" s="41">
+      <c r="L364" s="40">
         <v>1</v>
       </c>
       <c r="M364" s="15" t="s">
@@ -21429,7 +21423,7 @@
       <c r="K365" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L365" s="41">
+      <c r="L365" s="40">
         <v>1</v>
       </c>
       <c r="M365" s="15" t="s">
@@ -21669,7 +21663,7 @@
       <c r="K370" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="L370" s="41" t="s">
+      <c r="L370" s="40" t="s">
         <v>885</v>
       </c>
       <c r="M370" s="15" t="s">
@@ -21779,7 +21773,7 @@
       <c r="K372" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L372" s="41" t="s">
+      <c r="L372" s="40" t="s">
         <v>86</v>
       </c>
       <c r="M372" s="15" t="s">
@@ -21832,7 +21826,7 @@
       <c r="K373" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L373" s="41" t="s">
+      <c r="L373" s="40" t="s">
         <v>86</v>
       </c>
       <c r="M373" s="15" t="s">
@@ -21887,7 +21881,7 @@
       <c r="K374" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L374" s="41" t="s">
+      <c r="L374" s="40" t="s">
         <v>898</v>
       </c>
       <c r="M374" s="15" t="s">
@@ -21942,7 +21936,7 @@
       <c r="K375" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L375" s="41" t="s">
+      <c r="L375" s="40" t="s">
         <v>898</v>
       </c>
       <c r="M375" s="15" t="s">
@@ -21995,7 +21989,7 @@
       <c r="K376" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="L376" s="41" t="s">
+      <c r="L376" s="40" t="s">
         <v>83</v>
       </c>
       <c r="M376" s="15" t="s">
@@ -22048,7 +22042,7 @@
       <c r="K377" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="L377" s="41" t="s">
+      <c r="L377" s="40" t="s">
         <v>83</v>
       </c>
       <c r="M377" s="15" t="s">
@@ -22101,7 +22095,7 @@
       <c r="K378" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="L378" s="41" t="s">
+      <c r="L378" s="40" t="s">
         <v>83</v>
       </c>
       <c r="M378" s="15" t="s">
@@ -22266,7 +22260,7 @@
       <c r="K381" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L381" s="41">
+      <c r="L381" s="40">
         <v>1</v>
       </c>
       <c r="M381" s="15" t="s">
@@ -22398,48 +22392,48 @@
       <c r="AA383" s="4"/>
     </row>
     <row r="384" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A384" s="38" t="s">
+      <c r="A384" s="37" t="s">
         <v>1133</v>
       </c>
-      <c r="B384" s="38" t="s">
+      <c r="B384" s="37" t="s">
         <v>1134</v>
       </c>
-      <c r="C384" s="38" t="s">
+      <c r="C384" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D384" s="38" t="s">
+      <c r="D384" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E384" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="F384" s="38" t="s">
+      <c r="E384" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F384" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="G384" s="48">
+      <c r="G384" s="47">
         <v>6</v>
       </c>
-      <c r="H384" s="52">
+      <c r="H384" s="51">
         <v>3</v>
       </c>
-      <c r="I384" s="52">
+      <c r="I384" s="51">
         <v>1</v>
       </c>
-      <c r="J384" s="52">
+      <c r="J384" s="51">
         <v>1</v>
       </c>
-      <c r="K384" s="38" t="s">
+      <c r="K384" s="37" t="s">
         <v>31</v>
       </c>
       <c r="L384" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="M384" s="38" t="s">
+      <c r="M384" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="N384" s="38"/>
-      <c r="O384" s="38"/>
-      <c r="P384" s="38"/>
+      <c r="N384" s="37"/>
+      <c r="O384" s="37"/>
+      <c r="P384" s="37"/>
       <c r="Q384" s="4"/>
       <c r="R384" s="4"/>
       <c r="S384" s="4"/>
@@ -22783,22 +22777,22 @@
       <c r="AA390" s="4"/>
     </row>
     <row r="391" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A391" s="36" t="s">
+      <c r="A391" s="35" t="s">
         <v>931</v>
       </c>
-      <c r="B391" s="36" t="s">
+      <c r="B391" s="35" t="s">
         <v>932</v>
       </c>
       <c r="C391" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D391" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E391" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="F391" s="36" t="s">
+      <c r="D391" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E391" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F391" s="35" t="s">
         <v>52</v>
       </c>
       <c r="G391" s="28">
@@ -22813,18 +22807,18 @@
       <c r="J391" s="29">
         <v>2</v>
       </c>
-      <c r="K391" s="36" t="s">
+      <c r="K391" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="L391" s="43" t="s">
+      <c r="L391" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="M391" s="36" t="s">
+      <c r="M391" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="N391" s="36"/>
-      <c r="O391" s="36"/>
-      <c r="P391" s="36"/>
+      <c r="N391" s="35"/>
+      <c r="O391" s="35"/>
+      <c r="P391" s="35"/>
       <c r="Q391" s="4"/>
       <c r="R391" s="4"/>
       <c r="S391" s="4"/>
@@ -22838,19 +22832,19 @@
       <c r="AA391" s="4"/>
     </row>
     <row r="392" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A392" s="36" t="s">
+      <c r="A392" s="35" t="s">
         <v>933</v>
       </c>
       <c r="B392" s="21" t="s">
         <v>934</v>
       </c>
-      <c r="C392" s="36" t="s">
+      <c r="C392" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D392" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E392" s="36" t="s">
+      <c r="D392" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E392" s="35" t="s">
         <v>18</v>
       </c>
       <c r="F392" s="15" t="s">
@@ -22868,18 +22862,18 @@
       <c r="J392" s="29">
         <v>1</v>
       </c>
-      <c r="K392" s="36" t="s">
+      <c r="K392" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="L392" s="43" t="s">
+      <c r="L392" s="42" t="s">
         <v>935</v>
       </c>
-      <c r="M392" s="36" t="s">
+      <c r="M392" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="N392" s="36"/>
-      <c r="O392" s="36"/>
-      <c r="P392" s="36"/>
+      <c r="N392" s="35"/>
+      <c r="O392" s="35"/>
+      <c r="P392" s="35"/>
       <c r="Q392" s="1"/>
       <c r="R392" s="1"/>
       <c r="S392" s="1"/>
@@ -22926,7 +22920,7 @@
       <c r="K393" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L393" s="41" t="s">
+      <c r="L393" s="40" t="s">
         <v>935</v>
       </c>
       <c r="M393" s="15" t="s">
@@ -22979,7 +22973,7 @@
       <c r="K394" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L394" s="41" t="s">
+      <c r="L394" s="40" t="s">
         <v>25</v>
       </c>
       <c r="M394" s="15" t="s">
@@ -23009,14 +23003,14 @@
       <c r="B395" s="21" t="s">
         <v>942</v>
       </c>
-      <c r="C395" s="36" t="s">
+      <c r="C395" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D395" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E395" s="36"/>
-      <c r="F395" s="36" t="s">
+      <c r="D395" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E395" s="35"/>
+      <c r="F395" s="35" t="s">
         <v>27</v>
       </c>
       <c r="G395" s="28">
@@ -23031,20 +23025,20 @@
       <c r="J395" s="29">
         <v>21</v>
       </c>
-      <c r="K395" s="36" t="s">
+      <c r="K395" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="L395" s="43" t="s">
+      <c r="L395" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="M395" s="36" t="s">
+      <c r="M395" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="N395" s="36" t="s">
+      <c r="N395" s="35" t="s">
         <v>940</v>
       </c>
-      <c r="O395" s="36"/>
-      <c r="P395" s="36"/>
+      <c r="O395" s="35"/>
+      <c r="P395" s="35"/>
       <c r="Q395" s="4"/>
       <c r="R395" s="4"/>
       <c r="S395" s="4"/>
@@ -23058,20 +23052,20 @@
       <c r="AA395" s="4"/>
     </row>
     <row r="396" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A396" s="36" t="s">
+      <c r="A396" s="35" t="s">
         <v>943</v>
       </c>
       <c r="B396" s="21" t="s">
         <v>944</v>
       </c>
-      <c r="C396" s="36" t="s">
+      <c r="C396" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D396" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E396" s="36"/>
-      <c r="F396" s="36" t="s">
+      <c r="D396" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E396" s="35"/>
+      <c r="F396" s="35" t="s">
         <v>27</v>
       </c>
       <c r="G396" s="28">
@@ -23086,20 +23080,20 @@
       <c r="J396" s="29">
         <v>24</v>
       </c>
-      <c r="K396" s="36" t="s">
+      <c r="K396" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="L396" s="43" t="s">
+      <c r="L396" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="M396" s="36" t="s">
+      <c r="M396" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="N396" s="36" t="s">
+      <c r="N396" s="35" t="s">
         <v>940</v>
       </c>
-      <c r="O396" s="36"/>
-      <c r="P396" s="36"/>
+      <c r="O396" s="35"/>
+      <c r="P396" s="35"/>
       <c r="Q396" s="4"/>
       <c r="R396" s="4"/>
       <c r="S396" s="4"/>
@@ -23144,7 +23138,7 @@
       <c r="K397" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L397" s="41" t="s">
+      <c r="L397" s="40" t="s">
         <v>25</v>
       </c>
       <c r="M397" s="15" t="s">
@@ -23168,48 +23162,48 @@
       <c r="AA397" s="4"/>
     </row>
     <row r="398" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A398" s="63" t="s">
+      <c r="A398" s="62" t="s">
         <v>1138</v>
       </c>
-      <c r="B398" s="63" t="s">
+      <c r="B398" s="62" t="s">
         <v>1139</v>
       </c>
-      <c r="C398" s="63" t="s">
+      <c r="C398" s="62" t="s">
         <v>260</v>
       </c>
-      <c r="D398" s="63" t="s">
+      <c r="D398" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="E398" s="63" t="s">
+      <c r="E398" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="F398" s="63" t="s">
+      <c r="F398" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="G398" s="64">
+      <c r="G398" s="63">
         <v>7</v>
       </c>
-      <c r="H398" s="64">
+      <c r="H398" s="63">
         <v>9</v>
       </c>
-      <c r="I398" s="64">
+      <c r="I398" s="63">
         <v>9</v>
       </c>
-      <c r="J398" s="64">
+      <c r="J398" s="63">
         <v>9</v>
       </c>
-      <c r="K398" s="63" t="s">
+      <c r="K398" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="L398" s="77" t="s">
+      <c r="L398" s="74" t="s">
         <v>1144</v>
       </c>
-      <c r="M398" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="N398" s="63"/>
-      <c r="O398" s="63"/>
-      <c r="P398" s="63"/>
+      <c r="M398" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="N398" s="62"/>
+      <c r="O398" s="62"/>
+      <c r="P398" s="62"/>
       <c r="Q398" s="1"/>
       <c r="R398" s="1"/>
       <c r="S398" s="1"/>
@@ -23223,48 +23217,48 @@
       <c r="AA398" s="1"/>
     </row>
     <row r="399" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A399" s="63" t="s">
+      <c r="A399" s="62" t="s">
         <v>1140</v>
       </c>
-      <c r="B399" s="63" t="s">
+      <c r="B399" s="62" t="s">
         <v>1141</v>
       </c>
-      <c r="C399" s="63" t="s">
+      <c r="C399" s="62" t="s">
         <v>260</v>
       </c>
-      <c r="D399" s="63" t="s">
+      <c r="D399" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="E399" s="63" t="s">
+      <c r="E399" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="F399" s="63" t="s">
+      <c r="F399" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="G399" s="64">
+      <c r="G399" s="63">
         <v>12</v>
       </c>
-      <c r="H399" s="64">
+      <c r="H399" s="63">
         <v>13</v>
       </c>
-      <c r="I399" s="64">
+      <c r="I399" s="63">
         <v>14</v>
       </c>
-      <c r="J399" s="64">
+      <c r="J399" s="63">
         <v>14</v>
       </c>
-      <c r="K399" s="63" t="s">
+      <c r="K399" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="L399" s="77" t="s">
+      <c r="L399" s="74" t="s">
         <v>1144</v>
       </c>
-      <c r="M399" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="N399" s="63"/>
-      <c r="O399" s="63"/>
-      <c r="P399" s="63"/>
+      <c r="M399" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="N399" s="62"/>
+      <c r="O399" s="62"/>
+      <c r="P399" s="62"/>
       <c r="Q399" s="4"/>
       <c r="R399" s="4"/>
       <c r="S399" s="4"/>
@@ -23278,48 +23272,48 @@
       <c r="AA399" s="4"/>
     </row>
     <row r="400" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A400" s="63" t="s">
+      <c r="A400" s="62" t="s">
         <v>1142</v>
       </c>
-      <c r="B400" s="63" t="s">
+      <c r="B400" s="62" t="s">
         <v>1143</v>
       </c>
-      <c r="C400" s="63" t="s">
+      <c r="C400" s="62" t="s">
         <v>260</v>
       </c>
-      <c r="D400" s="63" t="s">
+      <c r="D400" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="E400" s="63" t="s">
+      <c r="E400" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="F400" s="63" t="s">
+      <c r="F400" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="G400" s="64">
+      <c r="G400" s="63">
         <v>14</v>
       </c>
-      <c r="H400" s="64">
+      <c r="H400" s="63">
         <v>14</v>
       </c>
-      <c r="I400" s="64">
+      <c r="I400" s="63">
         <v>16</v>
       </c>
-      <c r="J400" s="64">
+      <c r="J400" s="63">
         <v>16</v>
       </c>
-      <c r="K400" s="63" t="s">
+      <c r="K400" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="L400" s="77" t="s">
+      <c r="L400" s="74" t="s">
         <v>1144</v>
       </c>
-      <c r="M400" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="N400" s="63"/>
-      <c r="O400" s="63"/>
-      <c r="P400" s="63"/>
+      <c r="M400" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="N400" s="62"/>
+      <c r="O400" s="62"/>
+      <c r="P400" s="62"/>
       <c r="Q400" s="1"/>
       <c r="R400" s="1"/>
       <c r="S400" s="1"/>
@@ -23333,48 +23327,48 @@
       <c r="AA400" s="1"/>
     </row>
     <row r="401" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A401" s="63" t="s">
+      <c r="A401" s="62" t="s">
         <v>1136</v>
       </c>
-      <c r="B401" s="63" t="s">
+      <c r="B401" s="62" t="s">
         <v>1137</v>
       </c>
-      <c r="C401" s="63" t="s">
+      <c r="C401" s="62" t="s">
         <v>260</v>
       </c>
-      <c r="D401" s="63" t="s">
+      <c r="D401" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="E401" s="63" t="s">
+      <c r="E401" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="F401" s="63" t="s">
+      <c r="F401" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="G401" s="64">
+      <c r="G401" s="63">
         <v>2</v>
       </c>
-      <c r="H401" s="64">
+      <c r="H401" s="63">
         <v>5</v>
       </c>
-      <c r="I401" s="64">
+      <c r="I401" s="63">
         <v>4</v>
       </c>
-      <c r="J401" s="64">
+      <c r="J401" s="63">
         <v>4</v>
       </c>
-      <c r="K401" s="63" t="s">
+      <c r="K401" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="L401" s="77" t="s">
+      <c r="L401" s="74" t="s">
         <v>1144</v>
       </c>
-      <c r="M401" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="N401" s="63"/>
-      <c r="O401" s="63"/>
-      <c r="P401" s="63"/>
+      <c r="M401" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="N401" s="62"/>
+      <c r="O401" s="62"/>
+      <c r="P401" s="62"/>
       <c r="Q401" s="4"/>
       <c r="R401" s="4"/>
       <c r="S401" s="4"/>
@@ -23877,22 +23871,22 @@
       <c r="AA410" s="4"/>
     </row>
     <row r="411" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A411" s="36" t="s">
+      <c r="A411" s="35" t="s">
         <v>967</v>
       </c>
-      <c r="B411" s="36" t="s">
+      <c r="B411" s="35" t="s">
         <v>968</v>
       </c>
-      <c r="C411" s="36" t="s">
+      <c r="C411" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D411" s="36" t="s">
+      <c r="D411" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="E411" s="36" t="s">
+      <c r="E411" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="F411" s="36" t="s">
+      <c r="F411" s="35" t="s">
         <v>52</v>
       </c>
       <c r="G411" s="28">
@@ -23907,18 +23901,18 @@
       <c r="J411" s="29">
         <v>35</v>
       </c>
-      <c r="K411" s="36" t="s">
+      <c r="K411" s="35" t="s">
         <v>31</v>
       </c>
       <c r="L411" s="10" t="s">
         <v>958</v>
       </c>
-      <c r="M411" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="N411" s="36"/>
-      <c r="O411" s="37"/>
-      <c r="P411" s="37"/>
+      <c r="M411" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="N411" s="35"/>
+      <c r="O411" s="36"/>
+      <c r="P411" s="36"/>
       <c r="Q411" s="1"/>
       <c r="R411" s="1"/>
       <c r="S411" s="1"/>
@@ -23932,48 +23926,48 @@
       <c r="AA411" s="1"/>
     </row>
     <row r="412" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A412" s="63" t="s">
+      <c r="A412" s="62" t="s">
         <v>1145</v>
       </c>
-      <c r="B412" s="63" t="s">
+      <c r="B412" s="62" t="s">
         <v>1146</v>
       </c>
-      <c r="C412" s="63" t="s">
+      <c r="C412" s="62" t="s">
         <v>1147</v>
       </c>
-      <c r="D412" s="63" t="s">
+      <c r="D412" s="62" t="s">
         <v>1148</v>
       </c>
-      <c r="E412" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="F412" s="63" t="s">
+      <c r="E412" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="F412" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="G412" s="64">
+      <c r="G412" s="63">
         <v>1</v>
       </c>
-      <c r="H412" s="64">
+      <c r="H412" s="63">
         <v>3</v>
       </c>
-      <c r="I412" s="64">
+      <c r="I412" s="63">
         <v>3</v>
       </c>
-      <c r="J412" s="64">
+      <c r="J412" s="63">
         <v>3</v>
       </c>
-      <c r="K412" s="63" t="s">
+      <c r="K412" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="L412" s="63" t="s">
+      <c r="L412" s="62" t="s">
         <v>1149</v>
       </c>
-      <c r="M412" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="N412" s="63"/>
-      <c r="O412" s="63"/>
-      <c r="P412" s="63"/>
+      <c r="M412" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="N412" s="62"/>
+      <c r="O412" s="62"/>
+      <c r="P412" s="62"/>
       <c r="Q412" s="1"/>
       <c r="R412" s="1"/>
       <c r="S412" s="1"/>
@@ -23987,48 +23981,48 @@
       <c r="AA412" s="1"/>
     </row>
     <row r="413" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A413" s="63" t="s">
+      <c r="A413" s="62" t="s">
         <v>1150</v>
       </c>
-      <c r="B413" s="63" t="s">
+      <c r="B413" s="62" t="s">
         <v>1151</v>
       </c>
-      <c r="C413" s="63" t="s">
+      <c r="C413" s="62" t="s">
         <v>1147</v>
       </c>
-      <c r="D413" s="63" t="s">
+      <c r="D413" s="62" t="s">
         <v>1148</v>
       </c>
-      <c r="E413" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="F413" s="63" t="s">
+      <c r="E413" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="F413" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="G413" s="64">
+      <c r="G413" s="63">
         <v>7</v>
       </c>
-      <c r="H413" s="64">
+      <c r="H413" s="63">
         <v>7</v>
       </c>
-      <c r="I413" s="64">
+      <c r="I413" s="63">
         <v>7</v>
       </c>
-      <c r="J413" s="64">
+      <c r="J413" s="63">
         <v>7</v>
       </c>
-      <c r="K413" s="63" t="s">
+      <c r="K413" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="L413" s="80" t="s">
+      <c r="L413" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="M413" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="N413" s="63"/>
-      <c r="O413" s="63"/>
-      <c r="P413" s="63"/>
+      <c r="M413" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="N413" s="62"/>
+      <c r="O413" s="62"/>
+      <c r="P413" s="62"/>
       <c r="Q413" s="4"/>
       <c r="R413" s="4"/>
       <c r="S413" s="4"/>
@@ -24075,7 +24069,7 @@
       <c r="K414" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L414" s="41">
+      <c r="L414" s="40">
         <v>1</v>
       </c>
       <c r="M414" s="15" t="s">
@@ -24130,7 +24124,7 @@
       <c r="K415" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L415" s="41">
+      <c r="L415" s="40">
         <v>1</v>
       </c>
       <c r="M415" s="15" t="s">
@@ -24185,7 +24179,7 @@
       <c r="K416" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L416" s="41">
+      <c r="L416" s="40">
         <v>1</v>
       </c>
       <c r="M416" s="15" t="s">
@@ -24210,7 +24204,7 @@
       <c r="A417" s="15" t="s">
         <v>976</v>
       </c>
-      <c r="B417" s="15" t="s">
+      <c r="B417" s="2" t="s">
         <v>977</v>
       </c>
       <c r="C417" s="15" t="s">
@@ -24240,7 +24234,7 @@
       <c r="K417" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L417" s="41">
+      <c r="L417" s="40">
         <v>1</v>
       </c>
       <c r="M417" s="15" t="s">
@@ -24295,7 +24289,7 @@
       <c r="K418" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L418" s="41">
+      <c r="L418" s="40">
         <v>1</v>
       </c>
       <c r="M418" s="15" t="s">
@@ -24350,7 +24344,7 @@
       <c r="K419" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L419" s="41">
+      <c r="L419" s="40">
         <v>1</v>
       </c>
       <c r="M419" s="15" t="s">
@@ -24405,7 +24399,7 @@
       <c r="K420" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L420" s="41">
+      <c r="L420" s="40">
         <v>1</v>
       </c>
       <c r="M420" s="15" t="s">
@@ -24460,7 +24454,7 @@
       <c r="K421" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L421" s="41">
+      <c r="L421" s="40">
         <v>1</v>
       </c>
       <c r="M421" s="15" t="s">
@@ -24501,7 +24495,7 @@
       <c r="I422" s="15"/>
       <c r="J422" s="15"/>
       <c r="K422" s="15"/>
-      <c r="L422" s="41"/>
+      <c r="L422" s="40"/>
       <c r="M422" s="15" t="s">
         <v>26</v>
       </c>
@@ -24546,7 +24540,7 @@
       <c r="K423" s="15" t="s">
         <v>823</v>
       </c>
-      <c r="L423" s="41">
+      <c r="L423" s="40">
         <v>1</v>
       </c>
       <c r="M423" s="15" t="s">
@@ -25022,7 +25016,7 @@
       <c r="F432" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G432" s="35">
+      <c r="G432" s="34">
         <v>7</v>
       </c>
       <c r="H432" s="21">
@@ -25077,7 +25071,7 @@
       <c r="F433" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G433" s="35">
+      <c r="G433" s="34">
         <v>10</v>
       </c>
       <c r="H433" s="21">
@@ -25114,48 +25108,48 @@
       <c r="AA433" s="4"/>
     </row>
     <row r="434" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A434" s="36" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B434" s="36" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C434" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="D434" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E434" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="F434" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="G434" s="72">
-        <v>30</v>
-      </c>
-      <c r="H434" s="29">
-        <v>30</v>
-      </c>
-      <c r="I434" s="29">
-        <v>30</v>
-      </c>
-      <c r="J434" s="29">
-        <v>30</v>
-      </c>
-      <c r="K434" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="L434" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="M434" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="N434" s="36"/>
-      <c r="O434" s="36"/>
-      <c r="P434" s="36"/>
+      <c r="A434" s="62" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B434" s="62" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C434" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="D434" s="62" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E434" s="62" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F434" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="G434" s="80">
+        <v>4</v>
+      </c>
+      <c r="H434" s="63">
+        <v>8</v>
+      </c>
+      <c r="I434" s="63">
+        <v>7</v>
+      </c>
+      <c r="J434" s="63">
+        <v>7</v>
+      </c>
+      <c r="K434" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="L434" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="M434" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="N434" s="62"/>
+      <c r="O434" s="62"/>
+      <c r="P434" s="62"/>
       <c r="Q434" s="4"/>
       <c r="R434" s="4"/>
       <c r="S434" s="4"/>
@@ -25169,48 +25163,48 @@
       <c r="AA434" s="4"/>
     </row>
     <row r="435" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A435" s="19" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B435" s="19" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C435" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="D435" s="19" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E435" s="19" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F435" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G435" s="74">
-        <v>9</v>
-      </c>
-      <c r="H435" s="19">
+      <c r="A435" s="62" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B435" s="62" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C435" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="D435" s="62" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E435" s="62" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F435" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="G435" s="80">
+        <v>6</v>
+      </c>
+      <c r="H435" s="63">
+        <v>11</v>
+      </c>
+      <c r="I435" s="63">
         <v>10</v>
       </c>
-      <c r="I435" s="19">
-        <v>7</v>
-      </c>
-      <c r="J435" s="19">
-        <v>7</v>
-      </c>
-      <c r="K435" s="19" t="s">
+      <c r="J435" s="63">
+        <v>10</v>
+      </c>
+      <c r="K435" s="62" t="s">
         <v>31</v>
       </c>
       <c r="L435" s="81" t="s">
-        <v>111</v>
-      </c>
-      <c r="M435" s="81" t="s">
-        <v>54</v>
-      </c>
-      <c r="N435" s="19"/>
-      <c r="O435" s="19"/>
-      <c r="P435" s="19"/>
+        <v>88</v>
+      </c>
+      <c r="M435" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="N435" s="62"/>
+      <c r="O435" s="62"/>
+      <c r="P435" s="62"/>
       <c r="Q435" s="4"/>
       <c r="R435" s="4"/>
       <c r="S435" s="4"/>
@@ -25224,48 +25218,48 @@
       <c r="AA435" s="4"/>
     </row>
     <row r="436" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A436" s="21" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B436" s="21" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C436" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D436" s="21" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E436" s="21" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F436" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G436" s="35">
-        <v>11</v>
-      </c>
-      <c r="H436" s="21">
+      <c r="A436" s="62" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B436" s="62" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C436" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="D436" s="62" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E436" s="62" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F436" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="G436" s="80">
+        <v>8</v>
+      </c>
+      <c r="H436" s="63">
+        <v>15</v>
+      </c>
+      <c r="I436" s="63">
         <v>14</v>
       </c>
-      <c r="I436" s="21">
-        <v>12</v>
-      </c>
-      <c r="J436" s="21">
-        <v>12</v>
-      </c>
-      <c r="K436" s="21" t="s">
+      <c r="J436" s="63">
+        <v>14</v>
+      </c>
+      <c r="K436" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="L436" s="22">
-        <v>1</v>
-      </c>
-      <c r="M436" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="N436" s="21"/>
-      <c r="O436" s="21"/>
-      <c r="P436" s="21"/>
+      <c r="L436" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="M436" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="N436" s="62"/>
+      <c r="O436" s="62"/>
+      <c r="P436" s="62"/>
       <c r="Q436" s="4"/>
       <c r="R436" s="4"/>
       <c r="S436" s="4"/>
@@ -25279,48 +25273,48 @@
       <c r="AA436" s="4"/>
     </row>
     <row r="437" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A437" s="2" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B437" s="2" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C437" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D437" s="2" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E437" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F437" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G437" s="5">
+      <c r="A437" s="37" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B437" s="37" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C437" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D437" s="37" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E437" s="37" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F437" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="G437" s="47">
         <v>11</v>
       </c>
-      <c r="H437" s="2">
-        <v>13</v>
-      </c>
-      <c r="I437" s="2">
-        <v>12</v>
-      </c>
-      <c r="J437" s="2">
-        <v>12</v>
-      </c>
-      <c r="K437" s="2" t="s">
+      <c r="H437" s="51">
+        <v>19</v>
+      </c>
+      <c r="I437" s="51">
+        <v>18</v>
+      </c>
+      <c r="J437" s="51">
+        <v>18</v>
+      </c>
+      <c r="K437" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="L437" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="M437" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="N437" s="2"/>
-      <c r="O437" s="2"/>
-      <c r="P437" s="2"/>
+      <c r="L437" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="M437" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="N437" s="37"/>
+      <c r="O437" s="37"/>
+      <c r="P437" s="37"/>
       <c r="Q437" s="4"/>
       <c r="R437" s="4"/>
       <c r="S437" s="4"/>
@@ -25334,48 +25328,48 @@
       <c r="AA437" s="4"/>
     </row>
     <row r="438" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A438" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B438" s="2" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C438" s="2" t="s">
+      <c r="A438" s="37" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B438" s="37" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C438" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D438" s="37" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E438" s="37" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F438" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="G438" s="47">
+        <v>14</v>
+      </c>
+      <c r="H438" s="51">
         <v>22</v>
       </c>
-      <c r="D438" s="2" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E438" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F438" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G438" s="9">
-        <v>1</v>
-      </c>
-      <c r="H438" s="2">
-        <v>2</v>
-      </c>
-      <c r="I438" s="2">
-        <v>2</v>
-      </c>
-      <c r="J438" s="2">
-        <v>2</v>
-      </c>
-      <c r="K438" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L438" s="10">
-        <v>1</v>
-      </c>
-      <c r="M438" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="N438" s="2"/>
-      <c r="O438" s="2"/>
-      <c r="P438" s="2"/>
+      <c r="I438" s="51">
+        <v>21</v>
+      </c>
+      <c r="J438" s="51">
+        <v>21</v>
+      </c>
+      <c r="K438" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="L438" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="M438" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="N438" s="37"/>
+      <c r="O438" s="37"/>
+      <c r="P438" s="37"/>
       <c r="Q438" s="4"/>
       <c r="R438" s="4"/>
       <c r="S438" s="4"/>
@@ -25389,230 +25383,224 @@
       <c r="AA438" s="4"/>
     </row>
     <row r="439" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A439" s="57" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B439" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C439" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D439" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E439" s="2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="F439" s="2" t="s">
+      <c r="A439" s="15" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B439" s="15" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C439" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D439" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E439" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F439" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G439" s="11">
+        <v>30</v>
+      </c>
+      <c r="H439" s="14">
+        <v>30</v>
+      </c>
+      <c r="I439" s="14">
+        <v>30</v>
+      </c>
+      <c r="J439" s="14">
+        <v>30</v>
+      </c>
+      <c r="K439" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="L439" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="M439" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="N439" s="15"/>
+      <c r="O439" s="15"/>
+      <c r="P439" s="15"/>
+    </row>
+    <row r="440" spans="1:27" ht="20.25" customHeight="1">
+      <c r="A440" s="17" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B440" s="78" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D440" s="17" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E440" s="17" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F440" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G440" s="18">
+        <v>9</v>
+      </c>
+      <c r="H440" s="17">
+        <v>10</v>
+      </c>
+      <c r="I440" s="17">
+        <v>7</v>
+      </c>
+      <c r="J440" s="17">
+        <v>7</v>
+      </c>
+      <c r="K440" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L440" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="M440" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="N440" s="17"/>
+      <c r="O440" s="17"/>
+      <c r="P440" s="17"/>
+    </row>
+    <row r="441" spans="1:27" ht="20.25" customHeight="1">
+      <c r="A441" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D441" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E441" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F441" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G441" s="5">
+        <v>11</v>
+      </c>
+      <c r="H441" s="2">
+        <v>14</v>
+      </c>
+      <c r="I441" s="2">
+        <v>12</v>
+      </c>
+      <c r="J441" s="2">
+        <v>12</v>
+      </c>
+      <c r="K441" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L441" s="10">
+        <v>1</v>
+      </c>
+      <c r="M441" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N441" s="2"/>
+      <c r="O441" s="2"/>
+      <c r="P441" s="2"/>
+    </row>
+    <row r="442" spans="1:27" ht="20.25" customHeight="1">
+      <c r="A442" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C442" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D442" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E442" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F442" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G442" s="5">
+        <v>11</v>
+      </c>
+      <c r="H442" s="2">
+        <v>13</v>
+      </c>
+      <c r="I442" s="2">
+        <v>12</v>
+      </c>
+      <c r="J442" s="2">
+        <v>12</v>
+      </c>
+      <c r="K442" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L442" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M442" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N442" s="2"/>
+      <c r="O442" s="2"/>
+      <c r="P442" s="2"/>
+    </row>
+    <row r="443" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A443" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D443" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E443" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F443" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G439" s="5">
-        <v>3</v>
-      </c>
-      <c r="H439" s="2">
-        <v>5</v>
-      </c>
-      <c r="I439" s="2">
-        <v>4</v>
-      </c>
-      <c r="J439" s="2">
-        <v>4</v>
-      </c>
-      <c r="K439" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="L439" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="M439" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="N439" s="2"/>
-      <c r="O439" s="2"/>
-      <c r="P439" s="2"/>
-    </row>
-    <row r="440" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A440" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B440" s="32" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C440" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D440" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E440" s="2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="F440" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G440" s="5">
-        <v>7</v>
-      </c>
-      <c r="H440" s="2">
-        <v>9</v>
-      </c>
-      <c r="I440" s="2">
-        <v>8</v>
-      </c>
-      <c r="J440" s="2">
-        <v>8</v>
-      </c>
-      <c r="K440" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="L440" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="M440" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="N440" s="2"/>
-      <c r="O440" s="2"/>
-      <c r="P440" s="2"/>
-    </row>
-    <row r="441" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A441" s="15" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B441" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C441" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D441" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E441" s="15"/>
-      <c r="F441" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G441" s="13">
-        <v>18</v>
-      </c>
-      <c r="H441" s="14">
-        <v>37</v>
-      </c>
-      <c r="I441" s="14">
-        <v>16</v>
-      </c>
-      <c r="J441" s="14">
-        <v>16</v>
-      </c>
-      <c r="K441" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="L441" s="41">
+      <c r="G443" s="9">
         <v>1</v>
       </c>
-      <c r="M441" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="N441" s="15"/>
-      <c r="O441" s="15"/>
-      <c r="P441" s="15"/>
-    </row>
-    <row r="442" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A442" s="38" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B442" s="38" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C442" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D442" s="38" t="s">
-        <v>1153</v>
-      </c>
-      <c r="E442" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F442" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="G442" s="52">
-        <v>6</v>
-      </c>
-      <c r="H442" s="52">
-        <v>5</v>
-      </c>
-      <c r="I442" s="52">
-        <v>5</v>
-      </c>
-      <c r="J442" s="52">
-        <v>5</v>
-      </c>
-      <c r="K442" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="L442" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="M442" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="N442" s="38"/>
-      <c r="O442" s="38" t="s">
-        <v>1154</v>
-      </c>
-      <c r="P442" s="38" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="443" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A443" s="38" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B443" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C443" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D443" s="38" t="s">
-        <v>1153</v>
-      </c>
-      <c r="E443" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F443" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="G443" s="52">
-        <v>9</v>
-      </c>
-      <c r="H443" s="52">
-        <v>11</v>
-      </c>
-      <c r="I443" s="52">
-        <v>10</v>
-      </c>
-      <c r="J443" s="52">
-        <v>10</v>
-      </c>
-      <c r="K443" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="L443" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="M443" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="N443" s="38"/>
-      <c r="O443" s="38" t="s">
-        <v>1154</v>
-      </c>
-      <c r="P443" s="38" t="s">
-        <v>1155</v>
-      </c>
+      <c r="H443" s="2">
+        <v>2</v>
+      </c>
+      <c r="I443" s="2">
+        <v>2</v>
+      </c>
+      <c r="J443" s="2">
+        <v>2</v>
+      </c>
+      <c r="K443" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L443" s="10">
+        <v>1</v>
+      </c>
+      <c r="M443" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N443" s="2"/>
+      <c r="O443" s="2"/>
+      <c r="P443" s="2"/>
       <c r="Q443" s="4"/>
       <c r="R443" s="4"/>
       <c r="S443" s="4"/>
@@ -25626,52 +25614,48 @@
       <c r="AA443" s="4"/>
     </row>
     <row r="444" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A444" s="38" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B444" s="38" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C444" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D444" s="38" t="s">
-        <v>1153</v>
-      </c>
-      <c r="E444" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F444" s="38" t="s">
+      <c r="A444" s="56" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C444" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D444" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E444" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F444" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G444" s="52">
-        <v>13</v>
-      </c>
-      <c r="H444" s="52">
-        <v>17</v>
-      </c>
-      <c r="I444" s="52">
-        <v>15</v>
-      </c>
-      <c r="J444" s="52">
-        <v>15</v>
-      </c>
-      <c r="K444" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="L444" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="M444" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="N444" s="38"/>
-      <c r="O444" s="38" t="s">
-        <v>1154</v>
-      </c>
-      <c r="P444" s="38" t="s">
-        <v>1155</v>
-      </c>
+      <c r="G444" s="5">
+        <v>3</v>
+      </c>
+      <c r="H444" s="2">
+        <v>5</v>
+      </c>
+      <c r="I444" s="2">
+        <v>4</v>
+      </c>
+      <c r="J444" s="2">
+        <v>4</v>
+      </c>
+      <c r="K444" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L444" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="M444" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N444" s="2"/>
+      <c r="O444" s="2"/>
+      <c r="P444" s="2"/>
       <c r="Q444" s="4"/>
       <c r="R444" s="4"/>
       <c r="S444" s="4"/>
@@ -25685,46 +25669,48 @@
       <c r="AA444" s="4"/>
     </row>
     <row r="445" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A445" s="17" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B445" s="17" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C445" s="17" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D445" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="E445" s="17"/>
-      <c r="F445" s="17" t="s">
+      <c r="A445" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D445" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E445" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F445" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G445" s="18">
-        <v>5</v>
-      </c>
-      <c r="H445" s="17">
+      <c r="G445" s="5">
         <v>7</v>
       </c>
-      <c r="I445" s="17">
+      <c r="H445" s="2">
+        <v>9</v>
+      </c>
+      <c r="I445" s="2">
         <v>8</v>
       </c>
-      <c r="J445" s="17">
+      <c r="J445" s="2">
         <v>8</v>
       </c>
-      <c r="K445" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="L445" s="16" t="s">
-        <v>369</v>
-      </c>
-      <c r="M445" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="N445" s="17"/>
-      <c r="O445" s="17"/>
-      <c r="P445" s="17"/>
+      <c r="K445" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L445" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="M445" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N445" s="2"/>
+      <c r="O445" s="2"/>
+      <c r="P445" s="2"/>
       <c r="Q445" s="4"/>
       <c r="R445" s="4"/>
       <c r="S445" s="4"/>
@@ -25738,46 +25724,46 @@
       <c r="AA445" s="4"/>
     </row>
     <row r="446" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A446" s="17" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B446" s="17" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C446" s="17" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D446" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="E446" s="17"/>
-      <c r="F446" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="G446" s="18">
-        <v>7</v>
-      </c>
-      <c r="H446" s="17">
-        <v>9</v>
-      </c>
-      <c r="I446" s="17">
-        <v>12</v>
-      </c>
-      <c r="J446" s="17">
-        <v>12</v>
-      </c>
-      <c r="K446" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="L446" s="16" t="s">
-        <v>369</v>
-      </c>
-      <c r="M446" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="N446" s="17"/>
-      <c r="O446" s="17"/>
-      <c r="P446" s="17"/>
+      <c r="A446" s="15" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C446" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D446" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E446" s="15"/>
+      <c r="F446" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G446" s="13">
+        <v>18</v>
+      </c>
+      <c r="H446" s="14">
+        <v>37</v>
+      </c>
+      <c r="I446" s="14">
+        <v>16</v>
+      </c>
+      <c r="J446" s="14">
+        <v>16</v>
+      </c>
+      <c r="K446" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="L446" s="40">
+        <v>1</v>
+      </c>
+      <c r="M446" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="N446" s="15"/>
+      <c r="O446" s="15"/>
+      <c r="P446" s="15"/>
       <c r="Q446" s="4"/>
       <c r="R446" s="4"/>
       <c r="S446" s="4"/>
@@ -25791,46 +25777,52 @@
       <c r="AA446" s="4"/>
     </row>
     <row r="447" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A447" s="17" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B447" s="17" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C447" s="17" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D447" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="E447" s="17"/>
-      <c r="F447" s="17" t="s">
+      <c r="A447" s="37" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B447" s="37" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C447" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D447" s="37" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E447" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="F447" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="G447" s="18">
-        <v>9</v>
-      </c>
-      <c r="H447" s="17">
-        <v>13</v>
-      </c>
-      <c r="I447" s="17">
-        <v>16</v>
-      </c>
-      <c r="J447" s="17">
-        <v>16</v>
-      </c>
-      <c r="K447" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="L447" s="16" t="s">
-        <v>369</v>
-      </c>
-      <c r="M447" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="N447" s="17"/>
-      <c r="O447" s="17"/>
-      <c r="P447" s="17"/>
+      <c r="G447" s="51">
+        <v>6</v>
+      </c>
+      <c r="H447" s="51">
+        <v>5</v>
+      </c>
+      <c r="I447" s="51">
+        <v>5</v>
+      </c>
+      <c r="J447" s="51">
+        <v>5</v>
+      </c>
+      <c r="K447" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="L447" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="M447" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="N447" s="37"/>
+      <c r="O447" s="37" t="s">
+        <v>1154</v>
+      </c>
+      <c r="P447" s="37" t="s">
+        <v>1155</v>
+      </c>
       <c r="Q447" s="4"/>
       <c r="R447" s="4"/>
       <c r="S447" s="4"/>
@@ -25844,2109 +25836,2111 @@
       <c r="AA447" s="4"/>
     </row>
     <row r="448" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A448" s="46" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B448" s="46" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C448" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="D448" s="46" t="s">
+      <c r="A448" s="57" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B448" s="57" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C448" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D448" s="57" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E448" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="F448" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="G448" s="61">
+        <v>9</v>
+      </c>
+      <c r="H448" s="61">
+        <v>11</v>
+      </c>
+      <c r="I448" s="61">
+        <v>10</v>
+      </c>
+      <c r="J448" s="61">
+        <v>10</v>
+      </c>
+      <c r="K448" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="L448" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="M448" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="N448" s="57"/>
+      <c r="O448" s="57" t="s">
+        <v>1154</v>
+      </c>
+      <c r="P448" s="57" t="s">
+        <v>1155</v>
+      </c>
+      <c r="Q448" s="38"/>
+      <c r="R448" s="38"/>
+      <c r="S448" s="38"/>
+      <c r="T448" s="38"/>
+      <c r="U448" s="38"/>
+      <c r="V448" s="38"/>
+      <c r="W448" s="38"/>
+      <c r="X448" s="38"/>
+      <c r="Y448" s="38"/>
+      <c r="Z448" s="38"/>
+      <c r="AA448" s="38"/>
+    </row>
+    <row r="449" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A449" s="57" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B449" s="57" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C449" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D449" s="57" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E449" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="F449" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="G449" s="61">
+        <v>13</v>
+      </c>
+      <c r="H449" s="61">
+        <v>17</v>
+      </c>
+      <c r="I449" s="61">
+        <v>15</v>
+      </c>
+      <c r="J449" s="61">
+        <v>15</v>
+      </c>
+      <c r="K449" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="L449" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="M449" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="N449" s="57"/>
+      <c r="O449" s="57" t="s">
+        <v>1154</v>
+      </c>
+      <c r="P449" s="57" t="s">
+        <v>1155</v>
+      </c>
+      <c r="Q449" s="38"/>
+      <c r="R449" s="38"/>
+      <c r="S449" s="38"/>
+      <c r="T449" s="38"/>
+      <c r="U449" s="38"/>
+      <c r="V449" s="38"/>
+      <c r="W449" s="38"/>
+      <c r="X449" s="38"/>
+      <c r="Y449" s="38"/>
+      <c r="Z449" s="38"/>
+      <c r="AA449" s="38"/>
+    </row>
+    <row r="450" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A450" s="65" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B450" s="65" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C450" s="65" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D450" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="E450" s="65"/>
+      <c r="F450" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="G450" s="66">
+        <v>5</v>
+      </c>
+      <c r="H450" s="65">
+        <v>7</v>
+      </c>
+      <c r="I450" s="65">
+        <v>8</v>
+      </c>
+      <c r="J450" s="65">
+        <v>8</v>
+      </c>
+      <c r="K450" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="L450" s="67" t="s">
+        <v>369</v>
+      </c>
+      <c r="M450" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="N450" s="65"/>
+      <c r="O450" s="65"/>
+      <c r="P450" s="65"/>
+      <c r="Q450" s="38"/>
+      <c r="R450" s="38"/>
+      <c r="S450" s="38"/>
+      <c r="T450" s="38"/>
+      <c r="U450" s="38"/>
+      <c r="V450" s="38"/>
+      <c r="W450" s="38"/>
+      <c r="X450" s="38"/>
+      <c r="Y450" s="38"/>
+      <c r="Z450" s="38"/>
+      <c r="AA450" s="38"/>
+    </row>
+    <row r="451" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A451" s="65" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B451" s="65" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C451" s="65" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D451" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="E451" s="65"/>
+      <c r="F451" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="G451" s="66">
+        <v>7</v>
+      </c>
+      <c r="H451" s="65">
+        <v>9</v>
+      </c>
+      <c r="I451" s="65">
+        <v>12</v>
+      </c>
+      <c r="J451" s="65">
+        <v>12</v>
+      </c>
+      <c r="K451" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="L451" s="67" t="s">
+        <v>369</v>
+      </c>
+      <c r="M451" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="N451" s="65"/>
+      <c r="O451" s="65"/>
+      <c r="P451" s="65"/>
+      <c r="Q451" s="38"/>
+      <c r="R451" s="38"/>
+      <c r="S451" s="38"/>
+      <c r="T451" s="38"/>
+      <c r="U451" s="38"/>
+      <c r="V451" s="38"/>
+      <c r="W451" s="38"/>
+      <c r="X451" s="38"/>
+      <c r="Y451" s="38"/>
+      <c r="Z451" s="38"/>
+      <c r="AA451" s="38"/>
+    </row>
+    <row r="452" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A452" s="65" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B452" s="65" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C452" s="65" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D452" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="E452" s="65"/>
+      <c r="F452" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="G452" s="66">
+        <v>9</v>
+      </c>
+      <c r="H452" s="65">
+        <v>13</v>
+      </c>
+      <c r="I452" s="65">
         <v>16</v>
       </c>
-      <c r="E448" s="46" t="s">
-        <v>197</v>
-      </c>
-      <c r="F448" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="G448" s="50">
-        <v>0.33</v>
-      </c>
-      <c r="H448" s="46">
-        <v>0.5</v>
-      </c>
-      <c r="I448" s="46">
-        <v>1</v>
-      </c>
-      <c r="J448" s="46">
-        <v>1</v>
-      </c>
-      <c r="K448" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="L448" s="56" t="s">
-        <v>1042</v>
-      </c>
-      <c r="M448" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="N448" s="46"/>
-      <c r="O448" s="46"/>
-      <c r="P448" s="46"/>
-      <c r="Q448" s="39"/>
-      <c r="R448" s="39"/>
-      <c r="S448" s="39"/>
-      <c r="T448" s="39"/>
-      <c r="U448" s="39"/>
-      <c r="V448" s="39"/>
-      <c r="W448" s="39"/>
-      <c r="X448" s="39"/>
-      <c r="Y448" s="39"/>
-      <c r="Z448" s="39"/>
-      <c r="AA448" s="39"/>
-    </row>
-    <row r="449" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A449" s="46" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B449" s="46" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C449" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="D449" s="46" t="s">
+      <c r="J452" s="65">
         <v>16</v>
       </c>
-      <c r="E449" s="46" t="s">
-        <v>197</v>
-      </c>
-      <c r="F449" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="G449" s="50">
-        <v>2</v>
-      </c>
-      <c r="H449" s="46">
-        <v>2</v>
-      </c>
-      <c r="I449" s="46">
-        <v>3</v>
-      </c>
-      <c r="J449" s="46">
-        <v>3</v>
-      </c>
-      <c r="K449" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="L449" s="56" t="s">
-        <v>1042</v>
-      </c>
-      <c r="M449" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="N449" s="46"/>
-      <c r="O449" s="46"/>
-      <c r="P449" s="46"/>
-      <c r="Q449" s="39"/>
-      <c r="R449" s="39"/>
-      <c r="S449" s="39"/>
-      <c r="T449" s="39"/>
-      <c r="U449" s="39"/>
-      <c r="V449" s="39"/>
-      <c r="W449" s="39"/>
-      <c r="X449" s="39"/>
-      <c r="Y449" s="39"/>
-      <c r="Z449" s="39"/>
-      <c r="AA449" s="39"/>
-    </row>
-    <row r="450" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A450" s="66" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B450" s="66" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C450" s="66" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D450" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="E450" s="66"/>
-      <c r="F450" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="G450" s="67">
-        <v>1</v>
-      </c>
-      <c r="H450" s="66">
-        <v>1</v>
-      </c>
-      <c r="I450" s="66">
-        <v>1</v>
-      </c>
-      <c r="J450" s="66">
-        <v>1</v>
-      </c>
-      <c r="K450" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="L450" s="68" t="s">
-        <v>146</v>
-      </c>
-      <c r="M450" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="N450" s="66" t="s">
-        <v>329</v>
-      </c>
-      <c r="O450" s="66"/>
-      <c r="P450" s="66"/>
-      <c r="Q450" s="39"/>
-      <c r="R450" s="39"/>
-      <c r="S450" s="39"/>
-      <c r="T450" s="39"/>
-      <c r="U450" s="39"/>
-      <c r="V450" s="39"/>
-      <c r="W450" s="39"/>
-      <c r="X450" s="39"/>
-      <c r="Y450" s="39"/>
-      <c r="Z450" s="39"/>
-      <c r="AA450" s="39"/>
-    </row>
-    <row r="451" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A451" s="45" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B451" s="45" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C451" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="D451" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E451" s="45"/>
-      <c r="F451" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G451" s="51">
-        <v>36</v>
-      </c>
-      <c r="H451" s="53">
-        <v>36</v>
-      </c>
-      <c r="I451" s="53">
-        <v>25</v>
-      </c>
-      <c r="J451" s="53">
-        <v>25</v>
-      </c>
-      <c r="K451" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="L451" s="54">
-        <v>1</v>
-      </c>
-      <c r="M451" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N451" s="45" t="s">
-        <v>1050</v>
-      </c>
-      <c r="O451" s="45"/>
-      <c r="P451" s="45"/>
-      <c r="Q451" s="39"/>
-      <c r="R451" s="39"/>
-      <c r="S451" s="39"/>
-      <c r="T451" s="39"/>
-      <c r="U451" s="39"/>
-      <c r="V451" s="39"/>
-      <c r="W451" s="39"/>
-      <c r="X451" s="39"/>
-      <c r="Y451" s="39"/>
-      <c r="Z451" s="39"/>
-      <c r="AA451" s="39"/>
-    </row>
-    <row r="452" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A452" s="45" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B452" s="46" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C452" s="45" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D452" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E452" s="45"/>
-      <c r="F452" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="G452" s="49">
-        <v>6</v>
-      </c>
-      <c r="H452" s="53">
-        <v>13</v>
-      </c>
-      <c r="I452" s="53">
-        <v>6</v>
-      </c>
-      <c r="J452" s="53">
-        <v>6</v>
-      </c>
-      <c r="K452" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="L452" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="M452" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N452" s="45"/>
-      <c r="O452" s="45"/>
-      <c r="P452" s="45"/>
-      <c r="Q452" s="39"/>
-      <c r="R452" s="39"/>
-      <c r="S452" s="39"/>
-      <c r="T452" s="39"/>
-      <c r="U452" s="39"/>
-      <c r="V452" s="39"/>
-      <c r="W452" s="39"/>
-      <c r="X452" s="39"/>
-      <c r="Y452" s="39"/>
-      <c r="Z452" s="39"/>
-      <c r="AA452" s="39"/>
+      <c r="K452" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="L452" s="67" t="s">
+        <v>369</v>
+      </c>
+      <c r="M452" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="N452" s="65"/>
+      <c r="O452" s="65"/>
+      <c r="P452" s="65"/>
+      <c r="Q452" s="38"/>
+      <c r="R452" s="38"/>
+      <c r="S452" s="38"/>
+      <c r="T452" s="38"/>
+      <c r="U452" s="38"/>
+      <c r="V452" s="38"/>
+      <c r="W452" s="38"/>
+      <c r="X452" s="38"/>
+      <c r="Y452" s="38"/>
+      <c r="Z452" s="38"/>
+      <c r="AA452" s="38"/>
     </row>
     <row r="453" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
       <c r="A453" s="45" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B453" s="46" t="s">
-        <v>1055</v>
+        <v>1040</v>
+      </c>
+      <c r="B453" s="45" t="s">
+        <v>1041</v>
       </c>
       <c r="C453" s="45" t="s">
-        <v>1053</v>
+        <v>48</v>
       </c>
       <c r="D453" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E453" s="45"/>
+        <v>16</v>
+      </c>
+      <c r="E453" s="45" t="s">
+        <v>197</v>
+      </c>
       <c r="F453" s="45" t="s">
         <v>27</v>
       </c>
       <c r="G453" s="49">
-        <v>9</v>
-      </c>
-      <c r="H453" s="53">
-        <v>18</v>
-      </c>
-      <c r="I453" s="53">
-        <v>9</v>
-      </c>
-      <c r="J453" s="53">
-        <v>9</v>
-      </c>
-      <c r="K453" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="L453" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="M453" s="45" t="s">
-        <v>54</v>
+        <v>0.33</v>
+      </c>
+      <c r="H453" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I453" s="45">
+        <v>1</v>
+      </c>
+      <c r="J453" s="45">
+        <v>1</v>
+      </c>
+      <c r="K453" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="L453" s="55" t="s">
+        <v>1042</v>
+      </c>
+      <c r="M453" s="55" t="s">
+        <v>26</v>
       </c>
       <c r="N453" s="45"/>
       <c r="O453" s="45"/>
       <c r="P453" s="45"/>
-      <c r="Q453" s="39"/>
-      <c r="R453" s="39"/>
-      <c r="S453" s="39"/>
-      <c r="T453" s="39"/>
-      <c r="U453" s="39"/>
-      <c r="V453" s="39"/>
-      <c r="W453" s="39"/>
-      <c r="X453" s="39"/>
-      <c r="Y453" s="39"/>
-      <c r="Z453" s="39"/>
-      <c r="AA453" s="39"/>
+      <c r="Q453" s="38"/>
+      <c r="R453" s="38"/>
+      <c r="S453" s="38"/>
+      <c r="T453" s="38"/>
+      <c r="U453" s="38"/>
+      <c r="V453" s="38"/>
+      <c r="W453" s="38"/>
+      <c r="X453" s="38"/>
+      <c r="Y453" s="38"/>
+      <c r="Z453" s="38"/>
+      <c r="AA453" s="38"/>
     </row>
     <row r="454" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
       <c r="A454" s="45" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B454" s="46" t="s">
-        <v>1057</v>
+        <v>1043</v>
+      </c>
+      <c r="B454" s="45" t="s">
+        <v>1044</v>
       </c>
       <c r="C454" s="45" t="s">
-        <v>1053</v>
+        <v>48</v>
       </c>
       <c r="D454" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E454" s="45"/>
+        <v>16</v>
+      </c>
+      <c r="E454" s="45" t="s">
+        <v>197</v>
+      </c>
       <c r="F454" s="45" t="s">
         <v>27</v>
       </c>
       <c r="G454" s="49">
-        <v>13</v>
-      </c>
-      <c r="H454" s="53">
+        <v>2</v>
+      </c>
+      <c r="H454" s="45">
+        <v>2</v>
+      </c>
+      <c r="I454" s="45">
+        <v>3</v>
+      </c>
+      <c r="J454" s="45">
+        <v>3</v>
+      </c>
+      <c r="K454" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="L454" s="55" t="s">
+        <v>1042</v>
+      </c>
+      <c r="M454" s="55" t="s">
         <v>26</v>
-      </c>
-      <c r="I454" s="53">
-        <v>12</v>
-      </c>
-      <c r="J454" s="53">
-        <v>12</v>
-      </c>
-      <c r="K454" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="L454" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="M454" s="45" t="s">
-        <v>54</v>
       </c>
       <c r="N454" s="45"/>
       <c r="O454" s="45"/>
       <c r="P454" s="45"/>
-      <c r="Q454" s="39"/>
-      <c r="R454" s="39"/>
-      <c r="S454" s="39"/>
-      <c r="T454" s="39"/>
-      <c r="U454" s="39"/>
-      <c r="V454" s="39"/>
-      <c r="W454" s="39"/>
-      <c r="X454" s="39"/>
-      <c r="Y454" s="39"/>
-      <c r="Z454" s="39"/>
-      <c r="AA454" s="39"/>
+      <c r="Q454" s="38"/>
+      <c r="R454" s="38"/>
+      <c r="S454" s="38"/>
+      <c r="T454" s="38"/>
+      <c r="U454" s="38"/>
+      <c r="V454" s="38"/>
+      <c r="W454" s="38"/>
+      <c r="X454" s="38"/>
+      <c r="Y454" s="38"/>
+      <c r="Z454" s="38"/>
+      <c r="AA454" s="38"/>
     </row>
     <row r="455" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A455" s="45" t="s">
+      <c r="A455" s="65" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B455" s="65" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C455" s="65" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D455" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E455" s="65"/>
+      <c r="F455" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="G455" s="66">
+        <v>1</v>
+      </c>
+      <c r="H455" s="65">
+        <v>1</v>
+      </c>
+      <c r="I455" s="65">
+        <v>1</v>
+      </c>
+      <c r="J455" s="65">
+        <v>1</v>
+      </c>
+      <c r="K455" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="L455" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="M455" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="N455" s="65" t="s">
+        <v>329</v>
+      </c>
+      <c r="O455" s="65"/>
+      <c r="P455" s="65"/>
+      <c r="Q455" s="38"/>
+      <c r="R455" s="38"/>
+      <c r="S455" s="38"/>
+      <c r="T455" s="38"/>
+      <c r="U455" s="38"/>
+      <c r="V455" s="38"/>
+      <c r="W455" s="38"/>
+      <c r="X455" s="38"/>
+      <c r="Y455" s="38"/>
+      <c r="Z455" s="38"/>
+      <c r="AA455" s="38"/>
+    </row>
+    <row r="456" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A456" s="44" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B456" s="44" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C456" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D456" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E456" s="44"/>
+      <c r="F456" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G456" s="50">
+        <v>36</v>
+      </c>
+      <c r="H456" s="52">
+        <v>36</v>
+      </c>
+      <c r="I456" s="52">
+        <v>25</v>
+      </c>
+      <c r="J456" s="52">
+        <v>25</v>
+      </c>
+      <c r="K456" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="L456" s="53">
+        <v>1</v>
+      </c>
+      <c r="M456" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="N456" s="44" t="s">
+        <v>1050</v>
+      </c>
+      <c r="O456" s="44"/>
+      <c r="P456" s="44"/>
+      <c r="Q456" s="38"/>
+      <c r="R456" s="38"/>
+      <c r="S456" s="38"/>
+      <c r="T456" s="38"/>
+      <c r="U456" s="38"/>
+      <c r="V456" s="38"/>
+      <c r="W456" s="38"/>
+      <c r="X456" s="38"/>
+      <c r="Y456" s="38"/>
+      <c r="Z456" s="38"/>
+      <c r="AA456" s="38"/>
+    </row>
+    <row r="457" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A457" s="46" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B457" s="79" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C457" s="46" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D457" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E457" s="46"/>
+      <c r="F457" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="G457" s="58">
+        <v>6</v>
+      </c>
+      <c r="H457" s="59">
+        <v>13</v>
+      </c>
+      <c r="I457" s="59">
+        <v>6</v>
+      </c>
+      <c r="J457" s="59">
+        <v>6</v>
+      </c>
+      <c r="K457" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="L457" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="M457" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N457" s="46"/>
+      <c r="O457" s="46"/>
+      <c r="P457" s="46"/>
+      <c r="Q457" s="38"/>
+      <c r="R457" s="38"/>
+      <c r="S457" s="38"/>
+      <c r="T457" s="38"/>
+      <c r="U457" s="38"/>
+      <c r="V457" s="38"/>
+      <c r="W457" s="38"/>
+      <c r="X457" s="38"/>
+      <c r="Y457" s="38"/>
+      <c r="Z457" s="38"/>
+      <c r="AA457" s="38"/>
+    </row>
+    <row r="458" spans="1:27" ht="20.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A458" s="44" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B458" s="45" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C458" s="44" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D458" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E458" s="44"/>
+      <c r="F458" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="G458" s="48">
+        <v>9</v>
+      </c>
+      <c r="H458" s="52">
+        <v>18</v>
+      </c>
+      <c r="I458" s="52">
+        <v>9</v>
+      </c>
+      <c r="J458" s="52">
+        <v>9</v>
+      </c>
+      <c r="K458" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="L458" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="M458" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="N458" s="44"/>
+      <c r="O458" s="44"/>
+      <c r="P458" s="44"/>
+      <c r="Q458" s="38"/>
+      <c r="R458" s="38"/>
+      <c r="S458" s="38"/>
+      <c r="T458" s="38"/>
+      <c r="U458" s="38"/>
+      <c r="V458" s="38"/>
+      <c r="W458" s="38"/>
+      <c r="X458" s="38"/>
+      <c r="Y458" s="38"/>
+      <c r="Z458" s="38"/>
+      <c r="AA458" s="38"/>
+    </row>
+    <row r="459" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A459" s="44" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B459" s="45" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C459" s="44" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D459" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E459" s="44"/>
+      <c r="F459" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="G459" s="48">
+        <v>13</v>
+      </c>
+      <c r="H459" s="52">
+        <v>26</v>
+      </c>
+      <c r="I459" s="52">
+        <v>12</v>
+      </c>
+      <c r="J459" s="52">
+        <v>12</v>
+      </c>
+      <c r="K459" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="L459" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="M459" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="N459" s="44"/>
+      <c r="O459" s="44"/>
+      <c r="P459" s="44"/>
+      <c r="Q459" s="38"/>
+      <c r="R459" s="38"/>
+      <c r="S459" s="38"/>
+      <c r="T459" s="38"/>
+      <c r="U459" s="38"/>
+      <c r="V459" s="38"/>
+      <c r="W459" s="38"/>
+      <c r="X459" s="38"/>
+      <c r="Y459" s="38"/>
+      <c r="Z459" s="38"/>
+      <c r="AA459" s="38"/>
+    </row>
+    <row r="460" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A460" s="44" t="s">
         <v>1058</v>
       </c>
-      <c r="B455" s="45" t="s">
+      <c r="B460" s="45" t="s">
         <v>1059</v>
       </c>
-      <c r="C455" s="45" t="s">
+      <c r="C460" s="44" t="s">
         <v>1053</v>
       </c>
-      <c r="D455" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E455" s="45"/>
-      <c r="F455" s="45" t="s">
+      <c r="D460" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E460" s="44"/>
+      <c r="F460" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G455" s="49">
+      <c r="G460" s="48">
         <v>17</v>
       </c>
-      <c r="H455" s="53">
+      <c r="H460" s="52">
         <v>33</v>
       </c>
-      <c r="I455" s="53">
+      <c r="I460" s="52">
         <v>15</v>
       </c>
-      <c r="J455" s="53">
+      <c r="J460" s="52">
         <v>15</v>
       </c>
-      <c r="K455" s="45" t="s">
+      <c r="K460" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="L455" s="54" t="s">
+      <c r="L460" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="M455" s="45" t="s">
+      <c r="M460" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="N455" s="45"/>
-      <c r="O455" s="45"/>
-      <c r="P455" s="45"/>
-      <c r="Q455" s="39"/>
-      <c r="R455" s="39"/>
-      <c r="S455" s="39"/>
-      <c r="T455" s="39"/>
-      <c r="U455" s="39"/>
-      <c r="V455" s="39"/>
-      <c r="W455" s="39"/>
-      <c r="X455" s="39"/>
-      <c r="Y455" s="39"/>
-      <c r="Z455" s="39"/>
-      <c r="AA455" s="39"/>
-    </row>
-    <row r="456" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A456" s="45" t="s">
+      <c r="N460" s="44"/>
+      <c r="O460" s="44"/>
+      <c r="P460" s="44"/>
+      <c r="Q460" s="38"/>
+      <c r="R460" s="38"/>
+      <c r="S460" s="38"/>
+      <c r="T460" s="38"/>
+      <c r="U460" s="38"/>
+      <c r="V460" s="38"/>
+      <c r="W460" s="38"/>
+      <c r="X460" s="38"/>
+      <c r="Y460" s="38"/>
+      <c r="Z460" s="38"/>
+      <c r="AA460" s="38"/>
+    </row>
+    <row r="461" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A461" s="44" t="s">
         <v>1060</v>
       </c>
-      <c r="B456" s="45" t="s">
+      <c r="B461" s="44" t="s">
         <v>1061</v>
       </c>
-      <c r="C456" s="45" t="s">
+      <c r="C461" s="44" t="s">
         <v>1053</v>
       </c>
-      <c r="D456" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E456" s="45"/>
-      <c r="F456" s="45" t="s">
+      <c r="D461" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E461" s="44"/>
+      <c r="F461" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G456" s="49">
+      <c r="G461" s="48">
         <v>19</v>
       </c>
-      <c r="H456" s="53">
+      <c r="H461" s="52">
         <v>40</v>
       </c>
-      <c r="I456" s="53">
-        <v>18</v>
-      </c>
-      <c r="J456" s="53">
-        <v>18</v>
-      </c>
-      <c r="K456" s="45" t="s">
+      <c r="I461" s="52">
+        <v>18</v>
+      </c>
+      <c r="J461" s="52">
+        <v>18</v>
+      </c>
+      <c r="K461" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="L456" s="54" t="s">
+      <c r="L461" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="M456" s="45" t="s">
+      <c r="M461" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="N456" s="45"/>
-      <c r="O456" s="45"/>
-      <c r="P456" s="45"/>
-      <c r="Q456" s="39"/>
-      <c r="R456" s="39"/>
-      <c r="S456" s="39"/>
-      <c r="T456" s="39"/>
-      <c r="U456" s="39"/>
-      <c r="V456" s="39"/>
-      <c r="W456" s="39"/>
-      <c r="X456" s="39"/>
-      <c r="Y456" s="39"/>
-      <c r="Z456" s="39"/>
-      <c r="AA456" s="39"/>
-    </row>
-    <row r="457" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A457" s="47" t="s">
+      <c r="N461" s="44"/>
+      <c r="O461" s="44"/>
+      <c r="P461" s="44"/>
+      <c r="Q461" s="38"/>
+      <c r="R461" s="38"/>
+      <c r="S461" s="38"/>
+      <c r="T461" s="38"/>
+      <c r="U461" s="38"/>
+      <c r="V461" s="38"/>
+      <c r="W461" s="38"/>
+      <c r="X461" s="38"/>
+      <c r="Y461" s="38"/>
+      <c r="Z461" s="38"/>
+      <c r="AA461" s="38"/>
+    </row>
+    <row r="462" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A462" s="44" t="s">
         <v>1063</v>
       </c>
-      <c r="B457" s="47" t="s">
+      <c r="B462" s="44" t="s">
         <v>1062</v>
       </c>
-      <c r="C457" s="47" t="s">
+      <c r="C462" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="D457" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="E457" s="47"/>
-      <c r="F457" s="47" t="s">
+      <c r="D462" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E462" s="44"/>
+      <c r="F462" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G457" s="59">
+      <c r="G462" s="48">
         <v>23</v>
       </c>
-      <c r="H457" s="60">
+      <c r="H462" s="52">
         <v>41</v>
       </c>
-      <c r="I457" s="60">
+      <c r="I462" s="52">
         <v>32</v>
       </c>
-      <c r="J457" s="60">
+      <c r="J462" s="52">
         <v>32</v>
       </c>
-      <c r="K457" s="47" t="s">
+      <c r="K462" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="L457" s="54" t="s">
+      <c r="L462" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="M457" s="47" t="s">
+      <c r="M462" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="N457" s="47"/>
-      <c r="O457" s="47"/>
-      <c r="P457" s="47"/>
-      <c r="Q457" s="39"/>
-      <c r="R457" s="39"/>
-      <c r="S457" s="39"/>
-      <c r="T457" s="39"/>
-      <c r="U457" s="39"/>
-      <c r="V457" s="39"/>
-      <c r="W457" s="39"/>
-      <c r="X457" s="39"/>
-      <c r="Y457" s="39"/>
-      <c r="Z457" s="39"/>
-      <c r="AA457" s="39"/>
-    </row>
-    <row r="458" spans="1:27" ht="20.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A458" s="46" t="s">
+      <c r="N462" s="44"/>
+      <c r="O462" s="44"/>
+      <c r="P462" s="44"/>
+      <c r="Q462" s="38"/>
+      <c r="R462" s="38"/>
+      <c r="S462" s="38"/>
+      <c r="T462" s="38"/>
+      <c r="U462" s="38"/>
+      <c r="V462" s="38"/>
+      <c r="W462" s="38"/>
+      <c r="X462" s="38"/>
+      <c r="Y462" s="38"/>
+      <c r="Z462" s="38"/>
+      <c r="AA462" s="38"/>
+    </row>
+    <row r="463" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A463" s="45" t="s">
         <v>1064</v>
       </c>
-      <c r="B458" s="46" t="s">
+      <c r="B463" s="45" t="s">
         <v>1065</v>
       </c>
-      <c r="C458" s="46" t="s">
+      <c r="C463" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="D458" s="46" t="s">
+      <c r="D463" s="45" t="s">
         <v>1066</v>
       </c>
-      <c r="E458" s="46" t="s">
+      <c r="E463" s="45" t="s">
         <v>1067</v>
       </c>
-      <c r="F458" s="46" t="s">
+      <c r="F463" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="G458" s="50">
+      <c r="G463" s="49">
         <v>3</v>
       </c>
-      <c r="H458" s="46">
+      <c r="H463" s="45">
         <v>4</v>
       </c>
-      <c r="I458" s="46">
+      <c r="I463" s="45">
         <v>4</v>
       </c>
-      <c r="J458" s="46">
+      <c r="J463" s="45">
         <v>4</v>
       </c>
-      <c r="K458" s="46" t="s">
+      <c r="K463" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="L458" s="56">
+      <c r="L463" s="55">
         <v>1</v>
       </c>
-      <c r="M458" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="N458" s="46"/>
-      <c r="O458" s="46"/>
-      <c r="P458" s="46"/>
-      <c r="Q458" s="39"/>
-      <c r="R458" s="39"/>
-      <c r="S458" s="39"/>
-      <c r="T458" s="39"/>
-      <c r="U458" s="39"/>
-      <c r="V458" s="39"/>
-      <c r="W458" s="39"/>
-      <c r="X458" s="39"/>
-      <c r="Y458" s="39"/>
-      <c r="Z458" s="39"/>
-      <c r="AA458" s="39"/>
-    </row>
-    <row r="459" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A459" s="46" t="s">
+      <c r="M463" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="N463" s="45"/>
+      <c r="O463" s="45"/>
+      <c r="P463" s="45"/>
+      <c r="Q463" s="38"/>
+      <c r="R463" s="38"/>
+      <c r="S463" s="38"/>
+      <c r="T463" s="38"/>
+      <c r="U463" s="38"/>
+      <c r="V463" s="38"/>
+      <c r="W463" s="38"/>
+      <c r="X463" s="38"/>
+      <c r="Y463" s="38"/>
+      <c r="Z463" s="38"/>
+      <c r="AA463" s="38"/>
+    </row>
+    <row r="464" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A464" s="45" t="s">
         <v>1068</v>
       </c>
-      <c r="B459" s="46" t="s">
+      <c r="B464" s="45" t="s">
         <v>1069</v>
       </c>
-      <c r="C459" s="46" t="s">
+      <c r="C464" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="D459" s="46" t="s">
+      <c r="D464" s="45" t="s">
         <v>1066</v>
       </c>
-      <c r="E459" s="46" t="s">
+      <c r="E464" s="45" t="s">
         <v>1067</v>
       </c>
-      <c r="F459" s="46" t="s">
+      <c r="F464" s="45" t="s">
         <v>17</v>
-      </c>
-      <c r="G459" s="50">
-        <v>5</v>
-      </c>
-      <c r="H459" s="46">
-        <v>7</v>
-      </c>
-      <c r="I459" s="46">
-        <v>7</v>
-      </c>
-      <c r="J459" s="46">
-        <v>7</v>
-      </c>
-      <c r="K459" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="L459" s="56">
-        <v>1</v>
-      </c>
-      <c r="M459" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="N459" s="46"/>
-      <c r="O459" s="46"/>
-      <c r="P459" s="46"/>
-      <c r="Q459" s="39"/>
-      <c r="R459" s="39"/>
-      <c r="S459" s="39"/>
-      <c r="T459" s="39"/>
-      <c r="U459" s="39"/>
-      <c r="V459" s="39"/>
-      <c r="W459" s="39"/>
-      <c r="X459" s="39"/>
-      <c r="Y459" s="39"/>
-      <c r="Z459" s="39"/>
-      <c r="AA459" s="39"/>
-    </row>
-    <row r="460" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A460" s="46" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B460" s="46" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C460" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="D460" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="E460" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="F460" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G460" s="50">
-        <v>6</v>
-      </c>
-      <c r="H460" s="46">
-        <v>6</v>
-      </c>
-      <c r="I460" s="46">
-        <v>6</v>
-      </c>
-      <c r="J460" s="46">
-        <v>6</v>
-      </c>
-      <c r="K460" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="L460" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="M460" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="N460" s="46"/>
-      <c r="O460" s="46"/>
-      <c r="P460" s="46"/>
-      <c r="Q460" s="39"/>
-      <c r="R460" s="39"/>
-      <c r="S460" s="39"/>
-      <c r="T460" s="39"/>
-      <c r="U460" s="39"/>
-      <c r="V460" s="39"/>
-      <c r="W460" s="39"/>
-      <c r="X460" s="39"/>
-      <c r="Y460" s="39"/>
-      <c r="Z460" s="39"/>
-      <c r="AA460" s="39"/>
-    </row>
-    <row r="461" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A461" s="46" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B461" s="46" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C461" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="D461" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="E461" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="F461" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G461" s="50">
-        <v>9</v>
-      </c>
-      <c r="H461" s="46">
-        <v>10</v>
-      </c>
-      <c r="I461" s="46">
-        <v>10</v>
-      </c>
-      <c r="J461" s="46">
-        <v>10</v>
-      </c>
-      <c r="K461" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="L461" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="M461" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="N461" s="46"/>
-      <c r="O461" s="46"/>
-      <c r="P461" s="46"/>
-      <c r="Q461" s="39"/>
-      <c r="R461" s="39"/>
-      <c r="S461" s="39"/>
-      <c r="T461" s="39"/>
-      <c r="U461" s="39"/>
-      <c r="V461" s="39"/>
-      <c r="W461" s="39"/>
-      <c r="X461" s="39"/>
-      <c r="Y461" s="39"/>
-      <c r="Z461" s="39"/>
-      <c r="AA461" s="39"/>
-    </row>
-    <row r="462" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A462" s="46" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B462" s="46" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C462" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="D462" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="E462" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="F462" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G462" s="50">
-        <v>12</v>
-      </c>
-      <c r="H462" s="46">
-        <v>14</v>
-      </c>
-      <c r="I462" s="46">
-        <v>14</v>
-      </c>
-      <c r="J462" s="46">
-        <v>14</v>
-      </c>
-      <c r="K462" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="L462" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="M462" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="N462" s="46"/>
-      <c r="O462" s="46"/>
-      <c r="P462" s="46"/>
-      <c r="Q462" s="39"/>
-      <c r="R462" s="39"/>
-      <c r="S462" s="39"/>
-      <c r="T462" s="39"/>
-      <c r="U462" s="39"/>
-      <c r="V462" s="39"/>
-      <c r="W462" s="39"/>
-      <c r="X462" s="39"/>
-      <c r="Y462" s="39"/>
-      <c r="Z462" s="39"/>
-      <c r="AA462" s="39"/>
-    </row>
-    <row r="463" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A463" s="46" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B463" s="46" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C463" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="D463" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="E463" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="F463" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G463" s="50">
-        <v>16</v>
-      </c>
-      <c r="H463" s="46">
-        <v>18</v>
-      </c>
-      <c r="I463" s="46">
-        <v>18</v>
-      </c>
-      <c r="J463" s="46">
-        <v>18</v>
-      </c>
-      <c r="K463" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="L463" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="M463" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="N463" s="46"/>
-      <c r="O463" s="46"/>
-      <c r="P463" s="46"/>
-      <c r="Q463" s="39"/>
-      <c r="R463" s="39"/>
-      <c r="S463" s="39"/>
-      <c r="T463" s="39"/>
-      <c r="U463" s="39"/>
-      <c r="V463" s="39"/>
-      <c r="W463" s="39"/>
-      <c r="X463" s="39"/>
-      <c r="Y463" s="39"/>
-      <c r="Z463" s="39"/>
-      <c r="AA463" s="39"/>
-    </row>
-    <row r="464" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A464" s="46" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B464" s="46" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C464" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="D464" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E464" s="45"/>
-      <c r="F464" s="45" t="s">
-        <v>27</v>
       </c>
       <c r="G464" s="49">
         <v>5</v>
       </c>
-      <c r="H464" s="53">
+      <c r="H464" s="45">
         <v>7</v>
       </c>
-      <c r="I464" s="53">
-        <v>5</v>
-      </c>
-      <c r="J464" s="53">
-        <v>5</v>
+      <c r="I464" s="45">
+        <v>7</v>
+      </c>
+      <c r="J464" s="45">
+        <v>7</v>
       </c>
       <c r="K464" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="L464" s="54" t="s">
-        <v>732</v>
-      </c>
-      <c r="M464" s="45" t="s">
-        <v>54</v>
+        <v>31</v>
+      </c>
+      <c r="L464" s="55">
+        <v>1</v>
+      </c>
+      <c r="M464" s="55" t="s">
+        <v>18</v>
       </c>
       <c r="N464" s="45"/>
       <c r="O464" s="45"/>
       <c r="P464" s="45"/>
-      <c r="Q464" s="39"/>
-      <c r="R464" s="39"/>
-      <c r="S464" s="39"/>
-      <c r="T464" s="39"/>
-      <c r="U464" s="39"/>
-      <c r="V464" s="39"/>
-      <c r="W464" s="39"/>
-      <c r="X464" s="39"/>
-      <c r="Y464" s="39"/>
-      <c r="Z464" s="39"/>
-      <c r="AA464" s="39"/>
+      <c r="Q464" s="38"/>
+      <c r="R464" s="38"/>
+      <c r="S464" s="38"/>
+      <c r="T464" s="38"/>
+      <c r="U464" s="38"/>
+      <c r="V464" s="38"/>
+      <c r="W464" s="38"/>
+      <c r="X464" s="38"/>
+      <c r="Y464" s="38"/>
+      <c r="Z464" s="38"/>
+      <c r="AA464" s="38"/>
     </row>
     <row r="465" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
       <c r="A465" s="45" t="s">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="B465" s="45" t="s">
-        <v>1081</v>
+        <v>1071</v>
       </c>
       <c r="C465" s="45" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D465" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E465" s="45"/>
+        <v>118</v>
+      </c>
+      <c r="E465" s="45" t="s">
+        <v>119</v>
+      </c>
       <c r="F465" s="45" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G465" s="49">
-        <v>8</v>
-      </c>
-      <c r="H465" s="53">
-        <v>14</v>
-      </c>
-      <c r="I465" s="53">
-        <v>10</v>
-      </c>
-      <c r="J465" s="53">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="H465" s="45">
+        <v>6</v>
+      </c>
+      <c r="I465" s="45">
+        <v>6</v>
+      </c>
+      <c r="J465" s="45">
+        <v>6</v>
       </c>
       <c r="K465" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="L465" s="54" t="s">
-        <v>732</v>
-      </c>
-      <c r="M465" s="45" t="s">
-        <v>54</v>
+        <v>31</v>
+      </c>
+      <c r="L465" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="M465" s="55" t="s">
+        <v>18</v>
       </c>
       <c r="N465" s="45"/>
       <c r="O465" s="45"/>
       <c r="P465" s="45"/>
-      <c r="Q465" s="39"/>
-      <c r="R465" s="39"/>
-      <c r="S465" s="39"/>
-      <c r="T465" s="39"/>
-      <c r="U465" s="39"/>
-      <c r="V465" s="39"/>
-      <c r="W465" s="39"/>
-      <c r="X465" s="39"/>
-      <c r="Y465" s="39"/>
-      <c r="Z465" s="39"/>
-      <c r="AA465" s="39"/>
+      <c r="Q465" s="38"/>
+      <c r="R465" s="38"/>
+      <c r="S465" s="38"/>
+      <c r="T465" s="38"/>
+      <c r="U465" s="38"/>
+      <c r="V465" s="38"/>
+      <c r="W465" s="38"/>
+      <c r="X465" s="38"/>
+      <c r="Y465" s="38"/>
+      <c r="Z465" s="38"/>
+      <c r="AA465" s="38"/>
     </row>
     <row r="466" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
       <c r="A466" s="45" t="s">
-        <v>1082</v>
+        <v>1072</v>
       </c>
       <c r="B466" s="45" t="s">
-        <v>1083</v>
+        <v>1073</v>
       </c>
       <c r="C466" s="45" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D466" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E466" s="45"/>
+        <v>118</v>
+      </c>
+      <c r="E466" s="45" t="s">
+        <v>119</v>
+      </c>
       <c r="F466" s="45" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G466" s="49">
-        <v>11</v>
-      </c>
-      <c r="H466" s="53">
-        <v>23</v>
-      </c>
-      <c r="I466" s="53">
-        <v>16</v>
-      </c>
-      <c r="J466" s="53">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="H466" s="45">
+        <v>10</v>
+      </c>
+      <c r="I466" s="45">
+        <v>10</v>
+      </c>
+      <c r="J466" s="45">
+        <v>10</v>
       </c>
       <c r="K466" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="L466" s="54">
-        <v>1</v>
-      </c>
-      <c r="M466" s="45" t="s">
-        <v>54</v>
+        <v>31</v>
+      </c>
+      <c r="L466" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="M466" s="55" t="s">
+        <v>18</v>
       </c>
       <c r="N466" s="45"/>
       <c r="O466" s="45"/>
       <c r="P466" s="45"/>
-      <c r="Q466" s="39"/>
-      <c r="R466" s="39"/>
-      <c r="S466" s="39"/>
-      <c r="T466" s="39"/>
-      <c r="U466" s="39"/>
-      <c r="V466" s="39"/>
-      <c r="W466" s="39"/>
-      <c r="X466" s="39"/>
-      <c r="Y466" s="39"/>
-      <c r="Z466" s="39"/>
-      <c r="AA466" s="39"/>
+      <c r="Q466" s="38"/>
+      <c r="R466" s="38"/>
+      <c r="S466" s="38"/>
+      <c r="T466" s="38"/>
+      <c r="U466" s="38"/>
+      <c r="V466" s="38"/>
+      <c r="W466" s="38"/>
+      <c r="X466" s="38"/>
+      <c r="Y466" s="38"/>
+      <c r="Z466" s="38"/>
+      <c r="AA466" s="38"/>
     </row>
     <row r="467" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
       <c r="A467" s="45" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B467" s="46" t="s">
-        <v>1085</v>
+        <v>1074</v>
+      </c>
+      <c r="B467" s="45" t="s">
+        <v>1075</v>
       </c>
       <c r="C467" s="45" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D467" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E467" s="45"/>
+        <v>118</v>
+      </c>
+      <c r="E467" s="45" t="s">
+        <v>119</v>
+      </c>
       <c r="F467" s="45" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G467" s="49">
-        <v>15</v>
-      </c>
-      <c r="H467" s="53">
-        <v>29</v>
-      </c>
-      <c r="I467" s="53">
-        <v>20</v>
-      </c>
-      <c r="J467" s="53">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="H467" s="45">
+        <v>14</v>
+      </c>
+      <c r="I467" s="45">
+        <v>14</v>
+      </c>
+      <c r="J467" s="45">
+        <v>14</v>
       </c>
       <c r="K467" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="L467" s="54">
-        <v>1</v>
-      </c>
-      <c r="M467" s="45" t="s">
-        <v>54</v>
+        <v>31</v>
+      </c>
+      <c r="L467" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="M467" s="55" t="s">
+        <v>18</v>
       </c>
       <c r="N467" s="45"/>
       <c r="O467" s="45"/>
       <c r="P467" s="45"/>
-      <c r="Q467" s="39"/>
-      <c r="R467" s="39"/>
-      <c r="S467" s="39"/>
-      <c r="T467" s="39"/>
-      <c r="U467" s="39"/>
-      <c r="V467" s="39"/>
-      <c r="W467" s="39"/>
-      <c r="X467" s="39"/>
-      <c r="Y467" s="39"/>
-      <c r="Z467" s="39"/>
-      <c r="AA467" s="39"/>
+      <c r="Q467" s="38"/>
+      <c r="R467" s="38"/>
+      <c r="S467" s="38"/>
+      <c r="T467" s="38"/>
+      <c r="U467" s="38"/>
+      <c r="V467" s="38"/>
+      <c r="W467" s="38"/>
+      <c r="X467" s="38"/>
+      <c r="Y467" s="38"/>
+      <c r="Z467" s="38"/>
+      <c r="AA467" s="38"/>
     </row>
     <row r="468" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
       <c r="A468" s="45" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="B468" s="45" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="C468" s="45" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D468" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E468" s="45"/>
+        <v>118</v>
+      </c>
+      <c r="E468" s="45" t="s">
+        <v>119</v>
+      </c>
       <c r="F468" s="45" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G468" s="49">
-        <v>19</v>
-      </c>
-      <c r="H468" s="53">
-        <v>35</v>
-      </c>
-      <c r="I468" s="53">
-        <v>24</v>
-      </c>
-      <c r="J468" s="53">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="H468" s="45">
+        <v>18</v>
+      </c>
+      <c r="I468" s="45">
+        <v>18</v>
+      </c>
+      <c r="J468" s="45">
+        <v>18</v>
       </c>
       <c r="K468" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="L468" s="54">
-        <v>1</v>
-      </c>
-      <c r="M468" s="45" t="s">
-        <v>54</v>
+        <v>31</v>
+      </c>
+      <c r="L468" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="M468" s="55" t="s">
+        <v>18</v>
       </c>
       <c r="N468" s="45"/>
       <c r="O468" s="45"/>
       <c r="P468" s="45"/>
-      <c r="Q468" s="39"/>
-      <c r="R468" s="39"/>
-      <c r="S468" s="39"/>
-      <c r="T468" s="39"/>
-      <c r="U468" s="39"/>
-      <c r="V468" s="39"/>
-      <c r="W468" s="39"/>
-      <c r="X468" s="39"/>
-      <c r="Y468" s="39"/>
-      <c r="Z468" s="39"/>
-      <c r="AA468" s="39"/>
+      <c r="Q468" s="38"/>
+      <c r="R468" s="38"/>
+      <c r="S468" s="38"/>
+      <c r="T468" s="38"/>
+      <c r="U468" s="38"/>
+      <c r="V468" s="38"/>
+      <c r="W468" s="38"/>
+      <c r="X468" s="38"/>
+      <c r="Y468" s="38"/>
+      <c r="Z468" s="38"/>
+      <c r="AA468" s="38"/>
     </row>
     <row r="469" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
       <c r="A469" s="45" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B469" s="45" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C469" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D469" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E469" s="44"/>
+      <c r="F469" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="G469" s="48">
+        <v>5</v>
+      </c>
+      <c r="H469" s="52">
+        <v>7</v>
+      </c>
+      <c r="I469" s="52">
+        <v>5</v>
+      </c>
+      <c r="J469" s="52">
+        <v>5</v>
+      </c>
+      <c r="K469" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="L469" s="53" t="s">
+        <v>732</v>
+      </c>
+      <c r="M469" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="N469" s="44"/>
+      <c r="O469" s="44"/>
+      <c r="P469" s="44"/>
+      <c r="Q469" s="38"/>
+      <c r="R469" s="38"/>
+      <c r="S469" s="38"/>
+      <c r="T469" s="38"/>
+      <c r="U469" s="38"/>
+      <c r="V469" s="38"/>
+      <c r="W469" s="38"/>
+      <c r="X469" s="38"/>
+      <c r="Y469" s="38"/>
+      <c r="Z469" s="38"/>
+      <c r="AA469" s="38"/>
+    </row>
+    <row r="470" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A470" s="44" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B470" s="44" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C470" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D470" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E470" s="44"/>
+      <c r="F470" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="G470" s="48">
+        <v>8</v>
+      </c>
+      <c r="H470" s="52">
+        <v>14</v>
+      </c>
+      <c r="I470" s="52">
+        <v>10</v>
+      </c>
+      <c r="J470" s="52">
+        <v>10</v>
+      </c>
+      <c r="K470" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="L470" s="53" t="s">
+        <v>732</v>
+      </c>
+      <c r="M470" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="N470" s="44"/>
+      <c r="O470" s="44"/>
+      <c r="P470" s="44"/>
+      <c r="Q470" s="38"/>
+      <c r="R470" s="38"/>
+      <c r="S470" s="38"/>
+      <c r="T470" s="38"/>
+      <c r="U470" s="38"/>
+      <c r="V470" s="38"/>
+      <c r="W470" s="38"/>
+      <c r="X470" s="38"/>
+      <c r="Y470" s="38"/>
+      <c r="Z470" s="38"/>
+      <c r="AA470" s="38"/>
+    </row>
+    <row r="471" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A471" s="44" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B471" s="44" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C471" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D471" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E471" s="44"/>
+      <c r="F471" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="G471" s="48">
+        <v>11</v>
+      </c>
+      <c r="H471" s="52">
+        <v>23</v>
+      </c>
+      <c r="I471" s="52">
+        <v>16</v>
+      </c>
+      <c r="J471" s="52">
+        <v>16</v>
+      </c>
+      <c r="K471" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="L471" s="53">
+        <v>1</v>
+      </c>
+      <c r="M471" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="N471" s="44"/>
+      <c r="O471" s="44"/>
+      <c r="P471" s="44"/>
+      <c r="Q471" s="38"/>
+      <c r="R471" s="38"/>
+      <c r="S471" s="38"/>
+      <c r="T471" s="38"/>
+      <c r="U471" s="38"/>
+      <c r="V471" s="38"/>
+      <c r="W471" s="38"/>
+      <c r="X471" s="38"/>
+      <c r="Y471" s="38"/>
+      <c r="Z471" s="38"/>
+      <c r="AA471" s="38"/>
+    </row>
+    <row r="472" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A472" s="44" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B472" s="45" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C472" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D472" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E472" s="44"/>
+      <c r="F472" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="G472" s="48">
+        <v>15</v>
+      </c>
+      <c r="H472" s="52">
+        <v>29</v>
+      </c>
+      <c r="I472" s="52">
+        <v>20</v>
+      </c>
+      <c r="J472" s="52">
+        <v>20</v>
+      </c>
+      <c r="K472" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="L472" s="53">
+        <v>1</v>
+      </c>
+      <c r="M472" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="N472" s="44"/>
+      <c r="O472" s="44"/>
+      <c r="P472" s="44"/>
+      <c r="Q472" s="38"/>
+      <c r="R472" s="38"/>
+      <c r="S472" s="38"/>
+      <c r="T472" s="38"/>
+      <c r="U472" s="38"/>
+      <c r="V472" s="38"/>
+      <c r="W472" s="38"/>
+      <c r="X472" s="38"/>
+      <c r="Y472" s="38"/>
+      <c r="Z472" s="38"/>
+      <c r="AA472" s="38"/>
+    </row>
+    <row r="473" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A473" s="44" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B473" s="45" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C473" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D473" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E473" s="44"/>
+      <c r="F473" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="G473" s="48">
+        <v>19</v>
+      </c>
+      <c r="H473" s="52">
+        <v>35</v>
+      </c>
+      <c r="I473" s="52">
+        <v>24</v>
+      </c>
+      <c r="J473" s="52">
+        <v>24</v>
+      </c>
+      <c r="K473" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="L473" s="53">
+        <v>1</v>
+      </c>
+      <c r="M473" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="N473" s="44"/>
+      <c r="O473" s="44"/>
+      <c r="P473" s="44"/>
+      <c r="Q473" s="38"/>
+      <c r="R473" s="38"/>
+      <c r="S473" s="38"/>
+      <c r="T473" s="38"/>
+      <c r="U473" s="38"/>
+      <c r="V473" s="38"/>
+      <c r="W473" s="38"/>
+      <c r="X473" s="38"/>
+      <c r="Y473" s="38"/>
+      <c r="Z473" s="38"/>
+      <c r="AA473" s="38"/>
+    </row>
+    <row r="474" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A474" s="44" t="s">
         <v>1088</v>
       </c>
-      <c r="B469" s="45" t="s">
+      <c r="B474" s="44" t="s">
         <v>1089</v>
       </c>
-      <c r="C469" s="45" t="s">
+      <c r="C474" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="D469" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E469" s="45"/>
-      <c r="F469" s="45" t="s">
+      <c r="D474" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E474" s="44"/>
+      <c r="F474" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G469" s="49">
+      <c r="G474" s="48">
         <v>23</v>
       </c>
-      <c r="H469" s="53">
+      <c r="H474" s="52">
         <v>40</v>
       </c>
-      <c r="I469" s="53">
+      <c r="I474" s="52">
         <v>28</v>
       </c>
-      <c r="J469" s="53">
+      <c r="J474" s="52">
         <v>28</v>
       </c>
-      <c r="K469" s="45" t="s">
+      <c r="K474" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="L469" s="54">
+      <c r="L474" s="53">
         <v>1</v>
       </c>
-      <c r="M469" s="45" t="s">
+      <c r="M474" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="N469" s="45"/>
-      <c r="O469" s="45"/>
-      <c r="P469" s="45"/>
-      <c r="Q469" s="39"/>
-      <c r="R469" s="39"/>
-      <c r="S469" s="39"/>
-      <c r="T469" s="39"/>
-      <c r="U469" s="39"/>
-      <c r="V469" s="39"/>
-      <c r="W469" s="39"/>
-      <c r="X469" s="39"/>
-      <c r="Y469" s="39"/>
-      <c r="Z469" s="39"/>
-      <c r="AA469" s="39"/>
-    </row>
-    <row r="470" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A470" s="45" t="s">
+      <c r="N474" s="44"/>
+      <c r="O474" s="44"/>
+      <c r="P474" s="44"/>
+      <c r="Q474" s="38"/>
+      <c r="R474" s="38"/>
+      <c r="S474" s="38"/>
+      <c r="T474" s="38"/>
+      <c r="U474" s="38"/>
+      <c r="V474" s="38"/>
+      <c r="W474" s="38"/>
+      <c r="X474" s="38"/>
+      <c r="Y474" s="38"/>
+      <c r="Z474" s="38"/>
+      <c r="AA474" s="38"/>
+    </row>
+    <row r="475" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A475" s="44" t="s">
         <v>1090</v>
       </c>
-      <c r="B470" s="45" t="s">
+      <c r="B475" s="44" t="s">
         <v>1091</v>
       </c>
-      <c r="C470" s="45" t="s">
+      <c r="C475" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="D470" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E470" s="45"/>
-      <c r="F470" s="45" t="s">
+      <c r="D475" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E475" s="44"/>
+      <c r="F475" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G470" s="49">
+      <c r="G475" s="48">
         <v>27</v>
       </c>
-      <c r="H470" s="53">
+      <c r="H475" s="52">
         <v>45</v>
       </c>
-      <c r="I470" s="53">
+      <c r="I475" s="52">
         <v>32</v>
       </c>
-      <c r="J470" s="53">
+      <c r="J475" s="52">
         <v>32</v>
       </c>
-      <c r="K470" s="45" t="s">
+      <c r="K475" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="L470" s="54">
+      <c r="L475" s="53">
         <v>1</v>
       </c>
-      <c r="M470" s="45" t="s">
+      <c r="M475" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="N470" s="45"/>
-      <c r="O470" s="45"/>
-      <c r="P470" s="45"/>
-      <c r="Q470" s="39"/>
-      <c r="R470" s="39"/>
-      <c r="S470" s="39"/>
-      <c r="T470" s="39"/>
-      <c r="U470" s="39"/>
-      <c r="V470" s="39"/>
-      <c r="W470" s="39"/>
-      <c r="X470" s="39"/>
-      <c r="Y470" s="39"/>
-      <c r="Z470" s="39"/>
-      <c r="AA470" s="39"/>
-    </row>
-    <row r="471" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A471" s="45" t="s">
+      <c r="N475" s="44"/>
+      <c r="O475" s="44"/>
+      <c r="P475" s="44"/>
+      <c r="Q475" s="38"/>
+      <c r="R475" s="38"/>
+      <c r="S475" s="38"/>
+      <c r="T475" s="38"/>
+      <c r="U475" s="38"/>
+      <c r="V475" s="38"/>
+      <c r="W475" s="38"/>
+      <c r="X475" s="38"/>
+      <c r="Y475" s="38"/>
+      <c r="Z475" s="38"/>
+      <c r="AA475" s="38"/>
+    </row>
+    <row r="476" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A476" s="44" t="s">
         <v>1092</v>
       </c>
-      <c r="B471" s="46" t="s">
+      <c r="B476" s="45" t="s">
         <v>1093</v>
       </c>
-      <c r="C471" s="45" t="s">
+      <c r="C476" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="D471" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E471" s="45"/>
-      <c r="F471" s="45" t="s">
+      <c r="D476" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E476" s="44"/>
+      <c r="F476" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="G471" s="49">
+      <c r="G476" s="48">
         <v>1</v>
       </c>
-      <c r="H471" s="53">
+      <c r="H476" s="52">
         <v>9</v>
       </c>
-      <c r="I471" s="53">
+      <c r="I476" s="52">
         <v>3</v>
       </c>
-      <c r="J471" s="53">
+      <c r="J476" s="52">
         <v>3</v>
       </c>
-      <c r="K471" s="45" t="s">
+      <c r="K476" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="L471" s="54" t="s">
+      <c r="L476" s="53" t="s">
         <v>1094</v>
       </c>
-      <c r="M471" s="45" t="s">
+      <c r="M476" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="N471" s="45"/>
-      <c r="O471" s="45"/>
-      <c r="P471" s="45"/>
-      <c r="Q471" s="39"/>
-      <c r="R471" s="39"/>
-      <c r="S471" s="39"/>
-      <c r="T471" s="39"/>
-      <c r="U471" s="39"/>
-      <c r="V471" s="39"/>
-      <c r="W471" s="39"/>
-      <c r="X471" s="39"/>
-      <c r="Y471" s="39"/>
-      <c r="Z471" s="39"/>
-      <c r="AA471" s="39"/>
-    </row>
-    <row r="472" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A472" s="45" t="s">
+      <c r="N476" s="44"/>
+      <c r="O476" s="44"/>
+      <c r="P476" s="44"/>
+      <c r="Q476" s="38"/>
+      <c r="R476" s="38"/>
+      <c r="S476" s="38"/>
+      <c r="T476" s="38"/>
+      <c r="U476" s="38"/>
+      <c r="V476" s="38"/>
+      <c r="W476" s="38"/>
+      <c r="X476" s="38"/>
+      <c r="Y476" s="38"/>
+      <c r="Z476" s="38"/>
+      <c r="AA476" s="38"/>
+    </row>
+    <row r="477" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A477" s="44" t="s">
         <v>1095</v>
       </c>
-      <c r="B472" s="46" t="s">
+      <c r="B477" s="45" t="s">
         <v>1096</v>
       </c>
-      <c r="C472" s="45" t="s">
+      <c r="C477" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="D472" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E472" s="45"/>
-      <c r="F472" s="45" t="s">
+      <c r="D477" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E477" s="44"/>
+      <c r="F477" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="G472" s="49">
+      <c r="G477" s="48">
         <v>4</v>
       </c>
-      <c r="H472" s="53">
+      <c r="H477" s="52">
         <v>9</v>
       </c>
-      <c r="I472" s="53">
+      <c r="I477" s="52">
         <v>6</v>
       </c>
-      <c r="J472" s="53">
+      <c r="J477" s="52">
         <v>6</v>
       </c>
-      <c r="K472" s="45" t="s">
+      <c r="K477" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="L472" s="54" t="s">
+      <c r="L477" s="53" t="s">
         <v>958</v>
       </c>
-      <c r="M472" s="45" t="s">
+      <c r="M477" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="N472" s="45"/>
-      <c r="O472" s="45"/>
-      <c r="P472" s="45"/>
-      <c r="Q472" s="39"/>
-      <c r="R472" s="39"/>
-      <c r="S472" s="39"/>
-      <c r="T472" s="39"/>
-      <c r="U472" s="39"/>
-      <c r="V472" s="39"/>
-      <c r="W472" s="39"/>
-      <c r="X472" s="39"/>
-      <c r="Y472" s="39"/>
-      <c r="Z472" s="39"/>
-      <c r="AA472" s="39"/>
-    </row>
-    <row r="473" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A473" s="45" t="s">
+      <c r="N477" s="44"/>
+      <c r="O477" s="44"/>
+      <c r="P477" s="44"/>
+      <c r="Q477" s="38"/>
+      <c r="R477" s="38"/>
+      <c r="S477" s="38"/>
+      <c r="T477" s="38"/>
+      <c r="U477" s="38"/>
+      <c r="V477" s="38"/>
+      <c r="W477" s="38"/>
+      <c r="X477" s="38"/>
+      <c r="Y477" s="38"/>
+      <c r="Z477" s="38"/>
+      <c r="AA477" s="38"/>
+    </row>
+    <row r="478" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A478" s="44" t="s">
         <v>1097</v>
       </c>
-      <c r="B473" s="46" t="s">
+      <c r="B478" s="45" t="s">
         <v>1098</v>
       </c>
-      <c r="C473" s="45" t="s">
+      <c r="C478" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="D473" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E473" s="45"/>
-      <c r="F473" s="45" t="s">
+      <c r="D478" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E478" s="44"/>
+      <c r="F478" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="G473" s="49">
+      <c r="G478" s="48">
         <v>7</v>
       </c>
-      <c r="H473" s="53">
+      <c r="H478" s="52">
         <v>12</v>
       </c>
-      <c r="I473" s="53">
+      <c r="I478" s="52">
         <v>9</v>
       </c>
-      <c r="J473" s="53">
+      <c r="J478" s="52">
         <v>9</v>
       </c>
-      <c r="K473" s="45" t="s">
+      <c r="K478" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="L473" s="54" t="s">
+      <c r="L478" s="53" t="s">
         <v>958</v>
       </c>
-      <c r="M473" s="45" t="s">
+      <c r="M478" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="N473" s="45"/>
-      <c r="O473" s="45"/>
-      <c r="P473" s="45"/>
-      <c r="Q473" s="39"/>
-      <c r="R473" s="39"/>
-      <c r="S473" s="39"/>
-      <c r="T473" s="39"/>
-      <c r="U473" s="39"/>
-      <c r="V473" s="39"/>
-      <c r="W473" s="39"/>
-      <c r="X473" s="39"/>
-      <c r="Y473" s="39"/>
-      <c r="Z473" s="39"/>
-      <c r="AA473" s="39"/>
-    </row>
-    <row r="474" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A474" s="46" t="s">
+      <c r="N478" s="44"/>
+      <c r="O478" s="44"/>
+      <c r="P478" s="44"/>
+      <c r="Q478" s="38"/>
+      <c r="R478" s="38"/>
+      <c r="S478" s="38"/>
+      <c r="T478" s="38"/>
+      <c r="U478" s="38"/>
+      <c r="V478" s="38"/>
+      <c r="W478" s="38"/>
+      <c r="X478" s="38"/>
+      <c r="Y478" s="38"/>
+      <c r="Z478" s="38"/>
+      <c r="AA478" s="38"/>
+    </row>
+    <row r="479" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A479" s="45" t="s">
         <v>1105</v>
       </c>
-      <c r="B474" s="46" t="s">
+      <c r="B479" s="45" t="s">
         <v>1106</v>
       </c>
-      <c r="C474" s="46" t="s">
+      <c r="C479" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="D474" s="46" t="s">
+      <c r="D479" s="45" t="s">
         <v>1022</v>
       </c>
-      <c r="E474" s="46"/>
-      <c r="F474" s="46" t="s">
+      <c r="E479" s="45"/>
+      <c r="F479" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="G474" s="71">
+      <c r="G479" s="70">
         <v>7</v>
       </c>
-      <c r="H474" s="46">
+      <c r="H479" s="45">
         <v>10</v>
       </c>
-      <c r="I474" s="46">
+      <c r="I479" s="45">
         <v>8</v>
       </c>
-      <c r="J474" s="46">
+      <c r="J479" s="45">
         <v>8</v>
       </c>
-      <c r="K474" s="46" t="s">
+      <c r="K479" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="L474" s="56" t="s">
+      <c r="L479" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="M474" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="N474" s="46"/>
-      <c r="O474" s="46"/>
-      <c r="P474" s="46"/>
-      <c r="Q474" s="39"/>
-      <c r="R474" s="39"/>
-      <c r="S474" s="39"/>
-      <c r="T474" s="39"/>
-      <c r="U474" s="39"/>
-      <c r="V474" s="39"/>
-      <c r="W474" s="39"/>
-      <c r="X474" s="39"/>
-      <c r="Y474" s="39"/>
-      <c r="Z474" s="39"/>
-      <c r="AA474" s="39"/>
-    </row>
-    <row r="475" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A475" s="46" t="s">
+      <c r="M479" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="N479" s="45"/>
+      <c r="O479" s="45"/>
+      <c r="P479" s="45"/>
+      <c r="Q479" s="38"/>
+      <c r="R479" s="38"/>
+      <c r="S479" s="38"/>
+      <c r="T479" s="38"/>
+      <c r="U479" s="38"/>
+      <c r="V479" s="38"/>
+      <c r="W479" s="38"/>
+      <c r="X479" s="38"/>
+      <c r="Y479" s="38"/>
+      <c r="Z479" s="38"/>
+      <c r="AA479" s="38"/>
+    </row>
+    <row r="480" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A480" s="45" t="s">
         <v>1107</v>
       </c>
-      <c r="B475" s="46" t="s">
+      <c r="B480" s="45" t="s">
         <v>1108</v>
       </c>
-      <c r="C475" s="46" t="s">
+      <c r="C480" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D475" s="46" t="s">
+      <c r="D480" s="45" t="s">
         <v>1022</v>
       </c>
-      <c r="E475" s="46"/>
-      <c r="F475" s="46" t="s">
+      <c r="E480" s="45"/>
+      <c r="F480" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="G475" s="71">
+      <c r="G480" s="70">
         <v>6</v>
       </c>
-      <c r="H475" s="46">
+      <c r="H480" s="45">
         <v>12</v>
       </c>
-      <c r="I475" s="46">
+      <c r="I480" s="45">
         <v>7</v>
       </c>
-      <c r="J475" s="46">
+      <c r="J480" s="45">
         <v>7</v>
       </c>
-      <c r="K475" s="46" t="s">
+      <c r="K480" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="L475" s="56" t="s">
+      <c r="L480" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="M475" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="N475" s="46"/>
-      <c r="O475" s="46"/>
-      <c r="P475" s="46"/>
-      <c r="Q475" s="39"/>
-      <c r="R475" s="39"/>
-      <c r="S475" s="39"/>
-      <c r="T475" s="39"/>
-      <c r="U475" s="39"/>
-      <c r="V475" s="39"/>
-      <c r="W475" s="39"/>
-      <c r="X475" s="39"/>
-      <c r="Y475" s="39"/>
-      <c r="Z475" s="39"/>
-      <c r="AA475" s="39"/>
-    </row>
-    <row r="476" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A476" s="46" t="s">
+      <c r="M480" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="N480" s="45"/>
+      <c r="O480" s="45"/>
+      <c r="P480" s="45"/>
+      <c r="Q480" s="38"/>
+      <c r="R480" s="38"/>
+      <c r="S480" s="38"/>
+      <c r="T480" s="38"/>
+      <c r="U480" s="38"/>
+      <c r="V480" s="38"/>
+      <c r="W480" s="38"/>
+      <c r="X480" s="38"/>
+      <c r="Y480" s="38"/>
+      <c r="Z480" s="38"/>
+      <c r="AA480" s="38"/>
+    </row>
+    <row r="481" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A481" s="45" t="s">
         <v>1109</v>
       </c>
-      <c r="B476" s="46" t="s">
+      <c r="B481" s="45" t="s">
         <v>1110</v>
       </c>
-      <c r="C476" s="46" t="s">
+      <c r="C481" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="D476" s="46" t="s">
+      <c r="D481" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="E476" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="F476" s="45" t="s">
+      <c r="E481" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F481" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="G476" s="50">
+      <c r="G481" s="49">
         <v>2</v>
       </c>
-      <c r="H476" s="46">
+      <c r="H481" s="45">
         <v>2</v>
       </c>
-      <c r="I476" s="46">
+      <c r="I481" s="45">
         <v>2</v>
       </c>
-      <c r="J476" s="46">
+      <c r="J481" s="45">
         <v>2</v>
       </c>
-      <c r="K476" s="46" t="s">
+      <c r="K481" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="L476" s="56">
+      <c r="L481" s="55">
         <v>1</v>
       </c>
-      <c r="M476" s="56" t="s">
+      <c r="M481" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="N476" s="46" t="s">
+      <c r="N481" s="45" t="s">
         <v>1111</v>
       </c>
-      <c r="O476" s="46"/>
-      <c r="P476" s="46"/>
-      <c r="Q476" s="39"/>
-      <c r="R476" s="39"/>
-      <c r="S476" s="39"/>
-      <c r="T476" s="39"/>
-      <c r="U476" s="39"/>
-      <c r="V476" s="39"/>
-      <c r="W476" s="39"/>
-      <c r="X476" s="39"/>
-      <c r="Y476" s="39"/>
-      <c r="Z476" s="39"/>
-      <c r="AA476" s="39"/>
-    </row>
-    <row r="477" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A477" s="46" t="s">
+      <c r="O481" s="45"/>
+      <c r="P481" s="45"/>
+      <c r="Q481" s="38"/>
+      <c r="R481" s="38"/>
+      <c r="S481" s="38"/>
+      <c r="T481" s="38"/>
+      <c r="U481" s="38"/>
+      <c r="V481" s="38"/>
+      <c r="W481" s="38"/>
+      <c r="X481" s="38"/>
+      <c r="Y481" s="38"/>
+      <c r="Z481" s="38"/>
+      <c r="AA481" s="38"/>
+    </row>
+    <row r="482" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A482" s="45" t="s">
         <v>1112</v>
       </c>
-      <c r="B477" s="46" t="s">
+      <c r="B482" s="45" t="s">
         <v>1113</v>
       </c>
-      <c r="C477" s="46" t="s">
+      <c r="C482" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="D477" s="46" t="s">
+      <c r="D482" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="E477" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="F477" s="46" t="s">
+      <c r="E482" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F482" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="G477" s="50">
+      <c r="G482" s="49">
         <v>2</v>
       </c>
-      <c r="H477" s="46">
+      <c r="H482" s="45">
         <v>2</v>
       </c>
-      <c r="I477" s="46">
+      <c r="I482" s="45">
         <v>2</v>
       </c>
-      <c r="J477" s="46">
+      <c r="J482" s="45">
         <v>2</v>
       </c>
-      <c r="K477" s="46" t="s">
+      <c r="K482" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="L477" s="56" t="s">
+      <c r="L482" s="55" t="s">
         <v>369</v>
       </c>
-      <c r="M477" s="56" t="s">
+      <c r="M482" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="N477" s="46"/>
-      <c r="O477" s="46"/>
-      <c r="P477" s="46"/>
-      <c r="Q477" s="39"/>
-      <c r="R477" s="39"/>
-      <c r="S477" s="39"/>
-      <c r="T477" s="39"/>
-      <c r="U477" s="39"/>
-      <c r="V477" s="39"/>
-      <c r="W477" s="39"/>
-      <c r="X477" s="39"/>
-      <c r="Y477" s="39"/>
-      <c r="Z477" s="39"/>
-      <c r="AA477" s="39"/>
-    </row>
-    <row r="478" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A478" s="46" t="s">
+      <c r="N482" s="45"/>
+      <c r="O482" s="45"/>
+      <c r="P482" s="45"/>
+      <c r="Q482" s="57"/>
+      <c r="R482" s="57"/>
+      <c r="S482" s="57"/>
+      <c r="T482" s="57"/>
+      <c r="U482" s="57"/>
+      <c r="V482" s="57"/>
+      <c r="W482" s="57"/>
+      <c r="X482" s="57"/>
+      <c r="Y482" s="57"/>
+      <c r="Z482" s="57"/>
+      <c r="AA482" s="57"/>
+    </row>
+    <row r="483" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A483" s="45" t="s">
         <v>1114</v>
       </c>
-      <c r="B478" s="46" t="s">
+      <c r="B483" s="45" t="s">
         <v>1115</v>
       </c>
-      <c r="C478" s="46" t="s">
+      <c r="C483" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="D478" s="46" t="s">
+      <c r="D483" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="E478" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="F478" s="46" t="s">
+      <c r="E483" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F483" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="G478" s="50">
+      <c r="G483" s="49">
         <v>2</v>
       </c>
-      <c r="H478" s="46">
+      <c r="H483" s="45">
         <v>2</v>
       </c>
-      <c r="I478" s="46">
+      <c r="I483" s="45">
         <v>2</v>
       </c>
-      <c r="J478" s="46">
+      <c r="J483" s="45">
         <v>2</v>
       </c>
-      <c r="K478" s="46" t="s">
+      <c r="K483" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="L478" s="56" t="s">
+      <c r="L483" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="M478" s="56" t="s">
+      <c r="M483" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="N478" s="46"/>
-      <c r="O478" s="46"/>
-      <c r="P478" s="46"/>
-      <c r="Q478" s="39"/>
-      <c r="R478" s="39"/>
-      <c r="S478" s="39"/>
-      <c r="T478" s="39"/>
-      <c r="U478" s="39"/>
-      <c r="V478" s="39"/>
-      <c r="W478" s="39"/>
-      <c r="X478" s="39"/>
-      <c r="Y478" s="39"/>
-      <c r="Z478" s="39"/>
-      <c r="AA478" s="39"/>
-    </row>
-    <row r="479" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A479" s="46" t="s">
+      <c r="N483" s="45"/>
+      <c r="O483" s="45"/>
+      <c r="P483" s="45"/>
+      <c r="Q483" s="57"/>
+      <c r="R483" s="57"/>
+      <c r="S483" s="57"/>
+      <c r="T483" s="57"/>
+      <c r="U483" s="57"/>
+      <c r="V483" s="57"/>
+      <c r="W483" s="57"/>
+      <c r="X483" s="57"/>
+      <c r="Y483" s="57"/>
+      <c r="Z483" s="57"/>
+      <c r="AA483" s="57"/>
+    </row>
+    <row r="484" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A484" s="45" t="s">
         <v>1099</v>
       </c>
-      <c r="B479" s="46" t="s">
+      <c r="B484" s="45" t="s">
         <v>1100</v>
       </c>
-      <c r="C479" s="46" t="s">
+      <c r="C484" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="D479" s="46" t="s">
+      <c r="D484" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="E479" s="46"/>
-      <c r="F479" s="46" t="s">
+      <c r="E484" s="45"/>
+      <c r="F484" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="G479" s="75">
+      <c r="G484" s="72">
         <v>0.5</v>
       </c>
-      <c r="H479" s="46">
+      <c r="H484" s="45">
         <v>2</v>
       </c>
-      <c r="I479" s="46">
+      <c r="I484" s="45">
         <v>2</v>
       </c>
-      <c r="J479" s="46">
+      <c r="J484" s="45">
         <v>2</v>
       </c>
-      <c r="K479" s="46" t="s">
+      <c r="K484" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="L479" s="56" t="s">
+      <c r="L484" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="M479" s="56" t="s">
+      <c r="M484" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="N479" s="46"/>
-      <c r="O479" s="46"/>
-      <c r="P479" s="46"/>
-      <c r="Q479" s="39"/>
-      <c r="R479" s="39"/>
-      <c r="S479" s="39"/>
-      <c r="T479" s="39"/>
-      <c r="U479" s="39"/>
-      <c r="V479" s="39"/>
-      <c r="W479" s="39"/>
-      <c r="X479" s="39"/>
-      <c r="Y479" s="39"/>
-      <c r="Z479" s="39"/>
-      <c r="AA479" s="39"/>
-    </row>
-    <row r="480" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A480" s="46" t="s">
+      <c r="N484" s="45"/>
+      <c r="O484" s="45"/>
+      <c r="P484" s="45"/>
+      <c r="Q484" s="57"/>
+      <c r="R484" s="57"/>
+      <c r="S484" s="57"/>
+      <c r="T484" s="57"/>
+      <c r="U484" s="57"/>
+      <c r="V484" s="57"/>
+      <c r="W484" s="57"/>
+      <c r="X484" s="57"/>
+      <c r="Y484" s="57"/>
+      <c r="Z484" s="57"/>
+      <c r="AA484" s="57"/>
+    </row>
+    <row r="485" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A485" s="45" t="s">
         <v>1101</v>
       </c>
-      <c r="B480" s="46" t="s">
+      <c r="B485" s="45" t="s">
         <v>1102</v>
       </c>
-      <c r="C480" s="46" t="s">
+      <c r="C485" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="D480" s="46" t="s">
+      <c r="D485" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="E480" s="46"/>
-      <c r="F480" s="46" t="s">
+      <c r="E485" s="45"/>
+      <c r="F485" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="G480" s="71">
+      <c r="G485" s="70">
         <v>2</v>
       </c>
-      <c r="H480" s="46">
+      <c r="H485" s="45">
         <v>3</v>
       </c>
-      <c r="I480" s="46">
+      <c r="I485" s="45">
         <v>4</v>
       </c>
-      <c r="J480" s="46">
+      <c r="J485" s="45">
         <v>4</v>
       </c>
-      <c r="K480" s="46" t="s">
+      <c r="K485" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="L480" s="56" t="s">
+      <c r="L485" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="M480" s="56" t="s">
+      <c r="M485" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="N480" s="46"/>
-      <c r="O480" s="46"/>
-      <c r="P480" s="46"/>
-      <c r="Q480" s="39"/>
-      <c r="R480" s="39"/>
-      <c r="S480" s="39"/>
-      <c r="T480" s="39"/>
-      <c r="U480" s="39"/>
-      <c r="V480" s="39"/>
-      <c r="W480" s="39"/>
-      <c r="X480" s="39"/>
-      <c r="Y480" s="39"/>
-      <c r="Z480" s="39"/>
-      <c r="AA480" s="39"/>
-    </row>
-    <row r="481" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A481" s="46" t="s">
+      <c r="N485" s="45"/>
+      <c r="O485" s="45"/>
+      <c r="P485" s="45"/>
+      <c r="Q485" s="57"/>
+      <c r="R485" s="57"/>
+      <c r="S485" s="57"/>
+      <c r="T485" s="57"/>
+      <c r="U485" s="57"/>
+      <c r="V485" s="57"/>
+      <c r="W485" s="57"/>
+      <c r="X485" s="57"/>
+      <c r="Y485" s="57"/>
+      <c r="Z485" s="57"/>
+      <c r="AA485" s="57"/>
+    </row>
+    <row r="486" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A486" s="45" t="s">
         <v>1103</v>
       </c>
-      <c r="B481" s="46" t="s">
+      <c r="B486" s="45" t="s">
         <v>1104</v>
       </c>
-      <c r="C481" s="46" t="s">
+      <c r="C486" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="D481" s="46" t="s">
+      <c r="D486" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="E481" s="46"/>
-      <c r="F481" s="46" t="s">
+      <c r="E486" s="45"/>
+      <c r="F486" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="G481" s="71">
+      <c r="G486" s="70">
         <v>4</v>
       </c>
-      <c r="H481" s="46">
+      <c r="H486" s="45">
         <v>5</v>
       </c>
-      <c r="I481" s="46">
+      <c r="I486" s="45">
         <v>6</v>
       </c>
-      <c r="J481" s="46">
+      <c r="J486" s="45">
         <v>6</v>
       </c>
-      <c r="K481" s="46" t="s">
+      <c r="K486" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="L481" s="56" t="s">
+      <c r="L486" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="M481" s="56" t="s">
+      <c r="M486" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="N481" s="46"/>
-      <c r="O481" s="46"/>
-      <c r="P481" s="46"/>
-      <c r="Q481" s="39"/>
-      <c r="R481" s="39"/>
-      <c r="S481" s="39"/>
-      <c r="T481" s="39"/>
-      <c r="U481" s="39"/>
-      <c r="V481" s="39"/>
-      <c r="W481" s="39"/>
-      <c r="X481" s="39"/>
-      <c r="Y481" s="39"/>
-      <c r="Z481" s="39"/>
-      <c r="AA481" s="39"/>
-    </row>
-    <row r="482" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A482" s="58" t="s">
-        <v>1203</v>
-      </c>
-      <c r="B482" s="58" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C482" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="D482" s="58" t="s">
-        <v>1205</v>
-      </c>
-      <c r="E482" s="58" t="s">
-        <v>1206</v>
-      </c>
-      <c r="F482" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="G482" s="82">
-        <v>4</v>
-      </c>
-      <c r="H482" s="62">
-        <v>8</v>
-      </c>
-      <c r="I482" s="62">
-        <v>7</v>
-      </c>
-      <c r="J482" s="62">
-        <v>7</v>
-      </c>
-      <c r="K482" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="L482" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="M482" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="N482" s="58"/>
-      <c r="O482" s="58"/>
-      <c r="P482" s="58"/>
-      <c r="Q482" s="58"/>
-      <c r="R482" s="58"/>
-      <c r="S482" s="58"/>
-      <c r="T482" s="58"/>
-      <c r="U482" s="58"/>
-      <c r="V482" s="58"/>
-      <c r="W482" s="58"/>
-      <c r="X482" s="58"/>
-      <c r="Y482" s="58"/>
-      <c r="Z482" s="58"/>
-      <c r="AA482" s="58"/>
-    </row>
-    <row r="483" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A483" s="58" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B483" s="58" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C483" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="D483" s="58" t="s">
-        <v>1205</v>
-      </c>
-      <c r="E483" s="58" t="s">
-        <v>1206</v>
-      </c>
-      <c r="F483" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="G483" s="82">
-        <v>6</v>
-      </c>
-      <c r="H483" s="62">
-        <v>11</v>
-      </c>
-      <c r="I483" s="62">
-        <v>10</v>
-      </c>
-      <c r="J483" s="62">
-        <v>10</v>
-      </c>
-      <c r="K483" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="L483" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="M483" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="N483" s="58"/>
-      <c r="O483" s="58"/>
-      <c r="P483" s="58"/>
-      <c r="Q483" s="58"/>
-      <c r="R483" s="58"/>
-      <c r="S483" s="58"/>
-      <c r="T483" s="58"/>
-      <c r="U483" s="58"/>
-      <c r="V483" s="58"/>
-      <c r="W483" s="58"/>
-      <c r="X483" s="58"/>
-      <c r="Y483" s="58"/>
-      <c r="Z483" s="58"/>
-      <c r="AA483" s="58"/>
-    </row>
-    <row r="484" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A484" s="58" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B484" s="58" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C484" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="D484" s="58" t="s">
-        <v>1205</v>
-      </c>
-      <c r="E484" s="58" t="s">
-        <v>1206</v>
-      </c>
-      <c r="F484" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="G484" s="82">
-        <v>8</v>
-      </c>
-      <c r="H484" s="62">
-        <v>15</v>
-      </c>
-      <c r="I484" s="62">
-        <v>14</v>
-      </c>
-      <c r="J484" s="62">
-        <v>14</v>
-      </c>
-      <c r="K484" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="L484" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="M484" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="N484" s="58"/>
-      <c r="O484" s="58"/>
-      <c r="P484" s="58"/>
-      <c r="Q484" s="58"/>
-      <c r="R484" s="58"/>
-      <c r="S484" s="58"/>
-      <c r="T484" s="58"/>
-      <c r="U484" s="58"/>
-      <c r="V484" s="58"/>
-      <c r="W484" s="58"/>
-      <c r="X484" s="58"/>
-      <c r="Y484" s="58"/>
-      <c r="Z484" s="58"/>
-      <c r="AA484" s="58"/>
-    </row>
-    <row r="485" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A485" s="58" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B485" s="58" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C485" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="D485" s="58" t="s">
-        <v>1205</v>
-      </c>
-      <c r="E485" s="58" t="s">
-        <v>1206</v>
-      </c>
-      <c r="F485" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="G485" s="82">
-        <v>11</v>
-      </c>
-      <c r="H485" s="62">
-        <v>19</v>
-      </c>
-      <c r="I485" s="62">
-        <v>18</v>
-      </c>
-      <c r="J485" s="62">
-        <v>18</v>
-      </c>
-      <c r="K485" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="L485" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="M485" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="N485" s="58"/>
-      <c r="O485" s="58"/>
-      <c r="P485" s="58"/>
-      <c r="Q485" s="58"/>
-      <c r="R485" s="58"/>
-      <c r="S485" s="58"/>
-      <c r="T485" s="58"/>
-      <c r="U485" s="58"/>
-      <c r="V485" s="58"/>
-      <c r="W485" s="58"/>
-      <c r="X485" s="58"/>
-      <c r="Y485" s="58"/>
-      <c r="Z485" s="58"/>
-      <c r="AA485" s="58"/>
-    </row>
-    <row r="486" spans="1:27" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A486" s="58" t="s">
-        <v>1213</v>
-      </c>
-      <c r="B486" s="58" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C486" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="D486" s="58" t="s">
-        <v>1205</v>
-      </c>
-      <c r="E486" s="58" t="s">
-        <v>1206</v>
-      </c>
-      <c r="F486" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="G486" s="82">
-        <v>14</v>
-      </c>
-      <c r="H486" s="62">
-        <v>22</v>
-      </c>
-      <c r="I486" s="62">
-        <v>21</v>
-      </c>
-      <c r="J486" s="62">
-        <v>21</v>
-      </c>
-      <c r="K486" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="L486" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="M486" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="N486" s="58"/>
-      <c r="O486" s="58"/>
-      <c r="P486" s="58"/>
-      <c r="Q486" s="58"/>
-      <c r="R486" s="58"/>
-      <c r="S486" s="58"/>
-      <c r="T486" s="58"/>
-      <c r="U486" s="58"/>
-      <c r="V486" s="58"/>
-      <c r="W486" s="58"/>
-      <c r="X486" s="58"/>
-      <c r="Y486" s="58"/>
-      <c r="Z486" s="58"/>
-      <c r="AA486" s="58"/>
+      <c r="N486" s="45"/>
+      <c r="O486" s="45"/>
+      <c r="P486" s="45"/>
+      <c r="Q486" s="57"/>
+      <c r="R486" s="57"/>
+      <c r="S486" s="57"/>
+      <c r="T486" s="57"/>
+      <c r="U486" s="57"/>
+      <c r="V486" s="57"/>
+      <c r="W486" s="57"/>
+      <c r="X486" s="57"/>
+      <c r="Y486" s="57"/>
+      <c r="Z486" s="57"/>
+      <c r="AA486" s="57"/>
     </row>
     <row r="487" spans="1:27" ht="20.25" customHeight="1"/>
     <row r="488" spans="1:27" ht="20.25" customHeight="1"/>

--- a/_notes_/Encounter Tables/NWNDS Plains Master List.xlsx
+++ b/_notes_/Encounter Tables/NWNDS Plains Master List.xlsx
@@ -4342,10 +4342,10 @@
   <dimension ref="A1:AA1028"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B413" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B221" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A415" sqref="A415"/>
+      <selection pane="bottomRight" activeCell="G224" sqref="G224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1"/>
@@ -4949,7 +4949,7 @@
       <c r="A13" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -14703,10 +14703,10 @@
       <c r="P222" s="15"/>
     </row>
     <row r="223" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A223" s="15" t="s">
+      <c r="A223" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="B223" s="15" t="s">
+      <c r="B223" s="2" t="s">
         <v>558</v>
       </c>
       <c r="C223" s="15" t="s">
@@ -28485,8 +28485,8 @@
     <row r="1027" ht="20.25" customHeight="1"/>
     <row r="1028" ht="20.25" customHeight="1"/>
   </sheetData>
-  <sortState ref="A2:P1028">
-    <sortCondition ref="A1"/>
+  <sortState ref="A2:P486">
+    <sortCondition ref="A408"/>
   </sortState>
   <customSheetViews>
     <customSheetView guid="{80734D63-0E7C-4AF5-A298-F02A102A9929}" filter="1" showAutoFilter="1">
